--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="223">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -28,6 +28,9 @@
     <t>District</t>
   </si>
   <si>
+    <t>LinkagesSelection</t>
+  </si>
+  <si>
     <t>ReferrelRecordingMonth</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>client_age</t>
   </si>
   <si>
+    <t>copy-1-of-LinkagesSelection</t>
+  </si>
+  <si>
     <t>date_ae_identified</t>
   </si>
   <si>
@@ -430,6 +436,18 @@
     <t>uncircumcisedClientsForHTS</t>
   </si>
   <si>
+    <t>uncircumcised_care</t>
+  </si>
+  <si>
+    <t>uncircumcised_prep</t>
+  </si>
+  <si>
+    <t>uncircumcised_srh</t>
+  </si>
+  <si>
+    <t>uncircumcised_sti</t>
+  </si>
+  <si>
     <t>vmmc_number</t>
   </si>
   <si>
@@ -439,25 +457,100 @@
     <t>facilityType</t>
   </si>
   <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
     <t>MARONDERA</t>
   </si>
   <si>
+    <t>TENGWE - 101886 - CLINIC</t>
+  </si>
+  <si>
     <t>MAHUSEKWA - 100829 - HOSPITAL</t>
   </si>
   <si>
-    <t>30-34_yrs</t>
+    <t>MARONDERA PROVINCIAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>MARONDERA  - 100903 - PROVINCIAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 40-44_yrs</t>
+  </si>
+  <si>
+    <t>50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
+    <t>Beagest Clinic</t>
+  </si>
+  <si>
     <t>Border Church Clinic</t>
   </si>
   <si>
+    <t>Chakadini Clinic</t>
+  </si>
+  <si>
     <t>Chimbwanda Clinic</t>
   </si>
   <si>
-    <t>Chakadini Clinic</t>
+    <t>Chinhere Clinic</t>
+  </si>
+  <si>
+    <t>Chiparawe Clinic</t>
+  </si>
+  <si>
+    <t>Kushinga Clinic</t>
+  </si>
+  <si>
+    <t>Mahusekwa District Hospital</t>
+  </si>
+  <si>
+    <t>Marondera Provincial Hospital</t>
+  </si>
+  <si>
+    <t>Marondera Rural District Council Clinic</t>
+  </si>
+  <si>
+    <t>Moy Clinic</t>
+  </si>
+  <si>
+    <t>Waddilove Clinic</t>
+  </si>
+  <si>
+    <t>Zebra downs Clinic</t>
   </si>
   <si>
     <t>0</t>
@@ -466,40 +559,106 @@
     <t>22</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>correction</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>7</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2025-05-14T11:42:35.586575Z</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2025-07-19T10:04:43.558609Z</t>
+  </si>
+  <si>
+    <t>2025-06-04T06:33:05.775814Z</t>
+  </si>
+  <si>
+    <t>2025-05-14T09:44:12.349300Z</t>
   </si>
   <si>
     <t>2025-05-14T10:01:37.406487Z</t>
   </si>
   <si>
-    <t>2025-05-14T09:44:12.349300Z</t>
+    <t>2025-07-03T04:35:05.818275Z</t>
+  </si>
+  <si>
+    <t>2025-05-23T12:16:46.389505Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:47:44.156355Z</t>
+  </si>
+  <si>
+    <t>2025-07-04T06:51:29.899097Z</t>
+  </si>
+  <si>
+    <t>2025-07-04T19:33:28.979488Z</t>
+  </si>
+  <si>
+    <t>2025-07-04T19:26:49.877079Z</t>
+  </si>
+  <si>
+    <t>2025-06-04T08:59:38.762892Z</t>
+  </si>
+  <si>
+    <t>2025-07-03T06:45:00.666926Z</t>
+  </si>
+  <si>
+    <t>2025-06-04T08:58:08.926212Z</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
   <si>
     <t>April</t>
@@ -508,19 +667,22 @@
     <t>20-24_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 50_yrs</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>2025</t>
+  </si>
+  <si>
+    <t>Outreach</t>
   </si>
 </sst>
 </file>
@@ -878,13 +1040,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EL4"/>
+  <dimension ref="A1:ER14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:142">
+    <row r="1" spans="1:148">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,8 +1470,26 @@
       <c r="EL1" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="EM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="2" spans="1:142">
+    <row r="2" spans="1:148">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1323,10 +1503,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1334,11 +1511,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1346,20 +1526,20 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>159</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>165</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1367,44 +1547,44 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
-        <v>145</v>
-      </c>
-      <c r="V2" t="s">
-        <v>148</v>
+      <c r="V2">
+        <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>150</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="X2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>194</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1412,8 +1592,8 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2" t="s">
-        <v>158</v>
+      <c r="AK2">
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1502,62 +1682,59 @@
       <c r="BN2">
         <v>0</v>
       </c>
-      <c r="BO2">
-        <v>0</v>
+      <c r="BO2" t="s">
+        <v>185</v>
       </c>
       <c r="BP2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>162</v>
+        <v>192</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="BZ2" t="s">
-        <v>143</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>179</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
-      <c r="CD2">
-        <v>0</v>
+      <c r="CD2" t="s">
+        <v>185</v>
       </c>
       <c r="CE2" t="s">
-        <v>148</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>189</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>192</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1565,17 +1742,17 @@
       <c r="CI2">
         <v>0</v>
       </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
+      <c r="CJ2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>192</v>
       </c>
       <c r="CL2">
         <v>0</v>
       </c>
-      <c r="CM2" t="s">
-        <v>158</v>
+      <c r="CM2">
+        <v>0</v>
       </c>
       <c r="CN2">
         <v>0</v>
@@ -1613,6 +1790,9 @@
       <c r="CY2">
         <v>0</v>
       </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
       <c r="DA2">
         <v>0</v>
       </c>
@@ -1634,32 +1814,38 @@
       <c r="DM2">
         <v>0</v>
       </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>148</v>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>148</v>
+        <v>179</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>179</v>
       </c>
       <c r="DU2" t="s">
-        <v>164</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>148</v>
+        <v>179</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>164</v>
-      </c>
-      <c r="DZ2">
-        <v>0</v>
-      </c>
-      <c r="EA2">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>154</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>179</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1670,32 +1856,47 @@
       <c r="ED2">
         <v>0</v>
       </c>
-      <c r="EE2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>158</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>148</v>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>148</v>
-      </c>
-      <c r="EJ2">
-        <v>0</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>168</v>
+        <v>179</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>179</v>
       </c>
       <c r="EL2">
         <v>0</v>
       </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:142">
+    <row r="3" spans="1:148">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1709,10 +1910,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1720,11 +1918,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>150</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1732,17 +1930,20 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>160</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>165</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1750,20 +1951,17 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" t="s">
-        <v>146</v>
-      </c>
-      <c r="V3" t="s">
-        <v>148</v>
+      <c r="V3">
+        <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>150</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="X3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>184</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1783,14 +1981,14 @@
       <c r="AE3">
         <v>0</v>
       </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
       <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>155</v>
+      <c r="AI3">
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1837,8 +2035,8 @@
       <c r="AX3">
         <v>0</v>
       </c>
-      <c r="AY3" t="s">
-        <v>148</v>
+      <c r="AY3">
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1885,17 +2083,17 @@
       <c r="BN3">
         <v>0</v>
       </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
+      <c r="BO3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>188</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -1909,38 +2107,35 @@
       <c r="BV3">
         <v>0</v>
       </c>
-      <c r="BW3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>162</v>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="BZ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>179</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
+      <c r="CD3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>179</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -1954,17 +2149,17 @@
       <c r="CK3">
         <v>0</v>
       </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
+      <c r="CL3" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>188</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -1996,12 +2191,12 @@
       <c r="CY3">
         <v>0</v>
       </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
       <c r="DA3">
         <v>0</v>
       </c>
-      <c r="DB3" t="s">
-        <v>155</v>
-      </c>
       <c r="DC3">
         <v>0</v>
       </c>
@@ -2020,38 +2215,35 @@
       <c r="DM3">
         <v>0</v>
       </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>148</v>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="DT3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="DU3" t="s">
-        <v>156</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>156</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>218</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>218</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -2062,32 +2254,50 @@
       <c r="ED3">
         <v>0</v>
       </c>
-      <c r="EE3" t="s">
-        <v>166</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>166</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>155</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>148</v>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>148</v>
-      </c>
-      <c r="EJ3">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>179</v>
       </c>
       <c r="EK3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="EL3">
         <v>0</v>
       </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:142">
+    <row r="4" spans="1:148">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2101,10 +2311,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2112,11 +2319,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>150</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2124,17 +2331,17 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="N4">
         <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>165</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2142,338 +2349,4423 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>168</v>
+      </c>
+      <c r="X4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>215</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>183</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>179</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>219</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>219</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>220</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>0</v>
+      </c>
+      <c r="EP4">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:148">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>165</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>169</v>
+      </c>
+      <c r="X5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>204</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>215</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>216</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>189</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>179</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>183</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>199</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>199</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>189</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
+      <c r="EN5">
+        <v>0</v>
+      </c>
+      <c r="EO5">
+        <v>0</v>
+      </c>
+      <c r="EP5">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:148">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>147</v>
       </c>
-      <c r="V4" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>149</v>
       </c>
-      <c r="W4" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>170</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>214</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>179</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6">
+        <v>0</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>0</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EO6">
+        <v>0</v>
+      </c>
+      <c r="EP6">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:148">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>165</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>171</v>
+      </c>
+      <c r="X7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>215</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>179</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>179</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="EM7">
+        <v>0</v>
+      </c>
+      <c r="EN7">
+        <v>0</v>
+      </c>
+      <c r="EO7">
+        <v>0</v>
+      </c>
+      <c r="EP7">
+        <v>0</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:148">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>172</v>
+      </c>
+      <c r="X8" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>215</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>179</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>187</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>179</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>179</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL8">
+        <v>0</v>
+      </c>
+      <c r="EM8">
+        <v>0</v>
+      </c>
+      <c r="EN8">
+        <v>0</v>
+      </c>
+      <c r="EO8">
+        <v>0</v>
+      </c>
+      <c r="EP8">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:148">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>150</v>
       </c>
-      <c r="X4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>173</v>
+      </c>
+      <c r="X9" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>208</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>214</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>217</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>179</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>191</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL9">
+        <v>0</v>
+      </c>
+      <c r="EM9">
+        <v>0</v>
+      </c>
+      <c r="EN9">
+        <v>0</v>
+      </c>
+      <c r="EO9">
+        <v>0</v>
+      </c>
+      <c r="EP9">
+        <v>0</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:148">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>152</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="K10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>174</v>
+      </c>
+      <c r="X10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>209</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>214</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>181</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>191</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>188</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>179</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>179</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL10">
+        <v>0</v>
+      </c>
+      <c r="EM10">
+        <v>0</v>
+      </c>
+      <c r="EN10">
+        <v>0</v>
+      </c>
+      <c r="EO10">
+        <v>0</v>
+      </c>
+      <c r="EP10">
+        <v>0</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:148">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>175</v>
+      </c>
+      <c r="X11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>214</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>216</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>188</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>192</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>190</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EB11">
+        <v>0</v>
+      </c>
+      <c r="EC11">
+        <v>0</v>
+      </c>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
+      </c>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+      <c r="EG11">
+        <v>0</v>
+      </c>
+      <c r="EH11">
+        <v>0</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL11">
+        <v>0</v>
+      </c>
+      <c r="EM11">
+        <v>0</v>
+      </c>
+      <c r="EN11">
+        <v>0</v>
+      </c>
+      <c r="EO11">
+        <v>0</v>
+      </c>
+      <c r="EP11">
+        <v>0</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:148">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>153</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>165</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>176</v>
+      </c>
+      <c r="X12" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>211</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>215</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>179</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>181</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>181</v>
+      </c>
+      <c r="DX12">
+        <v>0</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>183</v>
+      </c>
+      <c r="EB12">
+        <v>0</v>
+      </c>
+      <c r="EC12">
+        <v>0</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>0</v>
+      </c>
+      <c r="EG12">
+        <v>0</v>
+      </c>
+      <c r="EH12">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL12">
+        <v>0</v>
+      </c>
+      <c r="EM12">
+        <v>0</v>
+      </c>
+      <c r="EN12">
+        <v>0</v>
+      </c>
+      <c r="EO12">
+        <v>0</v>
+      </c>
+      <c r="EP12">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:148">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>165</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>177</v>
+      </c>
+      <c r="X13" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>188</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>214</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>188</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>189</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>179</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>182</v>
+      </c>
+      <c r="DX13">
+        <v>0</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>182</v>
+      </c>
+      <c r="EB13">
+        <v>0</v>
+      </c>
+      <c r="EC13">
+        <v>0</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
+      </c>
+      <c r="EE13">
+        <v>0</v>
+      </c>
+      <c r="EF13">
+        <v>0</v>
+      </c>
+      <c r="EG13">
+        <v>0</v>
+      </c>
+      <c r="EH13">
+        <v>0</v>
+      </c>
+      <c r="EI13" t="s">
         <v>156</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>154</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>152</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
-      <c r="DE4">
-        <v>0</v>
-      </c>
-      <c r="DG4">
-        <v>0</v>
-      </c>
-      <c r="DI4">
-        <v>0</v>
-      </c>
-      <c r="DK4">
-        <v>0</v>
-      </c>
-      <c r="DM4">
-        <v>0</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DU4" t="s">
+      <c r="EJ13" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL13">
+        <v>0</v>
+      </c>
+      <c r="EM13">
+        <v>0</v>
+      </c>
+      <c r="EN13">
+        <v>0</v>
+      </c>
+      <c r="EO13">
+        <v>0</v>
+      </c>
+      <c r="EP13">
+        <v>0</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:148">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>165</v>
       </c>
-      <c r="DV4">
-        <v>0</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DZ4">
-        <v>0</v>
-      </c>
-      <c r="EA4">
-        <v>0</v>
-      </c>
-      <c r="EB4">
-        <v>0</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>166</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>166</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>167</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>148</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>148</v>
-      </c>
-      <c r="EJ4">
-        <v>0</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>168</v>
-      </c>
-      <c r="EL4">
-        <v>0</v>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>178</v>
+      </c>
+      <c r="X14" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>215</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>179</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>183</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>183</v>
+      </c>
+      <c r="DX14">
+        <v>0</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>183</v>
+      </c>
+      <c r="EB14">
+        <v>0</v>
+      </c>
+      <c r="EC14">
+        <v>0</v>
+      </c>
+      <c r="ED14">
+        <v>0</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
+      </c>
+      <c r="EF14">
+        <v>0</v>
+      </c>
+      <c r="EG14">
+        <v>0</v>
+      </c>
+      <c r="EH14">
+        <v>0</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL14">
+        <v>0</v>
+      </c>
+      <c r="EM14">
+        <v>0</v>
+      </c>
+      <c r="EN14">
+        <v>0</v>
+      </c>
+      <c r="EO14">
+        <v>0</v>
+      </c>
+      <c r="EP14">
+        <v>0</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>221</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="229">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -463,6 +463,9 @@
     <t>MARONDERA</t>
   </si>
   <si>
+    <t>linkages_to_prep linkages_to_care</t>
+  </si>
+  <si>
     <t>TENGWE - 101886 - CLINIC</t>
   </si>
   <si>
@@ -514,6 +517,9 @@
     <t>false</t>
   </si>
   <si>
+    <t>referral_sti referral_srh</t>
+  </si>
+  <si>
     <t>Beagest Clinic</t>
   </si>
   <si>
@@ -559,6 +565,9 @@
     <t>22</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -577,6 +586,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -601,15 +613,15 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs</t>
   </si>
   <si>
@@ -628,6 +640,9 @@
     <t>2025-05-14T09:44:12.349300Z</t>
   </si>
   <si>
+    <t>2025-08-01T16:30:29.462584Z</t>
+  </si>
+  <si>
     <t>2025-05-14T10:01:37.406487Z</t>
   </si>
   <si>
@@ -662,6 +677,9 @@
   </si>
   <si>
     <t>April</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
   <si>
     <t>20-24_yrs</t>
@@ -1040,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER14"/>
+  <dimension ref="A1:ER15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1530,61 +1548,61 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" t="s">
         <v>159</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>165</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>166</v>
-      </c>
-      <c r="X2" t="s">
-        <v>158</v>
-      </c>
       <c r="Y2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Z2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AA2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AB2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AG2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AH2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1683,28 +1701,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BP2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BQ2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BR2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BS2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BT2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BU2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BV2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1713,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BZ2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="CA2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="CE2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CF2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CG2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1743,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="CK2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -1821,31 +1839,31 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DT2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DU2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DV2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DW2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DZ2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="EA2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1869,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EJ2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1890,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -1922,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1934,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1943,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1955,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="X3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Y3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2084,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BP3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BQ3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BR3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2114,28 +2132,28 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BZ3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="CA3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CE3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CF3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CG3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2150,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="CM3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CN3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="CO3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -2222,28 +2240,28 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DT3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DU3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DV3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="DW3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EA3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -2267,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EJ3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EK3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2291,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2323,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2341,269 +2359,269 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>170</v>
+      </c>
+      <c r="X4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
         <v>165</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>168</v>
-      </c>
-      <c r="X4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL4" t="s">
         <v>184</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>181</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="s">
         <v>186</v>
       </c>
-      <c r="AA4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>215</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>164</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>183</v>
-      </c>
       <c r="DC4">
         <v>0</v>
       </c>
@@ -2629,22 +2647,22 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DU4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DW4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EA4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2668,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="EJ4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EK4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2692,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2714,6 +2732,9 @@
       <c r="E5" t="s">
         <v>148</v>
       </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -2724,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2735,6 +2756,9 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5" t="s">
+        <v>161</v>
+      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -2742,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2750,29 +2774,32 @@
       <c r="T5">
         <v>0</v>
       </c>
+      <c r="U5" t="s">
+        <v>167</v>
+      </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Y5" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>196</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -2786,224 +2813,230 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
+      <c r="AH5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>189</v>
       </c>
       <c r="AK5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>221</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>156</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="s">
         <v>189</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>179</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>204</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>215</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>179</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>216</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
       <c r="DC5">
         <v>0</v>
       </c>
       <c r="DD5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="DE5">
         <v>0</v>
@@ -3027,28 +3060,22 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>179</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>179</v>
-      </c>
-      <c r="DV5" t="s">
+        <v>181</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="s">
         <v>183</v>
       </c>
-      <c r="DW5" t="s">
-        <v>199</v>
-      </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EA5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="EB5">
         <v>0</v>
@@ -3056,11 +3083,11 @@
       <c r="EC5">
         <v>0</v>
       </c>
-      <c r="ED5">
-        <v>0</v>
-      </c>
-      <c r="EE5">
-        <v>0</v>
+      <c r="ED5" t="s">
+        <v>191</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>181</v>
       </c>
       <c r="EF5">
         <v>0</v>
@@ -3072,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>189</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>179</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>179</v>
+        <v>226</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
       </c>
       <c r="EL5">
         <v>0</v>
@@ -3096,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3116,10 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3131,10 +3155,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3145,9 +3166,6 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
-        <v>159</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -3155,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3163,20 +3181,17 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>170</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="X6" t="s">
+        <v>181</v>
       </c>
       <c r="Y6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -3202,17 +3217,14 @@
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
+      <c r="AK6" t="s">
+        <v>193</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3259,8 +3271,8 @@
       <c r="AZ6">
         <v>0</v>
       </c>
-      <c r="BA6">
-        <v>0</v>
+      <c r="BA6" t="s">
+        <v>181</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3301,26 +3313,29 @@
       <c r="BN6">
         <v>0</v>
       </c>
-      <c r="BO6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>179</v>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3329,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BZ6" t="s">
-        <v>214</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>181</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>222</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -3415,83 +3430,56 @@
       <c r="DA6">
         <v>0</v>
       </c>
-      <c r="DB6">
-        <v>0</v>
-      </c>
       <c r="DC6">
         <v>0</v>
       </c>
-      <c r="DD6">
-        <v>0</v>
+      <c r="DD6" t="s">
+        <v>193</v>
       </c>
       <c r="DE6">
         <v>0</v>
       </c>
-      <c r="DF6">
-        <v>0</v>
-      </c>
       <c r="DG6">
         <v>0</v>
       </c>
-      <c r="DH6">
-        <v>0</v>
-      </c>
       <c r="DI6">
         <v>0</v>
       </c>
-      <c r="DJ6">
-        <v>0</v>
-      </c>
       <c r="DK6">
         <v>0</v>
       </c>
-      <c r="DL6">
-        <v>0</v>
-      </c>
       <c r="DM6">
         <v>0</v>
       </c>
-      <c r="DN6">
-        <v>0</v>
-      </c>
       <c r="DO6">
         <v>0</v>
       </c>
-      <c r="DP6">
-        <v>0</v>
-      </c>
-      <c r="DQ6">
-        <v>0</v>
-      </c>
       <c r="DR6">
         <v>0</v>
       </c>
-      <c r="DS6">
-        <v>0</v>
-      </c>
-      <c r="DT6">
-        <v>0</v>
-      </c>
-      <c r="DU6">
-        <v>0</v>
-      </c>
-      <c r="DV6">
-        <v>0</v>
+      <c r="DS6" t="s">
+        <v>181</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>181</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>181</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>186</v>
       </c>
       <c r="DW6" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
-      <c r="DY6">
-        <v>0</v>
-      </c>
-      <c r="DZ6">
-        <v>0</v>
-      </c>
-      <c r="EA6">
-        <v>0</v>
+      <c r="DZ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>203</v>
       </c>
       <c r="EB6">
         <v>0</v>
@@ -3514,14 +3502,14 @@
       <c r="EH6">
         <v>0</v>
       </c>
-      <c r="EI6">
-        <v>0</v>
-      </c>
-      <c r="EJ6">
-        <v>0</v>
-      </c>
-      <c r="EK6">
-        <v>0</v>
+      <c r="EI6" t="s">
+        <v>193</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>181</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3539,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3559,7 +3547,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3571,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3585,6 +3576,9 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7" t="s">
+        <v>160</v>
+      </c>
       <c r="P7">
         <v>0</v>
       </c>
@@ -3592,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3600,35 +3594,38 @@
       <c r="T7">
         <v>0</v>
       </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>171</v>
-      </c>
-      <c r="X7" t="s">
-        <v>155</v>
+        <v>172</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z7" t="s">
         <v>187</v>
       </c>
-      <c r="AA7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>187</v>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -3636,8 +3633,8 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7" t="s">
-        <v>195</v>
+      <c r="AH7">
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -3735,29 +3732,26 @@
       <c r="BN7">
         <v>0</v>
       </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
+      <c r="BO7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>181</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3766,13 +3760,16 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BZ7" t="s">
-        <v>215</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>179</v>
+        <v>219</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
       </c>
       <c r="CC7">
         <v>0</v>
@@ -3849,56 +3846,83 @@
       <c r="DA7">
         <v>0</v>
       </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
       <c r="DC7">
         <v>0</v>
       </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
       <c r="DE7">
         <v>0</v>
       </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
       <c r="DG7">
         <v>0</v>
       </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
       <c r="DI7">
         <v>0</v>
       </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
       <c r="DK7">
         <v>0</v>
       </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
       <c r="DM7">
         <v>0</v>
       </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
       <c r="DO7">
         <v>0</v>
       </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
       <c r="DR7">
         <v>0</v>
       </c>
-      <c r="DS7" t="s">
-        <v>179</v>
-      </c>
-      <c r="DT7" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>179</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>155</v>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
-      <c r="DY7" t="s">
-        <v>155</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>179</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>179</v>
+      <c r="DY7">
+        <v>0</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
       </c>
       <c r="EB7">
         <v>0</v>
@@ -3921,14 +3945,14 @@
       <c r="EH7">
         <v>0</v>
       </c>
-      <c r="EI7" t="s">
-        <v>179</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>179</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>179</v>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
       </c>
       <c r="EL7">
         <v>0</v>
@@ -3946,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -3992,9 +4016,6 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
-        <v>161</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -4002,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4014,31 +4035,31 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X8" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="Y8" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>191</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -4046,6 +4067,9 @@
       <c r="AG8">
         <v>0</v>
       </c>
+      <c r="AH8" t="s">
+        <v>200</v>
+      </c>
       <c r="AI8">
         <v>0</v>
       </c>
@@ -4142,14 +4166,14 @@
       <c r="BN8">
         <v>0</v>
       </c>
-      <c r="BO8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>193</v>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
       </c>
       <c r="BR8">
         <v>0</v>
@@ -4157,8 +4181,8 @@
       <c r="BS8">
         <v>0</v>
       </c>
-      <c r="BT8" t="s">
-        <v>192</v>
+      <c r="BT8">
+        <v>0</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -4173,25 +4197,25 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BZ8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="CA8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
-      <c r="CD8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>179</v>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
       </c>
       <c r="CG8">
         <v>0</v>
@@ -4199,8 +4223,8 @@
       <c r="CH8">
         <v>0</v>
       </c>
-      <c r="CI8" t="s">
-        <v>179</v>
+      <c r="CI8">
+        <v>0</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -4208,14 +4232,14 @@
       <c r="CK8">
         <v>0</v>
       </c>
-      <c r="CL8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>179</v>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
       </c>
       <c r="CO8">
         <v>0</v>
@@ -4223,8 +4247,8 @@
       <c r="CP8">
         <v>0</v>
       </c>
-      <c r="CQ8" t="s">
-        <v>179</v>
+      <c r="CQ8">
+        <v>0</v>
       </c>
       <c r="CR8">
         <v>0</v>
@@ -4232,14 +4256,14 @@
       <c r="CS8">
         <v>0</v>
       </c>
-      <c r="CT8" t="s">
-        <v>187</v>
-      </c>
-      <c r="CU8" t="s">
-        <v>189</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>193</v>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
       </c>
       <c r="CW8">
         <v>0</v>
@@ -4247,8 +4271,8 @@
       <c r="CX8">
         <v>0</v>
       </c>
-      <c r="CY8" t="s">
-        <v>192</v>
+      <c r="CY8">
+        <v>0</v>
       </c>
       <c r="CZ8">
         <v>0</v>
@@ -4281,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DT8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DU8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DV8" t="s">
         <v>156</v>
@@ -4302,10 +4326,10 @@
         <v>156</v>
       </c>
       <c r="DZ8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EA8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EB8">
         <v>0</v>
@@ -4329,10 +4353,13 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EJ8" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>181</v>
       </c>
       <c r="EL8">
         <v>0</v>
@@ -4350,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4382,7 +4409,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="K9" t="s">
+        <v>157</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4403,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4415,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Y9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -4450,14 +4480,14 @@
       <c r="AI9">
         <v>0</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>187</v>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -4543,14 +4573,14 @@
       <c r="BN9">
         <v>0</v>
       </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
+      <c r="BO9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>197</v>
       </c>
       <c r="BR9">
         <v>0</v>
@@ -4558,12 +4588,15 @@
       <c r="BS9">
         <v>0</v>
       </c>
-      <c r="BT9">
-        <v>0</v>
+      <c r="BT9" t="s">
+        <v>196</v>
       </c>
       <c r="BU9">
         <v>0</v>
       </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
       <c r="BW9">
         <v>0</v>
       </c>
@@ -4571,28 +4604,25 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BZ9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="CA9" t="s">
-        <v>179</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
+      <c r="CD9" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>181</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4600,8 +4630,8 @@
       <c r="CH9">
         <v>0</v>
       </c>
-      <c r="CI9">
-        <v>0</v>
+      <c r="CI9" t="s">
+        <v>181</v>
       </c>
       <c r="CJ9">
         <v>0</v>
@@ -4609,14 +4639,14 @@
       <c r="CK9">
         <v>0</v>
       </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
+      <c r="CL9" t="s">
+        <v>181</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>181</v>
       </c>
       <c r="CO9">
         <v>0</v>
@@ -4624,8 +4654,8 @@
       <c r="CP9">
         <v>0</v>
       </c>
-      <c r="CQ9">
-        <v>0</v>
+      <c r="CQ9" t="s">
+        <v>181</v>
       </c>
       <c r="CR9">
         <v>0</v>
@@ -4633,14 +4663,14 @@
       <c r="CS9">
         <v>0</v>
       </c>
-      <c r="CT9">
-        <v>0</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
+      <c r="CT9" t="s">
+        <v>191</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>197</v>
       </c>
       <c r="CW9">
         <v>0</v>
@@ -4648,8 +4678,8 @@
       <c r="CX9">
         <v>0</v>
       </c>
-      <c r="CY9">
-        <v>0</v>
+      <c r="CY9" t="s">
+        <v>196</v>
       </c>
       <c r="CZ9">
         <v>0</v>
@@ -4682,22 +4712,31 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>181</v>
       </c>
       <c r="DU9" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>157</v>
       </c>
       <c r="DW9" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
+      <c r="DY9" t="s">
+        <v>157</v>
+      </c>
       <c r="DZ9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EA9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4721,13 +4760,10 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="EJ9" t="s">
-        <v>179</v>
-      </c>
-      <c r="EK9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4745,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4777,10 +4813,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4801,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4813,52 +4846,49 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X10" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Y10" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
+      <c r="AL10" t="s">
+        <v>191</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -4944,20 +4974,20 @@
       <c r="BN10">
         <v>0</v>
       </c>
-      <c r="BO10" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>191</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>188</v>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
       </c>
       <c r="BT10">
         <v>0</v>
@@ -4965,9 +4995,6 @@
       <c r="BU10">
         <v>0</v>
       </c>
-      <c r="BV10">
-        <v>0</v>
-      </c>
       <c r="BW10">
         <v>0</v>
       </c>
@@ -4975,31 +5002,34 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BZ10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="CA10" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>223</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
-      <c r="CD10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>179</v>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
       </c>
       <c r="CI10">
         <v>0</v>
@@ -5010,20 +5040,20 @@
       <c r="CK10">
         <v>0</v>
       </c>
-      <c r="CL10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CM10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>179</v>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
       </c>
       <c r="CQ10">
         <v>0</v>
@@ -5034,20 +5064,20 @@
       <c r="CS10">
         <v>0</v>
       </c>
-      <c r="CT10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CU10" t="s">
-        <v>189</v>
-      </c>
-      <c r="CV10" t="s">
-        <v>191</v>
-      </c>
-      <c r="CW10" t="s">
-        <v>188</v>
-      </c>
-      <c r="CX10" t="s">
-        <v>188</v>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
       </c>
       <c r="CY10">
         <v>0</v>
@@ -5083,31 +5113,22 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>179</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DU10" t="s">
-        <v>179</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="DW10" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
-      <c r="DY10" t="s">
-        <v>157</v>
-      </c>
       <c r="DZ10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EA10" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="EB10">
         <v>0</v>
@@ -5131,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="EJ10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EK10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EL10">
         <v>0</v>
@@ -5155,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5187,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K11" t="s">
         <v>158</v>
@@ -5202,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5211,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5223,28 +5244,28 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X11" t="s">
         <v>158</v>
       </c>
       <c r="Y11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z11" t="s">
         <v>184</v>
       </c>
-      <c r="Z11" t="s">
-        <v>188</v>
-      </c>
       <c r="AA11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AB11" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AC11" t="s">
         <v>192</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
+      <c r="AD11" t="s">
+        <v>192</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -5256,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5264,8 +5285,8 @@
       <c r="AJ11">
         <v>0</v>
       </c>
-      <c r="AK11" t="s">
-        <v>187</v>
+      <c r="AK11">
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -5312,8 +5333,8 @@
       <c r="AZ11">
         <v>0</v>
       </c>
-      <c r="BA11" t="s">
-        <v>179</v>
+      <c r="BA11">
+        <v>0</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -5355,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="BP11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="BQ11" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="BR11" t="s">
         <v>192</v>
       </c>
-      <c r="BS11">
-        <v>0</v>
+      <c r="BS11" t="s">
+        <v>192</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -5385,34 +5406,31 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BZ11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="CA11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CE11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CF11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CG11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH11">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>181</v>
       </c>
       <c r="CI11">
         <v>0</v>
@@ -5424,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="CL11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CM11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CN11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CO11" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP11">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>181</v>
       </c>
       <c r="CQ11">
         <v>0</v>
@@ -5448,19 +5466,19 @@
         <v>0</v>
       </c>
       <c r="CT11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="CU11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="CV11" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="CW11" t="s">
         <v>192</v>
       </c>
-      <c r="CX11">
-        <v>0</v>
+      <c r="CX11" t="s">
+        <v>192</v>
       </c>
       <c r="CY11">
         <v>0</v>
@@ -5474,9 +5492,6 @@
       <c r="DC11">
         <v>0</v>
       </c>
-      <c r="DD11" t="s">
-        <v>187</v>
-      </c>
       <c r="DE11">
         <v>0</v>
       </c>
@@ -5499,16 +5514,16 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DT11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DU11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DV11" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="DW11" t="s">
         <v>158</v>
@@ -5520,10 +5535,10 @@
         <v>158</v>
       </c>
       <c r="DZ11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EA11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EB11">
         <v>0</v>
@@ -5547,13 +5562,13 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="EJ11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EK11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EL11">
         <v>0</v>
@@ -5571,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5591,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5605,6 +5620,9 @@
       <c r="J12" t="s">
         <v>153</v>
       </c>
+      <c r="K12" t="s">
+        <v>159</v>
+      </c>
       <c r="L12">
         <v>0</v>
       </c>
@@ -5614,6 +5632,9 @@
       <c r="N12">
         <v>0</v>
       </c>
+      <c r="O12" t="s">
+        <v>161</v>
+      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -5621,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5633,25 +5654,25 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X12" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Z12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AA12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>196</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -5666,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="AH12" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -5674,8 +5695,8 @@
       <c r="AJ12">
         <v>0</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
+      <c r="AK12" t="s">
+        <v>191</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -5722,8 +5743,8 @@
       <c r="AZ12">
         <v>0</v>
       </c>
-      <c r="BA12">
-        <v>0</v>
+      <c r="BA12" t="s">
+        <v>181</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -5764,17 +5785,17 @@
       <c r="BN12">
         <v>0</v>
       </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>0</v>
+      <c r="BO12" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>186</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>196</v>
       </c>
       <c r="BS12">
         <v>0</v>
@@ -5795,28 +5816,31 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BZ12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="CA12" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>222</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
-      <c r="CD12">
-        <v>0</v>
-      </c>
-      <c r="CE12">
-        <v>0</v>
-      </c>
-      <c r="CF12">
-        <v>0</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
+      <c r="CD12" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>181</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>181</v>
       </c>
       <c r="CH12">
         <v>0</v>
@@ -5830,17 +5854,17 @@
       <c r="CK12">
         <v>0</v>
       </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
+      <c r="CL12" t="s">
+        <v>181</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>181</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>181</v>
       </c>
       <c r="CP12">
         <v>0</v>
@@ -5854,17 +5878,17 @@
       <c r="CS12">
         <v>0</v>
       </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <v>0</v>
+      <c r="CT12" t="s">
+        <v>192</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>196</v>
       </c>
       <c r="CX12">
         <v>0</v>
@@ -5881,6 +5905,9 @@
       <c r="DC12">
         <v>0</v>
       </c>
+      <c r="DD12" t="s">
+        <v>191</v>
+      </c>
       <c r="DE12">
         <v>0</v>
       </c>
@@ -5903,25 +5930,31 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DT12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DU12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DV12" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="DW12" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
+      <c r="DY12" t="s">
+        <v>159</v>
+      </c>
       <c r="DZ12" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>181</v>
       </c>
       <c r="EB12">
         <v>0</v>
@@ -5945,10 +5978,13 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="EJ12" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>181</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -5966,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>221</v>
-      </c>
-      <c r="ER12" t="s">
-        <v>222</v>
+        <v>227</v>
+      </c>
+      <c r="ER12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:148">
@@ -5986,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5998,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6009,9 +6045,6 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
-        <v>164</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -6019,307 +6052,307 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
+        <v>166</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>178</v>
+      </c>
+      <c r="X13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
         <v>165</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>177</v>
-      </c>
-      <c r="X13" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>181</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>181</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>181</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>181</v>
+      </c>
+      <c r="DV13" t="s">
         <v>184</v>
       </c>
-      <c r="Z13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>179</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>188</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>212</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>214</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>179</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>164</v>
-      </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>193</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>188</v>
-      </c>
-      <c r="CG13">
-        <v>0</v>
-      </c>
-      <c r="CH13">
-        <v>0</v>
-      </c>
-      <c r="CI13">
-        <v>0</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
-      </c>
-      <c r="CK13">
-        <v>0</v>
-      </c>
-      <c r="CL13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
-      </c>
-      <c r="CP13">
-        <v>0</v>
-      </c>
-      <c r="CQ13">
-        <v>0</v>
-      </c>
-      <c r="CR13">
-        <v>0</v>
-      </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CW13">
-        <v>0</v>
-      </c>
-      <c r="CX13">
-        <v>0</v>
-      </c>
-      <c r="CY13">
-        <v>0</v>
-      </c>
-      <c r="CZ13">
-        <v>0</v>
-      </c>
-      <c r="DA13">
-        <v>0</v>
-      </c>
-      <c r="DB13" t="s">
-        <v>189</v>
-      </c>
-      <c r="DC13">
-        <v>0</v>
-      </c>
-      <c r="DE13">
-        <v>0</v>
-      </c>
-      <c r="DG13">
-        <v>0</v>
-      </c>
-      <c r="DI13">
-        <v>0</v>
-      </c>
-      <c r="DK13">
-        <v>0</v>
-      </c>
-      <c r="DM13">
-        <v>0</v>
-      </c>
-      <c r="DO13">
-        <v>0</v>
-      </c>
-      <c r="DR13">
-        <v>0</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU13" t="s">
-        <v>179</v>
-      </c>
       <c r="DW13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DZ13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6343,13 +6376,10 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="EJ13" t="s">
-        <v>179</v>
-      </c>
-      <c r="EK13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6367,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>221</v>
-      </c>
-      <c r="ER13">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:148">
@@ -6387,385 +6417,786 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>166</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>179</v>
+      </c>
+      <c r="X14" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>181</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>193</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>181</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>181</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>185</v>
+      </c>
+      <c r="DX14">
+        <v>0</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>185</v>
+      </c>
+      <c r="EB14">
+        <v>0</v>
+      </c>
+      <c r="EC14">
+        <v>0</v>
+      </c>
+      <c r="ED14">
+        <v>0</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
+      </c>
+      <c r="EF14">
+        <v>0</v>
+      </c>
+      <c r="EG14">
+        <v>0</v>
+      </c>
+      <c r="EH14">
+        <v>0</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>157</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>181</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>181</v>
+      </c>
+      <c r="EL14">
+        <v>0</v>
+      </c>
+      <c r="EM14">
+        <v>0</v>
+      </c>
+      <c r="EN14">
+        <v>0</v>
+      </c>
+      <c r="EO14">
+        <v>0</v>
+      </c>
+      <c r="EP14">
+        <v>0</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>227</v>
+      </c>
+      <c r="ER14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:148">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>147</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>165</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>178</v>
-      </c>
-      <c r="X14" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>0</v>
-      </c>
-      <c r="BS14">
-        <v>0</v>
-      </c>
-      <c r="BT14">
-        <v>0</v>
-      </c>
-      <c r="BU14">
-        <v>0</v>
-      </c>
-      <c r="BV14">
-        <v>0</v>
-      </c>
-      <c r="BW14">
-        <v>0</v>
-      </c>
-      <c r="BX14">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>213</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>215</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC14">
-        <v>0</v>
-      </c>
-      <c r="CD14">
-        <v>0</v>
-      </c>
-      <c r="CE14">
-        <v>0</v>
-      </c>
-      <c r="CF14">
-        <v>0</v>
-      </c>
-      <c r="CG14">
-        <v>0</v>
-      </c>
-      <c r="CH14">
-        <v>0</v>
-      </c>
-      <c r="CI14">
-        <v>0</v>
-      </c>
-      <c r="CJ14">
-        <v>0</v>
-      </c>
-      <c r="CK14">
-        <v>0</v>
-      </c>
-      <c r="CL14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
-      <c r="CN14">
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <v>0</v>
-      </c>
-      <c r="CP14">
-        <v>0</v>
-      </c>
-      <c r="CQ14">
-        <v>0</v>
-      </c>
-      <c r="CR14">
-        <v>0</v>
-      </c>
-      <c r="CS14">
-        <v>0</v>
-      </c>
-      <c r="CT14">
-        <v>0</v>
-      </c>
-      <c r="CU14">
-        <v>0</v>
-      </c>
-      <c r="CV14">
-        <v>0</v>
-      </c>
-      <c r="CW14">
-        <v>0</v>
-      </c>
-      <c r="CX14">
-        <v>0</v>
-      </c>
-      <c r="CY14">
-        <v>0</v>
-      </c>
-      <c r="CZ14">
-        <v>0</v>
-      </c>
-      <c r="DA14">
-        <v>0</v>
-      </c>
-      <c r="DC14">
-        <v>0</v>
-      </c>
-      <c r="DE14">
-        <v>0</v>
-      </c>
-      <c r="DG14">
-        <v>0</v>
-      </c>
-      <c r="DI14">
-        <v>0</v>
-      </c>
-      <c r="DK14">
-        <v>0</v>
-      </c>
-      <c r="DM14">
-        <v>0</v>
-      </c>
-      <c r="DO14">
-        <v>0</v>
-      </c>
-      <c r="DR14">
-        <v>0</v>
-      </c>
-      <c r="DS14" t="s">
-        <v>179</v>
-      </c>
-      <c r="DT14" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU14" t="s">
-        <v>179</v>
-      </c>
-      <c r="DV14" t="s">
-        <v>183</v>
-      </c>
-      <c r="DW14" t="s">
-        <v>183</v>
-      </c>
-      <c r="DX14">
-        <v>0</v>
-      </c>
-      <c r="DZ14" t="s">
-        <v>183</v>
-      </c>
-      <c r="EB14">
-        <v>0</v>
-      </c>
-      <c r="EC14">
-        <v>0</v>
-      </c>
-      <c r="ED14">
-        <v>0</v>
-      </c>
-      <c r="EE14">
-        <v>0</v>
-      </c>
-      <c r="EF14">
-        <v>0</v>
-      </c>
-      <c r="EG14">
-        <v>0</v>
-      </c>
-      <c r="EH14">
-        <v>0</v>
-      </c>
-      <c r="EI14" t="s">
-        <v>179</v>
-      </c>
-      <c r="EJ14" t="s">
-        <v>179</v>
-      </c>
-      <c r="EL14">
-        <v>0</v>
-      </c>
-      <c r="EM14">
-        <v>0</v>
-      </c>
-      <c r="EN14">
-        <v>0</v>
-      </c>
-      <c r="EO14">
-        <v>0</v>
-      </c>
-      <c r="EP14">
-        <v>0</v>
-      </c>
-      <c r="EQ14" t="s">
-        <v>221</v>
-      </c>
-      <c r="ER14" t="s">
-        <v>222</v>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>180</v>
+      </c>
+      <c r="X15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>218</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>181</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>0</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>186</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>186</v>
+      </c>
+      <c r="DX15">
+        <v>0</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>186</v>
+      </c>
+      <c r="EB15">
+        <v>0</v>
+      </c>
+      <c r="EC15">
+        <v>0</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15">
+        <v>0</v>
+      </c>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>0</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>181</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>181</v>
+      </c>
+      <c r="EL15">
+        <v>0</v>
+      </c>
+      <c r="EM15">
+        <v>0</v>
+      </c>
+      <c r="EN15">
+        <v>0</v>
+      </c>
+      <c r="EO15">
+        <v>0</v>
+      </c>
+      <c r="EP15">
+        <v>0</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>227</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="234">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -475,12 +475,12 @@
     <t>MARONDERA PROVINCIAL HOSPITAL</t>
   </si>
   <si>
+    <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
     <t>MARONDERA  - 100903 - PROVINCIAL HOSPITAL</t>
   </si>
   <si>
-    <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -538,6 +538,9 @@
     <t>Chiparawe Clinic</t>
   </si>
   <si>
+    <t>Helywin Clinic</t>
+  </si>
+  <si>
     <t>Kushinga Clinic</t>
   </si>
   <si>
@@ -652,6 +655,9 @@
     <t>2025-05-23T12:16:46.389505Z</t>
   </si>
   <si>
+    <t>2025-08-04T12:32:14.254797Z</t>
+  </si>
+  <si>
     <t>2025-07-01T09:47:44.156355Z</t>
   </si>
   <si>
@@ -667,6 +673,9 @@
     <t>2025-06-04T08:59:38.762892Z</t>
   </si>
   <si>
+    <t>2025-08-04T12:31:29.724489Z</t>
+  </si>
+  <si>
     <t>2025-07-03T06:45:00.666926Z</t>
   </si>
   <si>
@@ -685,10 +694,16 @@
     <t>20-24_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 50_yrs</t>
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>30</t>
@@ -1058,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER15"/>
+  <dimension ref="A1:ER17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1575,34 +1590,34 @@
         <v>159</v>
       </c>
       <c r="Y2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1701,28 +1716,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BP2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BQ2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BR2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BS2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BT2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BU2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BV2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1731,28 +1746,28 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BZ2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CA2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CE2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CF2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CG2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1761,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CK2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -1839,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DT2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DV2" t="s">
         <v>155</v>
@@ -1857,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DZ2" t="s">
         <v>155</v>
       </c>
       <c r="EA2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1887,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EJ2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1908,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -1976,10 +1991,10 @@
         <v>169</v>
       </c>
       <c r="X3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2102,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>204</v>
       </c>
-      <c r="BP3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>203</v>
-      </c>
       <c r="BR3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2132,28 +2147,28 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BZ3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CA3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CE3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CF3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CG3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2168,16 +2183,16 @@
         <v>0</v>
       </c>
       <c r="CL3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>190</v>
+      </c>
+      <c r="CN3" t="s">
         <v>204</v>
       </c>
-      <c r="CM3" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>203</v>
-      </c>
       <c r="CO3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -2240,28 +2255,28 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DT3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DV3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="DW3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -2285,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EJ3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EK3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2309,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2374,19 +2389,19 @@
         <v>170</v>
       </c>
       <c r="X4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA4" t="s">
         <v>187</v>
       </c>
-      <c r="Z4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>186</v>
-      </c>
       <c r="AB4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2410,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -2458,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2533,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BZ4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CA4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB4" t="s">
         <v>165</v>
@@ -2620,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DC4">
         <v>0</v>
@@ -2647,22 +2662,22 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DW4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2686,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="EJ4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EK4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2710,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2784,22 +2799,22 @@
         <v>170</v>
       </c>
       <c r="X5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA5" t="s">
         <v>156</v>
       </c>
       <c r="AB5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -2814,23 +2829,23 @@
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM5" t="s">
         <v>197</v>
       </c>
-      <c r="AL5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>196</v>
-      </c>
       <c r="AN5">
         <v>0</v>
       </c>
@@ -2868,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -2913,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BP5" t="s">
         <v>156</v>
       </c>
       <c r="BQ5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BR5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -2943,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BZ5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CA5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB5" t="s">
         <v>161</v>
@@ -2958,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CE5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CF5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CG5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -2982,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="CL5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CM5" t="s">
         <v>156</v>
       </c>
       <c r="CN5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CO5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -3030,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="DB5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DC5">
         <v>0</v>
       </c>
       <c r="DD5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="DE5">
         <v>0</v>
@@ -3060,22 +3075,22 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EB5">
         <v>0</v>
@@ -3084,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="ED5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EE5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EF5">
         <v>0</v>
@@ -3099,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3123,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3188,298 +3203,298 @@
         <v>171</v>
       </c>
       <c r="X6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>194</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>182</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>182</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>182</v>
+      </c>
+      <c r="DV6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>209</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>220</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>222</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>193</v>
-      </c>
-      <c r="DE6">
-        <v>0</v>
-      </c>
-      <c r="DG6">
-        <v>0</v>
-      </c>
-      <c r="DI6">
-        <v>0</v>
-      </c>
-      <c r="DK6">
-        <v>0</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DO6">
-        <v>0</v>
-      </c>
-      <c r="DR6">
-        <v>0</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>181</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>181</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>181</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>186</v>
-      </c>
       <c r="DW6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="EB6">
         <v>0</v>
@@ -3503,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EJ6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EK6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3527,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3607,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -3733,25 +3748,25 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BP7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BQ7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BR7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BS7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BT7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BU7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3760,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BZ7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -3910,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DX7">
         <v>0</v>
@@ -3970,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4041,25 +4056,25 @@
         <v>156</v>
       </c>
       <c r="Y8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AD8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -4068,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="AH8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -4197,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BZ8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CA8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CC8">
         <v>0</v>
@@ -4305,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DT8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DV8" t="s">
         <v>156</v>
@@ -4326,10 +4341,10 @@
         <v>156</v>
       </c>
       <c r="DZ8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EB8">
         <v>0</v>
@@ -4353,13 +4368,13 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EJ8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EK8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL8">
         <v>0</v>
@@ -4377,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4397,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4411,9 +4426,6 @@
       <c r="J9" t="s">
         <v>153</v>
       </c>
-      <c r="K9" t="s">
-        <v>157</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
@@ -4422,9 +4434,6 @@
       </c>
       <c r="N9">
         <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>162</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4448,10 +4457,10 @@
         <v>174</v>
       </c>
       <c r="X9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -4480,8 +4489,8 @@
       <c r="AI9">
         <v>0</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
+      <c r="AJ9" t="s">
+        <v>182</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -4528,8 +4537,8 @@
       <c r="AY9">
         <v>0</v>
       </c>
-      <c r="AZ9">
-        <v>0</v>
+      <c r="AZ9" t="s">
+        <v>182</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -4573,14 +4582,14 @@
       <c r="BN9">
         <v>0</v>
       </c>
-      <c r="BO9" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>197</v>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
       </c>
       <c r="BR9">
         <v>0</v>
@@ -4588,8 +4597,8 @@
       <c r="BS9">
         <v>0</v>
       </c>
-      <c r="BT9" t="s">
-        <v>196</v>
+      <c r="BT9">
+        <v>0</v>
       </c>
       <c r="BU9">
         <v>0</v>
@@ -4604,25 +4613,28 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BZ9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="CA9" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>226</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
-      <c r="CD9" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>181</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>181</v>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4630,8 +4642,8 @@
       <c r="CH9">
         <v>0</v>
       </c>
-      <c r="CI9" t="s">
-        <v>181</v>
+      <c r="CI9">
+        <v>0</v>
       </c>
       <c r="CJ9">
         <v>0</v>
@@ -4639,14 +4651,14 @@
       <c r="CK9">
         <v>0</v>
       </c>
-      <c r="CL9" t="s">
-        <v>181</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>181</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>181</v>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
       </c>
       <c r="CO9">
         <v>0</v>
@@ -4654,8 +4666,8 @@
       <c r="CP9">
         <v>0</v>
       </c>
-      <c r="CQ9" t="s">
-        <v>181</v>
+      <c r="CQ9">
+        <v>0</v>
       </c>
       <c r="CR9">
         <v>0</v>
@@ -4663,14 +4675,14 @@
       <c r="CS9">
         <v>0</v>
       </c>
-      <c r="CT9" t="s">
-        <v>191</v>
-      </c>
-      <c r="CU9" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV9" t="s">
-        <v>197</v>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
       </c>
       <c r="CW9">
         <v>0</v>
@@ -4678,8 +4690,8 @@
       <c r="CX9">
         <v>0</v>
       </c>
-      <c r="CY9" t="s">
-        <v>196</v>
+      <c r="CY9">
+        <v>0</v>
       </c>
       <c r="CZ9">
         <v>0</v>
@@ -4687,6 +4699,9 @@
       <c r="DA9">
         <v>0</v>
       </c>
+      <c r="DB9" t="s">
+        <v>182</v>
+      </c>
       <c r="DC9">
         <v>0</v>
       </c>
@@ -4712,31 +4727,28 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DT9" t="s">
-        <v>181</v>
-      </c>
-      <c r="DU9" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
       </c>
       <c r="DV9" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="DW9" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
-      <c r="DY9" t="s">
-        <v>157</v>
-      </c>
       <c r="DZ9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA9" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4760,10 +4772,13 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>181</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4781,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>227</v>
-      </c>
-      <c r="ER9">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:148">
@@ -4813,7 +4828,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="K10" t="s">
+        <v>157</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4825,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -4849,10 +4867,10 @@
         <v>175</v>
       </c>
       <c r="X10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -4881,107 +4899,107 @@
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
         <v>192</v>
       </c>
-      <c r="AK10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
+      <c r="BP10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>198</v>
       </c>
       <c r="BR10">
         <v>0</v>
@@ -4989,12 +5007,15 @@
       <c r="BS10">
         <v>0</v>
       </c>
-      <c r="BT10">
-        <v>0</v>
+      <c r="BT10" t="s">
+        <v>197</v>
       </c>
       <c r="BU10">
         <v>0</v>
       </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
       <c r="BW10">
         <v>0</v>
       </c>
@@ -5002,28 +5023,25 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BZ10" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="CA10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
-      <c r="CD10">
-        <v>0</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>0</v>
+      <c r="CD10" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>182</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -5031,8 +5049,8 @@
       <c r="CH10">
         <v>0</v>
       </c>
-      <c r="CI10">
-        <v>0</v>
+      <c r="CI10" t="s">
+        <v>182</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -5040,14 +5058,14 @@
       <c r="CK10">
         <v>0</v>
       </c>
-      <c r="CL10">
-        <v>0</v>
-      </c>
-      <c r="CM10">
-        <v>0</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
+      <c r="CL10" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>182</v>
       </c>
       <c r="CO10">
         <v>0</v>
@@ -5055,8 +5073,8 @@
       <c r="CP10">
         <v>0</v>
       </c>
-      <c r="CQ10">
-        <v>0</v>
+      <c r="CQ10" t="s">
+        <v>182</v>
       </c>
       <c r="CR10">
         <v>0</v>
@@ -5064,14 +5082,14 @@
       <c r="CS10">
         <v>0</v>
       </c>
-      <c r="CT10">
-        <v>0</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
+      <c r="CT10" t="s">
+        <v>192</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>194</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>198</v>
       </c>
       <c r="CW10">
         <v>0</v>
@@ -5079,8 +5097,8 @@
       <c r="CX10">
         <v>0</v>
       </c>
-      <c r="CY10">
-        <v>0</v>
+      <c r="CY10" t="s">
+        <v>197</v>
       </c>
       <c r="CZ10">
         <v>0</v>
@@ -5113,22 +5131,31 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>182</v>
       </c>
       <c r="DU10" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>157</v>
       </c>
       <c r="DW10" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
+      <c r="DY10" t="s">
+        <v>157</v>
+      </c>
       <c r="DZ10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA10" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="EB10">
         <v>0</v>
@@ -5152,13 +5179,10 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="EJ10" t="s">
-        <v>181</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL10">
         <v>0</v>
@@ -5176,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5208,10 +5232,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5223,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5247,50 +5268,47 @@
         <v>176</v>
       </c>
       <c r="X11" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="Y11" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>193</v>
       </c>
-      <c r="AB11" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AK11" t="s">
         <v>192</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AL11" t="s">
         <v>192</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
       <c r="AM11">
         <v>0</v>
       </c>
@@ -5375,20 +5393,20 @@
       <c r="BN11">
         <v>0</v>
       </c>
-      <c r="BO11" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>195</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>192</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>192</v>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -5396,9 +5414,6 @@
       <c r="BU11">
         <v>0</v>
       </c>
-      <c r="BV11">
-        <v>0</v>
-      </c>
       <c r="BW11">
         <v>0</v>
       </c>
@@ -5406,31 +5421,34 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BZ11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CA11" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>227</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
-      <c r="CD11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>181</v>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
       </c>
       <c r="CI11">
         <v>0</v>
@@ -5441,20 +5459,20 @@
       <c r="CK11">
         <v>0</v>
       </c>
-      <c r="CL11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>181</v>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
       </c>
       <c r="CQ11">
         <v>0</v>
@@ -5465,20 +5483,20 @@
       <c r="CS11">
         <v>0</v>
       </c>
-      <c r="CT11" t="s">
-        <v>184</v>
-      </c>
-      <c r="CU11" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV11" t="s">
-        <v>195</v>
-      </c>
-      <c r="CW11" t="s">
-        <v>192</v>
-      </c>
-      <c r="CX11" t="s">
-        <v>192</v>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
       </c>
       <c r="CY11">
         <v>0</v>
@@ -5514,31 +5532,22 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DT11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DV11" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="DW11" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
-      <c r="DY11" t="s">
-        <v>158</v>
-      </c>
       <c r="DZ11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="EB11">
         <v>0</v>
@@ -5562,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="EJ11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EK11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL11">
         <v>0</v>
@@ -5586,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5618,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5633,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -5657,241 +5666,238 @@
         <v>177</v>
       </c>
       <c r="X12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AA12" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AB12" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AC12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ12" t="s">
         <v>196</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>186</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>186</v>
-      </c>
       <c r="BR12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>185</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>194</v>
+      </c>
+      <c r="CV12" t="s">
         <v>196</v>
       </c>
-      <c r="BS12">
-        <v>0</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>215</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>219</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>222</v>
-      </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CP12">
-        <v>0</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>192</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>186</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>186</v>
-      </c>
       <c r="CW12" t="s">
-        <v>196</v>
-      </c>
-      <c r="CX12">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>193</v>
       </c>
       <c r="CY12">
         <v>0</v>
@@ -5905,9 +5911,6 @@
       <c r="DC12">
         <v>0</v>
       </c>
-      <c r="DD12" t="s">
-        <v>191</v>
-      </c>
       <c r="DE12">
         <v>0</v>
       </c>
@@ -5930,31 +5933,31 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DT12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DV12" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="DW12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DZ12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EA12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EB12">
         <v>0</v>
@@ -5978,13 +5981,13 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="EJ12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EK12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6002,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6022,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6036,6 +6039,9 @@
       <c r="J13" t="s">
         <v>154</v>
       </c>
+      <c r="K13" t="s">
+        <v>159</v>
+      </c>
       <c r="L13">
         <v>0</v>
       </c>
@@ -6044,6 +6050,9 @@
       </c>
       <c r="N13">
         <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>161</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6067,22 +6076,22 @@
         <v>178</v>
       </c>
       <c r="X13" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z13" t="s">
         <v>193</v>
       </c>
       <c r="AA13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AB13" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>197</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -6097,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -6105,8 +6114,8 @@
       <c r="AJ13">
         <v>0</v>
       </c>
-      <c r="AK13">
-        <v>0</v>
+      <c r="AK13" t="s">
+        <v>192</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -6153,8 +6162,8 @@
       <c r="AZ13">
         <v>0</v>
       </c>
-      <c r="BA13">
-        <v>0</v>
+      <c r="BA13" t="s">
+        <v>182</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -6195,17 +6204,17 @@
       <c r="BN13">
         <v>0</v>
       </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
+      <c r="BO13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>197</v>
       </c>
       <c r="BS13">
         <v>0</v>
@@ -6226,28 +6235,31 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BZ13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="CA13" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>225</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
-      <c r="CD13">
-        <v>0</v>
-      </c>
-      <c r="CE13">
-        <v>0</v>
-      </c>
-      <c r="CF13">
-        <v>0</v>
-      </c>
-      <c r="CG13">
-        <v>0</v>
+      <c r="CD13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>182</v>
       </c>
       <c r="CH13">
         <v>0</v>
@@ -6261,17 +6273,17 @@
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
+      <c r="CL13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>182</v>
       </c>
       <c r="CP13">
         <v>0</v>
@@ -6285,17 +6297,17 @@
       <c r="CS13">
         <v>0</v>
       </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CW13">
-        <v>0</v>
+      <c r="CT13" t="s">
+        <v>193</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>187</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>187</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>197</v>
       </c>
       <c r="CX13">
         <v>0</v>
@@ -6312,6 +6324,9 @@
       <c r="DC13">
         <v>0</v>
       </c>
+      <c r="DD13" t="s">
+        <v>192</v>
+      </c>
       <c r="DE13">
         <v>0</v>
       </c>
@@ -6334,25 +6349,31 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DT13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DU13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DV13" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="DW13" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
+      <c r="DY13" t="s">
+        <v>159</v>
+      </c>
       <c r="DZ13" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>182</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6376,10 +6397,13 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="EJ13" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>182</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6397,10 +6421,10 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>227</v>
-      </c>
-      <c r="ER13" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="ER13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:148">
@@ -6417,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6429,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6439,9 +6463,6 @@
       </c>
       <c r="N14">
         <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>165</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6468,13 +6489,13 @@
         <v>185</v>
       </c>
       <c r="Y14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z14" t="s">
         <v>194</v>
       </c>
       <c r="AA14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AB14" t="s">
         <v>192</v>
@@ -6500,14 +6521,14 @@
       <c r="AI14">
         <v>0</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>192</v>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -6548,8 +6569,8 @@
       <c r="AY14">
         <v>0</v>
       </c>
-      <c r="AZ14" t="s">
-        <v>181</v>
+      <c r="AZ14">
+        <v>0</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -6593,14 +6614,14 @@
       <c r="BN14">
         <v>0</v>
       </c>
-      <c r="BO14" t="s">
-        <v>194</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>197</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>192</v>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
       </c>
       <c r="BR14">
         <v>0</v>
@@ -6624,28 +6645,25 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BZ14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="CA14" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
-      <c r="CD14" t="s">
-        <v>194</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>197</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>192</v>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
       </c>
       <c r="CG14">
         <v>0</v>
@@ -6710,9 +6728,6 @@
       <c r="DA14">
         <v>0</v>
       </c>
-      <c r="DB14" t="s">
-        <v>193</v>
-      </c>
       <c r="DC14">
         <v>0</v>
       </c>
@@ -6738,10 +6753,16 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>182</v>
       </c>
       <c r="DU14" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>185</v>
       </c>
       <c r="DW14" t="s">
         <v>185</v>
@@ -6750,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="DZ14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -6774,13 +6795,10 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="EJ14" t="s">
-        <v>181</v>
-      </c>
-      <c r="EK14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -6798,10 +6816,10 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>227</v>
-      </c>
-      <c r="ER14">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:148">
@@ -6830,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6860,343 +6878,1148 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>179</v>
+      </c>
+      <c r="X15" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>226</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>182</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>0</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>182</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>182</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DX15">
+        <v>0</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>182</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>183</v>
+      </c>
+      <c r="EB15">
+        <v>0</v>
+      </c>
+      <c r="EC15">
+        <v>0</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15">
+        <v>0</v>
+      </c>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>0</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>182</v>
+      </c>
+      <c r="EJ15">
+        <v>0</v>
+      </c>
+      <c r="EK15">
+        <v>0</v>
+      </c>
+      <c r="EL15">
+        <v>0</v>
+      </c>
+      <c r="EM15">
+        <v>0</v>
+      </c>
+      <c r="EN15">
+        <v>0</v>
+      </c>
+      <c r="EO15">
+        <v>0</v>
+      </c>
+      <c r="EP15">
+        <v>0</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>232</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:148">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
         <v>180</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X16" t="s">
         <v>186</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y16" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>220</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>194</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>182</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>182</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>186</v>
+      </c>
+      <c r="DX16">
+        <v>0</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>186</v>
+      </c>
+      <c r="EB16">
+        <v>0</v>
+      </c>
+      <c r="EC16">
+        <v>0</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16">
+        <v>0</v>
+      </c>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>0</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>157</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>182</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL16">
+        <v>0</v>
+      </c>
+      <c r="EM16">
+        <v>0</v>
+      </c>
+      <c r="EN16">
+        <v>0</v>
+      </c>
+      <c r="EO16">
+        <v>0</v>
+      </c>
+      <c r="EP16">
+        <v>0</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>232</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:148">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>166</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
         <v>187</v>
       </c>
-      <c r="Z15" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z17" t="s">
         <v>196</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>0</v>
-      </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>0</v>
-      </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15">
-        <v>0</v>
-      </c>
-      <c r="BS15">
-        <v>0</v>
-      </c>
-      <c r="BT15">
-        <v>0</v>
-      </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
-      <c r="BV15">
-        <v>0</v>
-      </c>
-      <c r="BW15">
-        <v>0</v>
-      </c>
-      <c r="BX15">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>218</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>220</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC15">
-        <v>0</v>
-      </c>
-      <c r="CD15">
-        <v>0</v>
-      </c>
-      <c r="CE15">
-        <v>0</v>
-      </c>
-      <c r="CF15">
-        <v>0</v>
-      </c>
-      <c r="CG15">
-        <v>0</v>
-      </c>
-      <c r="CH15">
-        <v>0</v>
-      </c>
-      <c r="CI15">
-        <v>0</v>
-      </c>
-      <c r="CJ15">
-        <v>0</v>
-      </c>
-      <c r="CK15">
-        <v>0</v>
-      </c>
-      <c r="CL15">
-        <v>0</v>
-      </c>
-      <c r="CM15">
-        <v>0</v>
-      </c>
-      <c r="CN15">
-        <v>0</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15">
-        <v>0</v>
-      </c>
-      <c r="CQ15">
-        <v>0</v>
-      </c>
-      <c r="CR15">
-        <v>0</v>
-      </c>
-      <c r="CS15">
-        <v>0</v>
-      </c>
-      <c r="CT15">
-        <v>0</v>
-      </c>
-      <c r="CU15">
-        <v>0</v>
-      </c>
-      <c r="CV15">
-        <v>0</v>
-      </c>
-      <c r="CW15">
-        <v>0</v>
-      </c>
-      <c r="CX15">
-        <v>0</v>
-      </c>
-      <c r="CY15">
-        <v>0</v>
-      </c>
-      <c r="CZ15">
-        <v>0</v>
-      </c>
-      <c r="DA15">
-        <v>0</v>
-      </c>
-      <c r="DC15">
-        <v>0</v>
-      </c>
-      <c r="DE15">
-        <v>0</v>
-      </c>
-      <c r="DG15">
-        <v>0</v>
-      </c>
-      <c r="DI15">
-        <v>0</v>
-      </c>
-      <c r="DK15">
-        <v>0</v>
-      </c>
-      <c r="DM15">
-        <v>0</v>
-      </c>
-      <c r="DO15">
-        <v>0</v>
-      </c>
-      <c r="DR15">
-        <v>0</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>181</v>
-      </c>
-      <c r="DT15" t="s">
-        <v>181</v>
-      </c>
-      <c r="DU15" t="s">
-        <v>181</v>
-      </c>
-      <c r="DV15" t="s">
-        <v>186</v>
-      </c>
-      <c r="DW15" t="s">
-        <v>186</v>
-      </c>
-      <c r="DX15">
-        <v>0</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>186</v>
-      </c>
-      <c r="EB15">
-        <v>0</v>
-      </c>
-      <c r="EC15">
-        <v>0</v>
-      </c>
-      <c r="ED15">
-        <v>0</v>
-      </c>
-      <c r="EE15">
-        <v>0</v>
-      </c>
-      <c r="EF15">
-        <v>0</v>
-      </c>
-      <c r="EG15">
-        <v>0</v>
-      </c>
-      <c r="EH15">
-        <v>0</v>
-      </c>
-      <c r="EI15" t="s">
-        <v>181</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>181</v>
-      </c>
-      <c r="EL15">
-        <v>0</v>
-      </c>
-      <c r="EM15">
-        <v>0</v>
-      </c>
-      <c r="EN15">
-        <v>0</v>
-      </c>
-      <c r="EO15">
-        <v>0</v>
-      </c>
-      <c r="EP15">
-        <v>0</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>227</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>228</v>
+      <c r="AA17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>221</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>182</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DC17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>0</v>
+      </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
+      <c r="DI17">
+        <v>0</v>
+      </c>
+      <c r="DK17">
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <v>0</v>
+      </c>
+      <c r="DO17">
+        <v>0</v>
+      </c>
+      <c r="DR17">
+        <v>0</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>182</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>182</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>182</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>187</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>187</v>
+      </c>
+      <c r="DX17">
+        <v>0</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>187</v>
+      </c>
+      <c r="EB17">
+        <v>0</v>
+      </c>
+      <c r="EC17">
+        <v>0</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
+      </c>
+      <c r="EE17">
+        <v>0</v>
+      </c>
+      <c r="EF17">
+        <v>0</v>
+      </c>
+      <c r="EG17">
+        <v>0</v>
+      </c>
+      <c r="EH17">
+        <v>0</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>182</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL17">
+        <v>0</v>
+      </c>
+      <c r="EM17">
+        <v>0</v>
+      </c>
+      <c r="EN17">
+        <v>0</v>
+      </c>
+      <c r="EO17">
+        <v>0</v>
+      </c>
+      <c r="EP17">
+        <v>0</v>
+      </c>
+      <c r="EQ17" t="s">
+        <v>232</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="243">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -463,6 +463,9 @@
     <t>MARONDERA</t>
   </si>
   <si>
+    <t>GOROMONZI</t>
+  </si>
+  <si>
     <t>linkages_to_prep linkages_to_care</t>
   </si>
   <si>
@@ -472,6 +475,9 @@
     <t>MAHUSEKWA - 100829 - HOSPITAL</t>
   </si>
   <si>
+    <t>MAKUMBE - 100853 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
     <t>MARONDERA PROVINCIAL HOSPITAL</t>
   </si>
   <si>
@@ -532,6 +538,9 @@
     <t>Chimbwanda Clinic</t>
   </si>
   <si>
+    <t>Chinamhora</t>
+  </si>
+  <si>
     <t>Chinhere Clinic</t>
   </si>
   <si>
@@ -571,6 +580,9 @@
     <t>48</t>
   </si>
   <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -592,6 +604,9 @@
     <t>33</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -610,9 +625,24 @@
     <t>2</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -628,12 +658,6 @@
     <t>15-19_yrs 20-24_yrs</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>2025-07-19T10:04:43.558609Z</t>
   </si>
   <si>
@@ -649,6 +673,9 @@
     <t>2025-05-14T10:01:37.406487Z</t>
   </si>
   <si>
+    <t>2025-08-04T14:52:28.776025Z</t>
+  </si>
+  <si>
     <t>2025-07-03T04:35:05.818275Z</t>
   </si>
   <si>
@@ -706,7 +733,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>30</t>
+    <t>216</t>
   </si>
   <si>
     <t>24</t>
@@ -1073,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER17"/>
+  <dimension ref="A1:ER18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1548,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1563,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1572,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1584,202 +1611,202 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AA2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF2" t="s">
         <v>197</v>
       </c>
-      <c r="AB2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>192</v>
-      </c>
       <c r="AG2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AH2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>199</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU2" t="s">
         <v>197</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BV2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>202</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>202</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>197</v>
       </c>
-      <c r="BS2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>197</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>206</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>222</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>182</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>197</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>194</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>197</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>192</v>
-      </c>
       <c r="CK2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -1854,31 +1881,31 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DT2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DU2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DV2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="DW2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DZ2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="EA2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1902,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EJ2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1923,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -1955,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1967,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1976,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1988,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="X3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Y3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2117,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="BP3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="BQ3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BR3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2147,28 +2174,28 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="BZ3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="CA3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CE3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CF3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CG3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2183,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="CM3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CN3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CO3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -2255,28 +2282,28 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DT3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DU3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DV3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="DW3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -2300,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EJ3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EK3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2324,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2356,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2374,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2386,22 +2413,22 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AA4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AB4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2419,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AK4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AL4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -2473,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2548,16 +2575,16 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="BZ4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="CA4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CB4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -2635,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="DC4">
         <v>0</v>
@@ -2662,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DU4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DW4" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA4" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2701,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="EJ4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EK4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2725,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2748,7 +2775,7 @@
         <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2760,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2772,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2781,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2790,319 +2817,319 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AA5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AB5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>194</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AK5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>217</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>195</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>199</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>202</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>194</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>204</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>185</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>187</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>185</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>187</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="s">
         <v>197</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>194</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>209</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>224</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>161</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>191</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>156</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>194</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>190</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>198</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
-      <c r="DK5">
-        <v>0</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
-      <c r="DR5">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>182</v>
-      </c>
-      <c r="DU5">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>184</v>
-      </c>
-      <c r="DX5">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>182</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>184</v>
-      </c>
-      <c r="EB5">
-        <v>0</v>
-      </c>
-      <c r="EC5">
-        <v>0</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>192</v>
-      </c>
       <c r="EE5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EF5">
         <v>0</v>
@@ -3114,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3138,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3170,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3188,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3200,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Y6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -3239,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3287,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3359,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="BZ6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="CA6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CB6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -3449,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="DE6">
         <v>0</v>
@@ -3473,28 +3500,28 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DT6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DU6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DV6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="DW6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="EB6">
         <v>0</v>
@@ -3518,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="EJ6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EK6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3542,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3562,10 +3589,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3577,10 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3591,9 +3612,6 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>160</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
@@ -3601,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3609,335 +3627,299 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>172</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="X7" t="s">
+        <v>188</v>
       </c>
       <c r="Y7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>185</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>185</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>222</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7">
-        <v>0</v>
-      </c>
-      <c r="CE7">
-        <v>0</v>
-      </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
-      </c>
-      <c r="CS7">
-        <v>0</v>
-      </c>
-      <c r="CT7">
-        <v>0</v>
-      </c>
-      <c r="CU7">
-        <v>0</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CW7">
-        <v>0</v>
-      </c>
-      <c r="CX7">
-        <v>0</v>
-      </c>
-      <c r="CY7">
-        <v>0</v>
-      </c>
-      <c r="CZ7">
-        <v>0</v>
-      </c>
-      <c r="DA7">
-        <v>0</v>
-      </c>
-      <c r="DB7">
-        <v>0</v>
-      </c>
-      <c r="DC7">
-        <v>0</v>
-      </c>
-      <c r="DD7">
-        <v>0</v>
-      </c>
-      <c r="DE7">
-        <v>0</v>
-      </c>
-      <c r="DF7">
-        <v>0</v>
-      </c>
-      <c r="DG7">
-        <v>0</v>
-      </c>
-      <c r="DH7">
-        <v>0</v>
-      </c>
-      <c r="DI7">
-        <v>0</v>
-      </c>
-      <c r="DJ7">
-        <v>0</v>
-      </c>
-      <c r="DK7">
-        <v>0</v>
-      </c>
-      <c r="DL7">
-        <v>0</v>
-      </c>
-      <c r="DM7">
-        <v>0</v>
-      </c>
-      <c r="DN7">
-        <v>0</v>
-      </c>
-      <c r="DO7">
-        <v>0</v>
-      </c>
-      <c r="DP7">
-        <v>0</v>
-      </c>
-      <c r="DQ7">
-        <v>0</v>
-      </c>
-      <c r="DR7">
-        <v>0</v>
-      </c>
-      <c r="DS7">
-        <v>0</v>
-      </c>
-      <c r="DT7">
-        <v>0</v>
-      </c>
-      <c r="DU7">
-        <v>0</v>
-      </c>
-      <c r="DV7">
-        <v>0</v>
-      </c>
       <c r="DW7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
-      <c r="DY7">
-        <v>0</v>
-      </c>
-      <c r="DZ7">
-        <v>0</v>
-      </c>
-      <c r="EA7">
-        <v>0</v>
+      <c r="DZ7" t="s">
+        <v>239</v>
       </c>
       <c r="EB7">
         <v>0</v>
@@ -3960,8 +3942,8 @@
       <c r="EH7">
         <v>0</v>
       </c>
-      <c r="EI7">
-        <v>0</v>
+      <c r="EI7" t="s">
+        <v>185</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3985,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4005,7 +3987,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4017,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4031,6 +4016,9 @@
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8" t="s">
+        <v>162</v>
+      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -4038,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4046,35 +4034,38 @@
       <c r="T8">
         <v>0</v>
       </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>173</v>
-      </c>
-      <c r="X8" t="s">
-        <v>156</v>
+        <v>175</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z8" t="s">
         <v>192</v>
       </c>
-      <c r="AA8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>192</v>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -4082,8 +4073,8 @@
       <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AH8" t="s">
-        <v>201</v>
+      <c r="AH8">
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -4181,29 +4172,26 @@
       <c r="BN8">
         <v>0</v>
       </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
+      <c r="BO8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>185</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4212,13 +4200,16 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="BZ8" t="s">
-        <v>223</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>182</v>
+        <v>231</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
       </c>
       <c r="CC8">
         <v>0</v>
@@ -4295,56 +4286,83 @@
       <c r="DA8">
         <v>0</v>
       </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
       <c r="DC8">
         <v>0</v>
       </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
       <c r="DE8">
         <v>0</v>
       </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
       <c r="DG8">
         <v>0</v>
       </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
       <c r="DI8">
         <v>0</v>
       </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
       <c r="DK8">
         <v>0</v>
       </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
       <c r="DM8">
         <v>0</v>
       </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
       <c r="DO8">
         <v>0</v>
       </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
       <c r="DR8">
         <v>0</v>
       </c>
-      <c r="DS8" t="s">
-        <v>182</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>182</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>182</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>156</v>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="DX8">
         <v>0</v>
       </c>
-      <c r="DY8" t="s">
-        <v>156</v>
-      </c>
-      <c r="DZ8" t="s">
-        <v>182</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>182</v>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
       </c>
       <c r="EB8">
         <v>0</v>
@@ -4367,14 +4385,14 @@
       <c r="EH8">
         <v>0</v>
       </c>
-      <c r="EI8" t="s">
-        <v>182</v>
-      </c>
-      <c r="EJ8" t="s">
-        <v>182</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>182</v>
+      <c r="EI8">
+        <v>0</v>
+      </c>
+      <c r="EJ8">
+        <v>0</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
       </c>
       <c r="EL8">
         <v>0</v>
@@ -4392,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4412,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4424,7 +4442,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="K9" t="s">
+        <v>158</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4442,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4454,31 +4475,31 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X9" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="Y9" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>197</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4486,11 +4507,14 @@
       <c r="AG9">
         <v>0</v>
       </c>
+      <c r="AH9" t="s">
+        <v>211</v>
+      </c>
       <c r="AI9">
         <v>0</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>182</v>
+      <c r="AJ9">
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -4537,8 +4561,8 @@
       <c r="AY9">
         <v>0</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>182</v>
+      <c r="AZ9">
+        <v>0</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -4613,16 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="BZ9" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="CA9" t="s">
-        <v>182</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="CC9">
         <v>0</v>
@@ -4699,9 +4720,6 @@
       <c r="DA9">
         <v>0</v>
       </c>
-      <c r="DB9" t="s">
-        <v>182</v>
-      </c>
       <c r="DC9">
         <v>0</v>
       </c>
@@ -4727,28 +4745,31 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DT9" t="s">
-        <v>182</v>
-      </c>
-      <c r="DU9">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>185</v>
       </c>
       <c r="DV9" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="DW9" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
+      <c r="DY9" t="s">
+        <v>158</v>
+      </c>
       <c r="DZ9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA9" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4772,13 +4793,13 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>182</v>
-      </c>
-      <c r="EJ9">
-        <v>0</v>
-      </c>
-      <c r="EK9">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>185</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>185</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4796,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>232</v>
-      </c>
-      <c r="ER9" t="s">
-        <v>233</v>
+        <v>241</v>
+      </c>
+      <c r="ER9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:148">
@@ -4816,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4828,10 +4849,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4842,9 +4860,6 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" t="s">
-        <v>162</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -4852,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4864,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="X10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Y10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -4899,8 +4914,8 @@
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
+      <c r="AJ10" t="s">
+        <v>185</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -4947,8 +4962,8 @@
       <c r="AY10">
         <v>0</v>
       </c>
-      <c r="AZ10">
-        <v>0</v>
+      <c r="AZ10" t="s">
+        <v>185</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -4992,14 +5007,14 @@
       <c r="BN10">
         <v>0</v>
       </c>
-      <c r="BO10" t="s">
-        <v>192</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>194</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>198</v>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
       </c>
       <c r="BR10">
         <v>0</v>
@@ -5007,8 +5022,8 @@
       <c r="BS10">
         <v>0</v>
       </c>
-      <c r="BT10" t="s">
-        <v>197</v>
+      <c r="BT10">
+        <v>0</v>
       </c>
       <c r="BU10">
         <v>0</v>
@@ -5023,25 +5038,28 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="BZ10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="CA10" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>235</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
-      <c r="CD10" t="s">
-        <v>182</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>182</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>182</v>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -5049,8 +5067,8 @@
       <c r="CH10">
         <v>0</v>
       </c>
-      <c r="CI10" t="s">
-        <v>182</v>
+      <c r="CI10">
+        <v>0</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -5058,14 +5076,14 @@
       <c r="CK10">
         <v>0</v>
       </c>
-      <c r="CL10" t="s">
-        <v>182</v>
-      </c>
-      <c r="CM10" t="s">
-        <v>182</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>182</v>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
       </c>
       <c r="CO10">
         <v>0</v>
@@ -5073,8 +5091,8 @@
       <c r="CP10">
         <v>0</v>
       </c>
-      <c r="CQ10" t="s">
-        <v>182</v>
+      <c r="CQ10">
+        <v>0</v>
       </c>
       <c r="CR10">
         <v>0</v>
@@ -5082,14 +5100,14 @@
       <c r="CS10">
         <v>0</v>
       </c>
-      <c r="CT10" t="s">
-        <v>192</v>
-      </c>
-      <c r="CU10" t="s">
-        <v>194</v>
-      </c>
-      <c r="CV10" t="s">
-        <v>198</v>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
       </c>
       <c r="CW10">
         <v>0</v>
@@ -5097,8 +5115,8 @@
       <c r="CX10">
         <v>0</v>
       </c>
-      <c r="CY10" t="s">
-        <v>197</v>
+      <c r="CY10">
+        <v>0</v>
       </c>
       <c r="CZ10">
         <v>0</v>
@@ -5106,6 +5124,9 @@
       <c r="DA10">
         <v>0</v>
       </c>
+      <c r="DB10" t="s">
+        <v>185</v>
+      </c>
       <c r="DC10">
         <v>0</v>
       </c>
@@ -5131,31 +5152,28 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DT10" t="s">
-        <v>182</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
       </c>
       <c r="DV10" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="DW10" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
-      <c r="DY10" t="s">
-        <v>157</v>
-      </c>
       <c r="DZ10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA10" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="EB10">
         <v>0</v>
@@ -5179,10 +5197,13 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>182</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="EJ10">
+        <v>0</v>
+      </c>
+      <c r="EK10">
+        <v>0</v>
       </c>
       <c r="EL10">
         <v>0</v>
@@ -5200,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>232</v>
-      </c>
-      <c r="ER10">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:148">
@@ -5232,7 +5253,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="K11" t="s">
+        <v>159</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5244,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5253,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5265,13 +5289,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Y11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -5300,14 +5324,14 @@
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>192</v>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -5393,14 +5417,14 @@
       <c r="BN11">
         <v>0</v>
       </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
+      <c r="BO11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>204</v>
       </c>
       <c r="BR11">
         <v>0</v>
@@ -5408,12 +5432,15 @@
       <c r="BS11">
         <v>0</v>
       </c>
-      <c r="BT11">
-        <v>0</v>
+      <c r="BT11" t="s">
+        <v>202</v>
       </c>
       <c r="BU11">
         <v>0</v>
       </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
       <c r="BW11">
         <v>0</v>
       </c>
@@ -5421,28 +5448,25 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="BZ11" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="CA11" t="s">
-        <v>182</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
-      <c r="CD11">
-        <v>0</v>
-      </c>
-      <c r="CE11">
-        <v>0</v>
-      </c>
-      <c r="CF11">
-        <v>0</v>
+      <c r="CD11" t="s">
+        <v>185</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>185</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5450,8 +5474,8 @@
       <c r="CH11">
         <v>0</v>
       </c>
-      <c r="CI11">
-        <v>0</v>
+      <c r="CI11" t="s">
+        <v>185</v>
       </c>
       <c r="CJ11">
         <v>0</v>
@@ -5459,14 +5483,14 @@
       <c r="CK11">
         <v>0</v>
       </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
+      <c r="CL11" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>185</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>185</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -5474,8 +5498,8 @@
       <c r="CP11">
         <v>0</v>
       </c>
-      <c r="CQ11">
-        <v>0</v>
+      <c r="CQ11" t="s">
+        <v>185</v>
       </c>
       <c r="CR11">
         <v>0</v>
@@ -5483,14 +5507,14 @@
       <c r="CS11">
         <v>0</v>
       </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
+      <c r="CT11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>204</v>
       </c>
       <c r="CW11">
         <v>0</v>
@@ -5498,8 +5522,8 @@
       <c r="CX11">
         <v>0</v>
       </c>
-      <c r="CY11">
-        <v>0</v>
+      <c r="CY11" t="s">
+        <v>202</v>
       </c>
       <c r="CZ11">
         <v>0</v>
@@ -5532,22 +5556,31 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>185</v>
       </c>
       <c r="DU11" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>159</v>
       </c>
       <c r="DW11" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
+      <c r="DY11" t="s">
+        <v>159</v>
+      </c>
       <c r="DZ11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA11" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="EB11">
         <v>0</v>
@@ -5571,13 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="EJ11" t="s">
-        <v>182</v>
-      </c>
-      <c r="EK11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EL11">
         <v>0</v>
@@ -5595,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5627,10 +5657,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5642,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -5651,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5663,28 +5690,28 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X12" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="Y12" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -5695,20 +5722,17 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12" t="s">
-        <v>202</v>
-      </c>
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
+      <c r="AJ12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>197</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5794,20 +5818,20 @@
       <c r="BN12">
         <v>0</v>
       </c>
-      <c r="BO12" t="s">
-        <v>185</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>194</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>196</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>193</v>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
       </c>
       <c r="BT12">
         <v>0</v>
@@ -5815,9 +5839,6 @@
       <c r="BU12">
         <v>0</v>
       </c>
-      <c r="BV12">
-        <v>0</v>
-      </c>
       <c r="BW12">
         <v>0</v>
       </c>
@@ -5825,31 +5846,34 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="BZ12" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="CA12" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>236</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
-      <c r="CD12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>182</v>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
       </c>
       <c r="CI12">
         <v>0</v>
@@ -5860,20 +5884,20 @@
       <c r="CK12">
         <v>0</v>
       </c>
-      <c r="CL12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>182</v>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
       </c>
       <c r="CQ12">
         <v>0</v>
@@ -5884,20 +5908,20 @@
       <c r="CS12">
         <v>0</v>
       </c>
-      <c r="CT12" t="s">
-        <v>185</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>194</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>196</v>
-      </c>
-      <c r="CW12" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>193</v>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
       </c>
       <c r="CY12">
         <v>0</v>
@@ -5933,31 +5957,22 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>182</v>
-      </c>
-      <c r="DT12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DU12" t="s">
-        <v>182</v>
-      </c>
-      <c r="DV12" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="DW12" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
-      <c r="DY12" t="s">
-        <v>158</v>
-      </c>
       <c r="DZ12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA12" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="EB12">
         <v>0</v>
@@ -5981,13 +5996,13 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="EJ12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EK12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6005,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6037,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6052,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6061,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6073,28 +6088,28 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA13" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AB13" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AC13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>198</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -6106,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -6114,8 +6129,8 @@
       <c r="AJ13">
         <v>0</v>
       </c>
-      <c r="AK13" t="s">
-        <v>192</v>
+      <c r="AK13">
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -6162,8 +6177,8 @@
       <c r="AZ13">
         <v>0</v>
       </c>
-      <c r="BA13" t="s">
-        <v>182</v>
+      <c r="BA13">
+        <v>0</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -6205,19 +6220,19 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BP13" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="BQ13" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="BR13" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>198</v>
       </c>
       <c r="BT13">
         <v>0</v>
@@ -6235,34 +6250,31 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="BZ13" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="CA13" t="s">
-        <v>182</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CE13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CF13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CG13" t="s">
-        <v>182</v>
-      </c>
-      <c r="CH13">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>185</v>
       </c>
       <c r="CI13">
         <v>0</v>
@@ -6274,19 +6286,19 @@
         <v>0</v>
       </c>
       <c r="CL13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CM13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CN13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CO13" t="s">
-        <v>182</v>
-      </c>
-      <c r="CP13">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>185</v>
       </c>
       <c r="CQ13">
         <v>0</v>
@@ -6298,19 +6310,19 @@
         <v>0</v>
       </c>
       <c r="CT13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="CU13" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="CV13" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="CW13" t="s">
-        <v>197</v>
-      </c>
-      <c r="CX13">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>198</v>
       </c>
       <c r="CY13">
         <v>0</v>
@@ -6324,9 +6336,6 @@
       <c r="DC13">
         <v>0</v>
       </c>
-      <c r="DD13" t="s">
-        <v>192</v>
-      </c>
       <c r="DE13">
         <v>0</v>
       </c>
@@ -6349,31 +6358,31 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DT13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DU13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DV13" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="DW13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DZ13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6397,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="EJ13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EK13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6421,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6441,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6453,7 +6462,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6464,6 +6476,9 @@
       <c r="N14">
         <v>0</v>
       </c>
+      <c r="O14" t="s">
+        <v>163</v>
+      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -6471,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6483,25 +6498,25 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X14" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AA14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>202</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -6516,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -6524,8 +6539,8 @@
       <c r="AJ14">
         <v>0</v>
       </c>
-      <c r="AK14">
-        <v>0</v>
+      <c r="AK14" t="s">
+        <v>197</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -6572,8 +6587,8 @@
       <c r="AZ14">
         <v>0</v>
       </c>
-      <c r="BA14">
-        <v>0</v>
+      <c r="BA14" t="s">
+        <v>185</v>
       </c>
       <c r="BB14">
         <v>0</v>
@@ -6614,17 +6629,17 @@
       <c r="BN14">
         <v>0</v>
       </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>0</v>
+      <c r="BO14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>202</v>
       </c>
       <c r="BS14">
         <v>0</v>
@@ -6645,28 +6660,31 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="BZ14" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="CA14" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>234</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
-      <c r="CD14">
-        <v>0</v>
-      </c>
-      <c r="CE14">
-        <v>0</v>
-      </c>
-      <c r="CF14">
-        <v>0</v>
-      </c>
-      <c r="CG14">
-        <v>0</v>
+      <c r="CD14" t="s">
+        <v>185</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>185</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>185</v>
       </c>
       <c r="CH14">
         <v>0</v>
@@ -6680,17 +6698,17 @@
       <c r="CK14">
         <v>0</v>
       </c>
-      <c r="CL14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
-      <c r="CN14">
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <v>0</v>
+      <c r="CL14" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>185</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>185</v>
       </c>
       <c r="CP14">
         <v>0</v>
@@ -6704,17 +6722,17 @@
       <c r="CS14">
         <v>0</v>
       </c>
-      <c r="CT14">
-        <v>0</v>
-      </c>
-      <c r="CU14">
-        <v>0</v>
-      </c>
-      <c r="CV14">
-        <v>0</v>
-      </c>
-      <c r="CW14">
-        <v>0</v>
+      <c r="CT14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>202</v>
       </c>
       <c r="CX14">
         <v>0</v>
@@ -6731,6 +6749,9 @@
       <c r="DC14">
         <v>0</v>
       </c>
+      <c r="DD14" t="s">
+        <v>197</v>
+      </c>
       <c r="DE14">
         <v>0</v>
       </c>
@@ -6753,25 +6774,31 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DT14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DU14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DV14" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="DW14" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="DX14">
         <v>0</v>
       </c>
+      <c r="DY14" t="s">
+        <v>161</v>
+      </c>
       <c r="DZ14" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>185</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -6795,10 +6822,13 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="EJ14" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>185</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -6816,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>232</v>
-      </c>
-      <c r="ER14" t="s">
-        <v>233</v>
+        <v>241</v>
+      </c>
+      <c r="ER14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:148">
@@ -6848,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6866,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6878,22 +6908,22 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Y15" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>197</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -6910,11 +6940,14 @@
       <c r="AG15">
         <v>0</v>
       </c>
+      <c r="AH15" t="s">
+        <v>167</v>
+      </c>
       <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>182</v>
+      <c r="AJ15">
+        <v>0</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -6961,8 +6994,8 @@
       <c r="AY15">
         <v>0</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>182</v>
+      <c r="AZ15">
+        <v>0</v>
       </c>
       <c r="BA15">
         <v>0</v>
@@ -7037,16 +7070,13 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="BZ15" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="CA15" t="s">
-        <v>182</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="CC15">
         <v>0</v>
@@ -7123,9 +7153,6 @@
       <c r="DA15">
         <v>0</v>
       </c>
-      <c r="DB15" t="s">
-        <v>182</v>
-      </c>
       <c r="DC15">
         <v>0</v>
       </c>
@@ -7151,28 +7178,25 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DT15" t="s">
-        <v>182</v>
-      </c>
-      <c r="DU15">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>185</v>
       </c>
       <c r="DV15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="DW15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="DX15">
         <v>0</v>
       </c>
       <c r="DZ15" t="s">
-        <v>182</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="EB15">
         <v>0</v>
@@ -7196,13 +7220,10 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>182</v>
-      </c>
-      <c r="EJ15">
-        <v>0</v>
-      </c>
-      <c r="EK15">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>185</v>
       </c>
       <c r="EL15">
         <v>0</v>
@@ -7220,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="ER15" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:148">
@@ -7240,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -7252,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -7263,9 +7284,6 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
-        <v>165</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7285,286 +7303,289 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>235</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>185</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>185</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>185</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="s">
         <v>186</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>198</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>193</v>
-      </c>
-      <c r="BR16">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>0</v>
-      </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
-        <v>0</v>
-      </c>
-      <c r="BV16">
-        <v>0</v>
-      </c>
-      <c r="BW16">
-        <v>0</v>
-      </c>
-      <c r="BX16">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>220</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>222</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>182</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>165</v>
-      </c>
-      <c r="CC16">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>195</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>198</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>193</v>
-      </c>
-      <c r="CG16">
-        <v>0</v>
-      </c>
-      <c r="CH16">
-        <v>0</v>
-      </c>
-      <c r="CI16">
-        <v>0</v>
-      </c>
-      <c r="CJ16">
-        <v>0</v>
-      </c>
-      <c r="CK16">
-        <v>0</v>
-      </c>
-      <c r="CL16">
-        <v>0</v>
-      </c>
-      <c r="CM16">
-        <v>0</v>
-      </c>
-      <c r="CN16">
-        <v>0</v>
-      </c>
-      <c r="CO16">
-        <v>0</v>
-      </c>
-      <c r="CP16">
-        <v>0</v>
-      </c>
-      <c r="CQ16">
-        <v>0</v>
-      </c>
-      <c r="CR16">
-        <v>0</v>
-      </c>
-      <c r="CS16">
-        <v>0</v>
-      </c>
-      <c r="CT16">
-        <v>0</v>
-      </c>
-      <c r="CU16">
-        <v>0</v>
-      </c>
-      <c r="CV16">
-        <v>0</v>
-      </c>
-      <c r="CW16">
-        <v>0</v>
-      </c>
-      <c r="CX16">
-        <v>0</v>
-      </c>
-      <c r="CY16">
-        <v>0</v>
-      </c>
-      <c r="CZ16">
-        <v>0</v>
-      </c>
-      <c r="DA16">
-        <v>0</v>
-      </c>
-      <c r="DB16" t="s">
-        <v>194</v>
-      </c>
-      <c r="DC16">
-        <v>0</v>
-      </c>
-      <c r="DE16">
-        <v>0</v>
-      </c>
-      <c r="DG16">
-        <v>0</v>
-      </c>
-      <c r="DI16">
-        <v>0</v>
-      </c>
-      <c r="DK16">
-        <v>0</v>
-      </c>
-      <c r="DM16">
-        <v>0</v>
-      </c>
-      <c r="DO16">
-        <v>0</v>
-      </c>
-      <c r="DR16">
-        <v>0</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>182</v>
-      </c>
-      <c r="DU16" t="s">
-        <v>182</v>
       </c>
       <c r="DW16" t="s">
         <v>186</v>
@@ -7573,6 +7594,9 @@
         <v>0</v>
       </c>
       <c r="DZ16" t="s">
+        <v>185</v>
+      </c>
+      <c r="EA16" t="s">
         <v>186</v>
       </c>
       <c r="EB16">
@@ -7597,13 +7621,13 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>157</v>
-      </c>
-      <c r="EJ16" t="s">
-        <v>182</v>
-      </c>
-      <c r="EK16" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="EJ16">
+        <v>0</v>
+      </c>
+      <c r="EK16">
+        <v>0</v>
       </c>
       <c r="EL16">
         <v>0</v>
@@ -7621,10 +7645,10 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>232</v>
-      </c>
-      <c r="ER16">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:148">
@@ -7641,385 +7665,786 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>168</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>231</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>199</v>
+      </c>
+      <c r="DC17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>0</v>
+      </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
+      <c r="DI17">
+        <v>0</v>
+      </c>
+      <c r="DK17">
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <v>0</v>
+      </c>
+      <c r="DO17">
+        <v>0</v>
+      </c>
+      <c r="DR17">
+        <v>0</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>185</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>185</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>190</v>
+      </c>
+      <c r="DX17">
+        <v>0</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>190</v>
+      </c>
+      <c r="EB17">
+        <v>0</v>
+      </c>
+      <c r="EC17">
+        <v>0</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
+      </c>
+      <c r="EE17">
+        <v>0</v>
+      </c>
+      <c r="EF17">
+        <v>0</v>
+      </c>
+      <c r="EG17">
+        <v>0</v>
+      </c>
+      <c r="EH17">
+        <v>0</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>159</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>185</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>185</v>
+      </c>
+      <c r="EL17">
+        <v>0</v>
+      </c>
+      <c r="EM17">
+        <v>0</v>
+      </c>
+      <c r="EN17">
+        <v>0</v>
+      </c>
+      <c r="EO17">
+        <v>0</v>
+      </c>
+      <c r="EP17">
+        <v>0</v>
+      </c>
+      <c r="EQ17" t="s">
+        <v>241</v>
+      </c>
+      <c r="ER17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:148">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>147</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>166</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
-        <v>181</v>
-      </c>
-      <c r="X17" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>0</v>
-      </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
-      <c r="BV17">
-        <v>0</v>
-      </c>
-      <c r="BW17">
-        <v>0</v>
-      </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>221</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>223</v>
-      </c>
-      <c r="CA17" t="s">
-        <v>182</v>
-      </c>
-      <c r="CC17">
-        <v>0</v>
-      </c>
-      <c r="CD17">
-        <v>0</v>
-      </c>
-      <c r="CE17">
-        <v>0</v>
-      </c>
-      <c r="CF17">
-        <v>0</v>
-      </c>
-      <c r="CG17">
-        <v>0</v>
-      </c>
-      <c r="CH17">
-        <v>0</v>
-      </c>
-      <c r="CI17">
-        <v>0</v>
-      </c>
-      <c r="CJ17">
-        <v>0</v>
-      </c>
-      <c r="CK17">
-        <v>0</v>
-      </c>
-      <c r="CL17">
-        <v>0</v>
-      </c>
-      <c r="CM17">
-        <v>0</v>
-      </c>
-      <c r="CN17">
-        <v>0</v>
-      </c>
-      <c r="CO17">
-        <v>0</v>
-      </c>
-      <c r="CP17">
-        <v>0</v>
-      </c>
-      <c r="CQ17">
-        <v>0</v>
-      </c>
-      <c r="CR17">
-        <v>0</v>
-      </c>
-      <c r="CS17">
-        <v>0</v>
-      </c>
-      <c r="CT17">
-        <v>0</v>
-      </c>
-      <c r="CU17">
-        <v>0</v>
-      </c>
-      <c r="CV17">
-        <v>0</v>
-      </c>
-      <c r="CW17">
-        <v>0</v>
-      </c>
-      <c r="CX17">
-        <v>0</v>
-      </c>
-      <c r="CY17">
-        <v>0</v>
-      </c>
-      <c r="CZ17">
-        <v>0</v>
-      </c>
-      <c r="DA17">
-        <v>0</v>
-      </c>
-      <c r="DC17">
-        <v>0</v>
-      </c>
-      <c r="DE17">
-        <v>0</v>
-      </c>
-      <c r="DG17">
-        <v>0</v>
-      </c>
-      <c r="DI17">
-        <v>0</v>
-      </c>
-      <c r="DK17">
-        <v>0</v>
-      </c>
-      <c r="DM17">
-        <v>0</v>
-      </c>
-      <c r="DO17">
-        <v>0</v>
-      </c>
-      <c r="DR17">
-        <v>0</v>
-      </c>
-      <c r="DS17" t="s">
-        <v>182</v>
-      </c>
-      <c r="DT17" t="s">
-        <v>182</v>
-      </c>
-      <c r="DU17" t="s">
-        <v>182</v>
-      </c>
-      <c r="DV17" t="s">
-        <v>187</v>
-      </c>
-      <c r="DW17" t="s">
-        <v>187</v>
-      </c>
-      <c r="DX17">
-        <v>0</v>
-      </c>
-      <c r="DZ17" t="s">
-        <v>187</v>
-      </c>
-      <c r="EB17">
-        <v>0</v>
-      </c>
-      <c r="EC17">
-        <v>0</v>
-      </c>
-      <c r="ED17">
-        <v>0</v>
-      </c>
-      <c r="EE17">
-        <v>0</v>
-      </c>
-      <c r="EF17">
-        <v>0</v>
-      </c>
-      <c r="EG17">
-        <v>0</v>
-      </c>
-      <c r="EH17">
-        <v>0</v>
-      </c>
-      <c r="EI17" t="s">
-        <v>182</v>
-      </c>
-      <c r="EJ17" t="s">
-        <v>182</v>
-      </c>
-      <c r="EL17">
-        <v>0</v>
-      </c>
-      <c r="EM17">
-        <v>0</v>
-      </c>
-      <c r="EN17">
-        <v>0</v>
-      </c>
-      <c r="EO17">
-        <v>0</v>
-      </c>
-      <c r="EP17">
-        <v>0</v>
-      </c>
-      <c r="EQ17" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>168</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>230</v>
+      </c>
+      <c r="BZ18" t="s">
         <v>232</v>
       </c>
-      <c r="ER17" t="s">
-        <v>233</v>
+      <c r="CA18" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>0</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DI18">
+        <v>0</v>
+      </c>
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <v>0</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>185</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>185</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>185</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX18">
+        <v>0</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB18">
+        <v>0</v>
+      </c>
+      <c r="EC18">
+        <v>0</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
+      </c>
+      <c r="EE18">
+        <v>0</v>
+      </c>
+      <c r="EF18">
+        <v>0</v>
+      </c>
+      <c r="EG18">
+        <v>0</v>
+      </c>
+      <c r="EH18">
+        <v>0</v>
+      </c>
+      <c r="EI18" t="s">
+        <v>185</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>185</v>
+      </c>
+      <c r="EL18">
+        <v>0</v>
+      </c>
+      <c r="EM18">
+        <v>0</v>
+      </c>
+      <c r="EN18">
+        <v>0</v>
+      </c>
+      <c r="EO18">
+        <v>0</v>
+      </c>
+      <c r="EP18">
+        <v>0</v>
+      </c>
+      <c r="EQ18" t="s">
+        <v>241</v>
+      </c>
+      <c r="ER18" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="242">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -490,6 +490,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -580,9 +583,6 @@
     <t>48</t>
   </si>
   <si>
-    <t>182</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -604,33 +604,51 @@
     <t>33</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -640,24 +658,6 @@
     <t>38</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs</t>
-  </si>
-  <si>
     <t>2025-07-19T10:04:43.558609Z</t>
   </si>
   <si>
@@ -673,7 +673,7 @@
     <t>2025-05-14T10:01:37.406487Z</t>
   </si>
   <si>
-    <t>2025-08-04T14:52:28.776025Z</t>
+    <t>2025-08-05T07:55:09.464010Z</t>
   </si>
   <si>
     <t>2025-07-03T04:35:05.818275Z</t>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>216</t>
   </si>
   <si>
     <t>24</t>
@@ -1590,31 +1587,31 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" t="s">
         <v>162</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>170</v>
-      </c>
-      <c r="X2" t="s">
-        <v>161</v>
       </c>
       <c r="Y2" t="s">
         <v>192</v>
@@ -1623,28 +1620,28 @@
         <v>193</v>
       </c>
       <c r="AA2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AH2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1746,25 +1743,25 @@
         <v>193</v>
       </c>
       <c r="BP2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BQ2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BR2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BS2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BT2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BU2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BV2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1779,7 +1776,7 @@
         <v>231</v>
       </c>
       <c r="CA2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -1788,13 +1785,13 @@
         <v>193</v>
       </c>
       <c r="CE2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CF2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CG2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1803,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CK2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -1881,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV2" t="s">
         <v>157</v>
@@ -1899,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DZ2" t="s">
         <v>157</v>
       </c>
       <c r="EA2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1929,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1950,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -1994,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2003,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2015,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y3" t="s">
         <v>192</v>
@@ -2144,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="BP3" t="s">
         <v>194</v>
@@ -2153,7 +2150,7 @@
         <v>208</v>
       </c>
       <c r="BR3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2180,22 +2177,22 @@
         <v>232</v>
       </c>
       <c r="CA3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CE3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CF3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CG3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2210,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="CM3" t="s">
         <v>194</v>
@@ -2219,7 +2216,7 @@
         <v>208</v>
       </c>
       <c r="CO3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -2282,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV3" t="s">
         <v>237</v>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA3" t="s">
         <v>237</v>
@@ -2327,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EK3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2351,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2401,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2413,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y4" t="s">
         <v>192</v>
@@ -2428,7 +2425,7 @@
         <v>191</v>
       </c>
       <c r="AB4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2446,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -2500,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2581,10 +2578,10 @@
         <v>232</v>
       </c>
       <c r="CA4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -2689,22 +2686,22 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DW4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2728,31 +2725,31 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
+        <v>239</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>186</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>186</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>0</v>
+      </c>
+      <c r="EP4">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="s">
         <v>240</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>185</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>185</v>
-      </c>
-      <c r="EL4">
-        <v>0</v>
-      </c>
-      <c r="EM4">
-        <v>0</v>
-      </c>
-      <c r="EN4">
-        <v>0</v>
-      </c>
-      <c r="EO4">
-        <v>0</v>
-      </c>
-      <c r="EP4">
-        <v>0</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>241</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2799,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2808,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2817,16 +2814,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y5" t="s">
         <v>192</v>
@@ -2835,13 +2832,13 @@
         <v>195</v>
       </c>
       <c r="AA5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -2856,22 +2853,22 @@
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AI5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AJ5" t="s">
         <v>194</v>
       </c>
       <c r="AK5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -2910,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BA5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -2958,13 +2955,13 @@
         <v>195</v>
       </c>
       <c r="BP5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BQ5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BR5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -2991,25 +2988,25 @@
         <v>233</v>
       </c>
       <c r="CA5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CE5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CF5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CG5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -3027,13 +3024,13 @@
         <v>195</v>
       </c>
       <c r="CM5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CN5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CO5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -3078,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="DD5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="DE5">
         <v>0</v>
@@ -3102,22 +3099,22 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="EB5">
         <v>0</v>
@@ -3126,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="ED5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="EE5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EF5">
         <v>0</v>
@@ -3141,31 +3138,31 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
+        <v>239</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5">
+        <v>0</v>
+      </c>
+      <c r="EN5">
+        <v>0</v>
+      </c>
+      <c r="EO5">
+        <v>0</v>
+      </c>
+      <c r="EP5">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="s">
         <v>240</v>
-      </c>
-      <c r="EJ5">
-        <v>0</v>
-      </c>
-      <c r="EK5">
-        <v>0</v>
-      </c>
-      <c r="EL5">
-        <v>0</v>
-      </c>
-      <c r="EM5">
-        <v>0</v>
-      </c>
-      <c r="EN5">
-        <v>0</v>
-      </c>
-      <c r="EO5">
-        <v>0</v>
-      </c>
-      <c r="EP5">
-        <v>0</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>241</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3215,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3227,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y6" t="s">
         <v>192</v>
@@ -3266,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3314,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3392,7 +3389,7 @@
         <v>232</v>
       </c>
       <c r="CA6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB6" t="s">
         <v>234</v>
@@ -3476,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="DE6">
         <v>0</v>
@@ -3500,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV6" t="s">
         <v>191</v>
@@ -3518,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA6" t="s">
         <v>208</v>
@@ -3545,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="EJ6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EK6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3569,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3603,6 +3600,9 @@
       <c r="J7" t="s">
         <v>153</v>
       </c>
+      <c r="K7" t="s">
+        <v>158</v>
+      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -3612,6 +3612,9 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7" t="s">
+        <v>163</v>
+      </c>
       <c r="P7">
         <v>0</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3631,160 +3634,157 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Y7" t="s">
         <v>192</v>
       </c>
-      <c r="Z7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BT7" t="s">
         <v>208</v>
       </c>
-      <c r="AF7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
+      <c r="BU7" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>186</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3799,55 +3799,55 @@
         <v>233</v>
       </c>
       <c r="CA7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
-      <c r="CD7">
-        <v>0</v>
-      </c>
-      <c r="CE7">
-        <v>0</v>
-      </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
+      <c r="CD7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>186</v>
       </c>
       <c r="CK7">
         <v>0</v>
       </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
+      <c r="CL7" t="s">
+        <v>209</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>213</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>208</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>200</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3901,25 +3901,31 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DV7" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="DW7" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
+      <c r="DY7" t="s">
+        <v>186</v>
+      </c>
       <c r="DZ7" t="s">
-        <v>239</v>
+        <v>186</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>158</v>
       </c>
       <c r="EB7">
         <v>0</v>
@@ -3943,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3967,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4017,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4026,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4041,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -4173,25 +4179,25 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BP8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BQ8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BR8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BS8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BT8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BU8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4350,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -4410,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4445,7 +4451,7 @@
         <v>154</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4463,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4475,31 +4481,31 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y9" t="s">
         <v>192</v>
       </c>
       <c r="Z9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AC9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AE9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4508,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -4643,7 +4649,7 @@
         <v>232</v>
       </c>
       <c r="CA9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC9">
         <v>0</v>
@@ -4745,31 +4751,31 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DW9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DZ9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4793,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EK9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4817,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4867,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4879,10 +4885,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y10" t="s">
         <v>192</v>
@@ -4915,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -4963,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -5044,7 +5050,7 @@
         <v>233</v>
       </c>
       <c r="CA10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB10" t="s">
         <v>235</v>
@@ -5125,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="DB10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DC10">
         <v>0</v>
@@ -5152,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -5170,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="DZ10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA10" t="s">
         <v>238</v>
@@ -5197,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5221,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER10" t="s">
         <v>241</v>
-      </c>
-      <c r="ER10" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:148">
@@ -5256,7 +5262,7 @@
         <v>156</v>
       </c>
       <c r="K11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5268,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5277,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5289,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y11" t="s">
         <v>192</v>
@@ -5418,13 +5424,13 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BP11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BQ11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BR11">
         <v>0</v>
@@ -5433,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="BT11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BU11">
         <v>0</v>
@@ -5454,19 +5460,19 @@
         <v>232</v>
       </c>
       <c r="CA11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CE11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CF11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5475,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="CI11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CJ11">
         <v>0</v>
@@ -5484,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="CL11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CM11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CN11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -5499,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="CQ11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CR11">
         <v>0</v>
@@ -5508,13 +5514,13 @@
         <v>0</v>
       </c>
       <c r="CT11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CU11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CV11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="CW11">
         <v>0</v>
@@ -5523,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="CY11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CZ11">
         <v>0</v>
@@ -5556,31 +5562,31 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DW11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DZ11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EB11">
         <v>0</v>
@@ -5604,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL11">
         <v>0</v>
@@ -5625,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5669,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -5678,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5690,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y12" t="s">
         <v>192</v>
@@ -5726,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AK12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5852,7 +5858,7 @@
         <v>231</v>
       </c>
       <c r="CA12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB12" t="s">
         <v>236</v>
@@ -5957,22 +5963,22 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DW12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
       <c r="DZ12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="EB12">
         <v>0</v>
@@ -5996,13 +6002,13 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="EJ12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EK12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6020,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6055,7 +6061,7 @@
         <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6067,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6076,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6088,10 +6094,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
         <v>192</v>
@@ -6100,16 +6106,16 @@
         <v>189</v>
       </c>
       <c r="AA13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -6121,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -6223,16 +6229,16 @@
         <v>189</v>
       </c>
       <c r="BP13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BQ13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BR13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BS13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BT13">
         <v>0</v>
@@ -6256,25 +6262,25 @@
         <v>231</v>
       </c>
       <c r="CA13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CE13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CF13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CG13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CH13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CI13">
         <v>0</v>
@@ -6286,19 +6292,19 @@
         <v>0</v>
       </c>
       <c r="CL13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CM13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CN13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CO13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CQ13">
         <v>0</v>
@@ -6313,16 +6319,16 @@
         <v>189</v>
       </c>
       <c r="CU13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CV13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CW13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CX13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CY13">
         <v>0</v>
@@ -6358,31 +6364,31 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DW13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DZ13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6406,13 +6412,13 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EK13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6430,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6465,7 +6471,7 @@
         <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6477,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6486,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6498,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
         <v>192</v>
       </c>
       <c r="Z14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA14" t="s">
         <v>191</v>
@@ -6516,7 +6522,7 @@
         <v>191</v>
       </c>
       <c r="AC14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -6531,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -6540,97 +6546,97 @@
         <v>0</v>
       </c>
       <c r="AK14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="s">
         <v>197</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>198</v>
       </c>
       <c r="BP14" t="s">
         <v>191</v>
@@ -6639,7 +6645,7 @@
         <v>191</v>
       </c>
       <c r="BR14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BS14">
         <v>0</v>
@@ -6666,7 +6672,7 @@
         <v>231</v>
       </c>
       <c r="CA14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB14" t="s">
         <v>234</v>
@@ -6675,16 +6681,16 @@
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CE14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CF14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CG14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CH14">
         <v>0</v>
@@ -6699,16 +6705,16 @@
         <v>0</v>
       </c>
       <c r="CL14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CM14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CN14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CO14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP14">
         <v>0</v>
@@ -6723,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="CT14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CU14" t="s">
         <v>191</v>
@@ -6732,7 +6738,7 @@
         <v>191</v>
       </c>
       <c r="CW14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CX14">
         <v>0</v>
@@ -6750,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="DD14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="DE14">
         <v>0</v>
@@ -6774,31 +6780,31 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="DW14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DX14">
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DZ14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -6822,13 +6828,13 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="EJ14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EK14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -6846,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -6896,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6908,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X15" t="s">
         <v>189</v>
@@ -6917,13 +6923,13 @@
         <v>192</v>
       </c>
       <c r="Z15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -6941,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="AH15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -7076,7 +7082,7 @@
         <v>232</v>
       </c>
       <c r="CA15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC15">
         <v>0</v>
@@ -7178,13 +7184,13 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV15" t="s">
         <v>189</v>
@@ -7220,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL15">
         <v>0</v>
@@ -7241,10 +7247,10 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER15" t="s">
         <v>241</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:148">
@@ -7291,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7303,10 +7309,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
         <v>192</v>
@@ -7339,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -7387,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BA16">
         <v>0</v>
@@ -7468,7 +7474,7 @@
         <v>233</v>
       </c>
       <c r="CA16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB16" t="s">
         <v>235</v>
@@ -7549,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="DB16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DC16">
         <v>0</v>
@@ -7576,28 +7582,28 @@
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU16">
         <v>0</v>
       </c>
       <c r="DV16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DW16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DX16">
         <v>0</v>
       </c>
       <c r="DZ16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EA16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EB16">
         <v>0</v>
@@ -7621,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -7645,10 +7651,10 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER16" t="s">
         <v>241</v>
-      </c>
-      <c r="ER16" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:148">
@@ -7689,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -7698,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7710,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
         <v>190</v>
@@ -7719,136 +7725,136 @@
         <v>192</v>
       </c>
       <c r="Z17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AB17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>198</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="s">
         <v>199</v>
       </c>
-      <c r="AK17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>200</v>
-      </c>
       <c r="BP17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BQ17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BR17">
         <v>0</v>
@@ -7878,89 +7884,89 @@
         <v>231</v>
       </c>
       <c r="CA17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CB17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="CE17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="CF17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DB17" t="s">
         <v>198</v>
       </c>
-      <c r="CG17">
-        <v>0</v>
-      </c>
-      <c r="CH17">
-        <v>0</v>
-      </c>
-      <c r="CI17">
-        <v>0</v>
-      </c>
-      <c r="CJ17">
-        <v>0</v>
-      </c>
-      <c r="CK17">
-        <v>0</v>
-      </c>
-      <c r="CL17">
-        <v>0</v>
-      </c>
-      <c r="CM17">
-        <v>0</v>
-      </c>
-      <c r="CN17">
-        <v>0</v>
-      </c>
-      <c r="CO17">
-        <v>0</v>
-      </c>
-      <c r="CP17">
-        <v>0</v>
-      </c>
-      <c r="CQ17">
-        <v>0</v>
-      </c>
-      <c r="CR17">
-        <v>0</v>
-      </c>
-      <c r="CS17">
-        <v>0</v>
-      </c>
-      <c r="CT17">
-        <v>0</v>
-      </c>
-      <c r="CU17">
-        <v>0</v>
-      </c>
-      <c r="CV17">
-        <v>0</v>
-      </c>
-      <c r="CW17">
-        <v>0</v>
-      </c>
-      <c r="CX17">
-        <v>0</v>
-      </c>
-      <c r="CY17">
-        <v>0</v>
-      </c>
-      <c r="CZ17">
-        <v>0</v>
-      </c>
-      <c r="DA17">
-        <v>0</v>
-      </c>
-      <c r="DB17" t="s">
-        <v>199</v>
-      </c>
       <c r="DC17">
         <v>0</v>
       </c>
@@ -7986,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DW17" t="s">
         <v>190</v>
@@ -8022,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="EJ17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EK17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL17">
         <v>0</v>
@@ -8046,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -8096,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8108,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s">
         <v>191</v>
@@ -8117,11 +8123,11 @@
         <v>192</v>
       </c>
       <c r="Z18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA18" t="s">
         <v>201</v>
       </c>
-      <c r="AA18" t="s">
-        <v>202</v>
-      </c>
       <c r="AB18">
         <v>0</v>
       </c>
@@ -8141,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="AH18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -8276,7 +8282,7 @@
         <v>232</v>
       </c>
       <c r="CA18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC18">
         <v>0</v>
@@ -8378,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DT18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DU18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DV18" t="s">
         <v>191</v>
@@ -8420,10 +8426,10 @@
         <v>0</v>
       </c>
       <c r="EI18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EJ18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EL18">
         <v>0</v>
@@ -8441,10 +8447,10 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER18" t="s">
         <v>241</v>
-      </c>
-      <c r="ER18" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="248">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -481,12 +481,12 @@
     <t>MARONDERA PROVINCIAL HOSPITAL</t>
   </si>
   <si>
+    <t>MARONDERA  - 100903 - PROVINCIAL HOSPITAL</t>
+  </si>
+  <si>
     <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
   </si>
   <si>
-    <t>MARONDERA  - 100903 - PROVINCIAL HOSPITAL</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -496,9 +496,15 @@
     <t>9</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -517,6 +523,9 @@
     <t>50+_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 50+_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
   </si>
   <si>
@@ -577,9 +586,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
@@ -607,12 +613,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -634,6 +640,9 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 50+_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs</t>
   </si>
   <si>
@@ -682,6 +691,9 @@
     <t>2025-05-23T12:16:46.389505Z</t>
   </si>
   <si>
+    <t>2025-08-05T09:26:49.758411Z</t>
+  </si>
+  <si>
     <t>2025-08-04T12:32:14.254797Z</t>
   </si>
   <si>
@@ -691,6 +703,9 @@
     <t>2025-07-04T06:51:29.899097Z</t>
   </si>
   <si>
+    <t>2025-08-05T09:26:49.394220Z</t>
+  </si>
+  <si>
     <t>2025-07-04T19:33:28.979488Z</t>
   </si>
   <si>
@@ -721,16 +736,19 @@
     <t>20-24_yrs</t>
   </si>
   <si>
+    <t>20-24_yrs 35-39_yrs 50_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 50_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 35-39_yrs 50_yrs</t>
+  </si>
+  <si>
     <t>40</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
   <si>
     <t>24</t>
@@ -1097,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER18"/>
+  <dimension ref="A1:ER20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1587,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1596,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1608,160 +1626,160 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="X2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AB2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF2" t="s">
         <v>198</v>
       </c>
-      <c r="AC2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>196</v>
-      </c>
       <c r="AG2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP2" t="s">
         <v>203</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>201</v>
-      </c>
       <c r="BQ2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BU2" t="s">
         <v>198</v>
       </c>
-      <c r="BR2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>196</v>
-      </c>
       <c r="BV2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1770,40 +1788,40 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BZ2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="CA2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CE2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="CF2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>198</v>
       </c>
-      <c r="CG2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>196</v>
-      </c>
       <c r="CK2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -1878,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DT2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DV2" t="s">
         <v>157</v>
@@ -1896,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DZ2" t="s">
         <v>157</v>
       </c>
       <c r="EA2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1926,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EJ2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1947,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -1991,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2000,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2012,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2141,16 +2159,16 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BP3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BQ3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BR3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2171,28 +2189,28 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BZ3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="CA3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CE3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CF3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CG3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2207,16 +2225,16 @@
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CM3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="CN3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CO3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -2279,28 +2297,28 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DT3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DV3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="DW3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -2324,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EJ3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EK3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2348,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2398,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2410,53 +2428,53 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="X4" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="Y4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AA4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL4" t="s">
         <v>191</v>
       </c>
-      <c r="AB4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>189</v>
-      </c>
       <c r="AM4">
         <v>0</v>
       </c>
@@ -2497,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2572,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="BZ4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="CA4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CB4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -2659,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="DC4">
         <v>0</v>
@@ -2686,22 +2704,22 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DW4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2725,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="EJ4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EK4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2749,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2796,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2805,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2814,31 +2832,31 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="X5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Y5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA5" t="s">
         <v>159</v>
       </c>
       <c r="AB5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -2853,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="AH5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK5" t="s">
         <v>204</v>
       </c>
-      <c r="AI5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>202</v>
-      </c>
       <c r="AL5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -2907,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BA5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -2952,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BP5" t="s">
         <v>159</v>
       </c>
       <c r="BQ5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BR5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -2982,31 +3000,31 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BZ5" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="CA5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CB5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CE5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CF5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CG5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -3021,112 +3039,112 @@
         <v>0</v>
       </c>
       <c r="CL5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="CM5" t="s">
         <v>159</v>
       </c>
       <c r="CN5" t="s">
+        <v>199</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>204</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>189</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>190</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>189</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>190</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="s">
         <v>198</v>
       </c>
-      <c r="CO5" t="s">
-        <v>201</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>194</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>202</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
-      <c r="DK5">
-        <v>0</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
-      <c r="DR5">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>186</v>
-      </c>
-      <c r="DU5">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>188</v>
-      </c>
-      <c r="DX5">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>186</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>188</v>
-      </c>
-      <c r="EB5">
-        <v>0</v>
-      </c>
-      <c r="EC5">
-        <v>0</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>196</v>
-      </c>
       <c r="EE5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EF5">
         <v>0</v>
@@ -3138,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3162,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3212,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3224,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="X6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -3263,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3311,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3383,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BZ6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="CA6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CB6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -3473,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DE6">
         <v>0</v>
@@ -3497,28 +3515,28 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DT6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DV6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="DW6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="EB6">
         <v>0</v>
@@ -3542,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EJ6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EK6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3566,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3613,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3622,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3634,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="X7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -3763,91 +3781,91 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BP7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BQ7" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>215</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BT7" t="s">
         <v>211</v>
       </c>
-      <c r="BR7" t="s">
+      <c r="BU7" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="s">
         <v>212</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="CM7" t="s">
         <v>213</v>
       </c>
-      <c r="BT7" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>200</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>219</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>233</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>186</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>186</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>186</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>186</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>186</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>209</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>210</v>
-      </c>
       <c r="CN7" t="s">
+        <v>214</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>215</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>216</v>
+      </c>
+      <c r="CQ7" t="s">
         <v>211</v>
       </c>
-      <c r="CO7" t="s">
-        <v>212</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>213</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>208</v>
-      </c>
       <c r="CR7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3901,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DT7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU7">
         <v>0</v>
@@ -3919,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DZ7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA7" t="s">
         <v>158</v>
@@ -3949,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3973,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4023,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4032,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4047,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -4179,25 +4197,25 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BP8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BQ8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BR8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BS8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BT8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BU8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4206,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BZ8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -4356,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -4416,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4469,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4481,31 +4499,31 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="X9" t="s">
         <v>159</v>
       </c>
       <c r="Y9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AB9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AC9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AE9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4514,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -4643,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BZ9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="CA9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CC9">
         <v>0</v>
@@ -4751,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DT9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DV9" t="s">
         <v>159</v>
@@ -4772,10 +4790,10 @@
         <v>159</v>
       </c>
       <c r="DZ9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4799,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EJ9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EK9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4823,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4843,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4857,6 +4875,9 @@
       <c r="J10" t="s">
         <v>155</v>
       </c>
+      <c r="K10" t="s">
+        <v>160</v>
+      </c>
       <c r="L10">
         <v>0</v>
       </c>
@@ -4873,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4885,28 +4906,28 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X10" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="Y10" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>191</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -4914,17 +4935,20 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
+      <c r="AG10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>208</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>203</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -4932,8 +4956,8 @@
       <c r="AM10">
         <v>0</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
+      <c r="AN10" t="s">
+        <v>203</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -4941,8 +4965,8 @@
       <c r="AP10">
         <v>0</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
+      <c r="AQ10" t="s">
+        <v>198</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4968,11 +4992,11 @@
       <c r="AY10">
         <v>0</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>189</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -4980,8 +5004,8 @@
       <c r="BC10">
         <v>0</v>
       </c>
-      <c r="BD10">
-        <v>0</v>
+      <c r="BD10" t="s">
+        <v>189</v>
       </c>
       <c r="BE10">
         <v>0</v>
@@ -5044,16 +5068,16 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="BZ10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="CA10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CB10" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="CC10">
         <v>0</v>
@@ -5130,12 +5154,12 @@
       <c r="DA10">
         <v>0</v>
       </c>
-      <c r="DB10" t="s">
-        <v>186</v>
-      </c>
       <c r="DC10">
         <v>0</v>
       </c>
+      <c r="DD10" t="s">
+        <v>203</v>
+      </c>
       <c r="DE10">
         <v>0</v>
       </c>
@@ -5145,6 +5169,9 @@
       <c r="DI10">
         <v>0</v>
       </c>
+      <c r="DJ10" t="s">
+        <v>203</v>
+      </c>
       <c r="DK10">
         <v>0</v>
       </c>
@@ -5158,28 +5185,25 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>186</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU10">
         <v>0</v>
       </c>
-      <c r="DV10" t="s">
-        <v>238</v>
-      </c>
       <c r="DW10" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="DX10">
         <v>0</v>
       </c>
+      <c r="DY10" t="s">
+        <v>160</v>
+      </c>
       <c r="DZ10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA10" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="EB10">
         <v>0</v>
@@ -5203,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5227,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>240</v>
-      </c>
-      <c r="ER10" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="ER10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:148">
@@ -5247,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5261,9 +5285,6 @@
       <c r="J11" t="s">
         <v>156</v>
       </c>
-      <c r="K11" t="s">
-        <v>160</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
@@ -5273,9 +5294,6 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
-        <v>165</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -5283,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5295,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="X11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -5330,8 +5348,8 @@
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
+      <c r="AJ11" t="s">
+        <v>189</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -5378,8 +5396,8 @@
       <c r="AY11">
         <v>0</v>
       </c>
-      <c r="AZ11">
-        <v>0</v>
+      <c r="AZ11" t="s">
+        <v>189</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -5423,14 +5441,14 @@
       <c r="BN11">
         <v>0</v>
       </c>
-      <c r="BO11" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>198</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>202</v>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
       </c>
       <c r="BR11">
         <v>0</v>
@@ -5438,8 +5456,8 @@
       <c r="BS11">
         <v>0</v>
       </c>
-      <c r="BT11" t="s">
-        <v>201</v>
+      <c r="BT11">
+        <v>0</v>
       </c>
       <c r="BU11">
         <v>0</v>
@@ -5454,25 +5472,28 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BZ11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CA11" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>241</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
-      <c r="CD11" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>186</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>186</v>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5480,8 +5501,8 @@
       <c r="CH11">
         <v>0</v>
       </c>
-      <c r="CI11" t="s">
-        <v>186</v>
+      <c r="CI11">
+        <v>0</v>
       </c>
       <c r="CJ11">
         <v>0</v>
@@ -5489,14 +5510,14 @@
       <c r="CK11">
         <v>0</v>
       </c>
-      <c r="CL11" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>186</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>186</v>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -5504,8 +5525,8 @@
       <c r="CP11">
         <v>0</v>
       </c>
-      <c r="CQ11" t="s">
-        <v>186</v>
+      <c r="CQ11">
+        <v>0</v>
       </c>
       <c r="CR11">
         <v>0</v>
@@ -5513,14 +5534,14 @@
       <c r="CS11">
         <v>0</v>
       </c>
-      <c r="CT11" t="s">
-        <v>196</v>
-      </c>
-      <c r="CU11" t="s">
-        <v>198</v>
-      </c>
-      <c r="CV11" t="s">
-        <v>202</v>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
       </c>
       <c r="CW11">
         <v>0</v>
@@ -5528,8 +5549,8 @@
       <c r="CX11">
         <v>0</v>
       </c>
-      <c r="CY11" t="s">
-        <v>201</v>
+      <c r="CY11">
+        <v>0</v>
       </c>
       <c r="CZ11">
         <v>0</v>
@@ -5537,6 +5558,9 @@
       <c r="DA11">
         <v>0</v>
       </c>
+      <c r="DB11" t="s">
+        <v>189</v>
+      </c>
       <c r="DC11">
         <v>0</v>
       </c>
@@ -5562,13 +5586,13 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DT11" t="s">
-        <v>186</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="DU11">
+        <v>0</v>
       </c>
       <c r="DV11" t="s">
         <v>160</v>
@@ -5579,15 +5603,12 @@
       <c r="DX11">
         <v>0</v>
       </c>
-      <c r="DY11" t="s">
+      <c r="DZ11" t="s">
+        <v>189</v>
+      </c>
+      <c r="EA11" t="s">
         <v>160</v>
       </c>
-      <c r="DZ11" t="s">
-        <v>186</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>186</v>
-      </c>
       <c r="EB11">
         <v>0</v>
       </c>
@@ -5610,10 +5631,13 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>186</v>
-      </c>
-      <c r="EJ11" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="EJ11">
+        <v>0</v>
+      </c>
+      <c r="EK11">
+        <v>0</v>
       </c>
       <c r="EL11">
         <v>0</v>
@@ -5631,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>240</v>
-      </c>
-      <c r="ER11">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:148">
@@ -5663,7 +5687,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="K12" t="s">
+        <v>161</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5675,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -5684,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5696,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="X12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -5731,14 +5758,14 @@
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>196</v>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5824,14 +5851,14 @@
       <c r="BN12">
         <v>0</v>
       </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
+      <c r="BO12" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>204</v>
       </c>
       <c r="BR12">
         <v>0</v>
@@ -5839,12 +5866,15 @@
       <c r="BS12">
         <v>0</v>
       </c>
-      <c r="BT12">
-        <v>0</v>
+      <c r="BT12" t="s">
+        <v>203</v>
       </c>
       <c r="BU12">
         <v>0</v>
       </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
       <c r="BW12">
         <v>0</v>
       </c>
@@ -5852,28 +5882,25 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="BZ12" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CA12" t="s">
-        <v>186</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
-      <c r="CD12">
-        <v>0</v>
-      </c>
-      <c r="CE12">
-        <v>0</v>
-      </c>
-      <c r="CF12">
-        <v>0</v>
+      <c r="CD12" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>189</v>
       </c>
       <c r="CG12">
         <v>0</v>
@@ -5881,8 +5908,8 @@
       <c r="CH12">
         <v>0</v>
       </c>
-      <c r="CI12">
-        <v>0</v>
+      <c r="CI12" t="s">
+        <v>189</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -5890,14 +5917,14 @@
       <c r="CK12">
         <v>0</v>
       </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
+      <c r="CL12" t="s">
+        <v>189</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>189</v>
       </c>
       <c r="CO12">
         <v>0</v>
@@ -5905,8 +5932,8 @@
       <c r="CP12">
         <v>0</v>
       </c>
-      <c r="CQ12">
-        <v>0</v>
+      <c r="CQ12" t="s">
+        <v>189</v>
       </c>
       <c r="CR12">
         <v>0</v>
@@ -5914,14 +5941,14 @@
       <c r="CS12">
         <v>0</v>
       </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
+      <c r="CT12" t="s">
+        <v>198</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>199</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>204</v>
       </c>
       <c r="CW12">
         <v>0</v>
@@ -5929,8 +5956,8 @@
       <c r="CX12">
         <v>0</v>
       </c>
-      <c r="CY12">
-        <v>0</v>
+      <c r="CY12" t="s">
+        <v>203</v>
       </c>
       <c r="CZ12">
         <v>0</v>
@@ -5963,22 +5990,31 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>189</v>
       </c>
       <c r="DU12" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>161</v>
       </c>
       <c r="DW12" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
+      <c r="DY12" t="s">
+        <v>161</v>
+      </c>
       <c r="DZ12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA12" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="EB12">
         <v>0</v>
@@ -6002,13 +6038,10 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="EJ12" t="s">
-        <v>186</v>
-      </c>
-      <c r="EK12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6026,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6058,10 +6091,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6073,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6082,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6094,52 +6124,49 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X13" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="Y13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA13" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK13" t="s">
         <v>198</v>
       </c>
-      <c r="AB13" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
+      <c r="AL13" t="s">
+        <v>198</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -6225,20 +6252,20 @@
       <c r="BN13">
         <v>0</v>
       </c>
-      <c r="BO13" t="s">
-        <v>189</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>198</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>197</v>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
       </c>
       <c r="BT13">
         <v>0</v>
@@ -6246,9 +6273,6 @@
       <c r="BU13">
         <v>0</v>
       </c>
-      <c r="BV13">
-        <v>0</v>
-      </c>
       <c r="BW13">
         <v>0</v>
       </c>
@@ -6256,31 +6280,34 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BZ13" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="CA13" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>242</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
-      <c r="CD13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>186</v>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
       </c>
       <c r="CI13">
         <v>0</v>
@@ -6291,20 +6318,20 @@
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>186</v>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
       </c>
       <c r="CQ13">
         <v>0</v>
@@ -6315,20 +6342,20 @@
       <c r="CS13">
         <v>0</v>
       </c>
-      <c r="CT13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CU13" t="s">
-        <v>198</v>
-      </c>
-      <c r="CV13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CW13" t="s">
-        <v>197</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>197</v>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
       </c>
       <c r="CY13">
         <v>0</v>
@@ -6364,31 +6391,22 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>186</v>
-      </c>
-      <c r="DT13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU13" t="s">
-        <v>186</v>
-      </c>
-      <c r="DV13" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="DW13" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
-      <c r="DY13" t="s">
-        <v>161</v>
-      </c>
       <c r="DZ13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA13" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6412,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="EJ13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EK13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6436,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6458,6 +6476,9 @@
       <c r="E14" t="s">
         <v>148</v>
       </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -6468,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
         <v>162</v>
@@ -6483,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6492,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6500,32 +6521,35 @@
       <c r="T14">
         <v>0</v>
       </c>
+      <c r="U14" t="s">
+        <v>173</v>
+      </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="X14" t="s">
         <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AB14" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AC14" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>199</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -6533,20 +6557,20 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
+      <c r="AG14" t="s">
+        <v>198</v>
       </c>
       <c r="AH14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>198</v>
       </c>
       <c r="AK14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -6554,8 +6578,8 @@
       <c r="AM14">
         <v>0</v>
       </c>
-      <c r="AN14">
-        <v>0</v>
+      <c r="AN14" t="s">
+        <v>203</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -6563,8 +6587,8 @@
       <c r="AP14">
         <v>0</v>
       </c>
-      <c r="AQ14">
-        <v>0</v>
+      <c r="AQ14" t="s">
+        <v>198</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -6590,11 +6614,11 @@
       <c r="AY14">
         <v>0</v>
       </c>
-      <c r="AZ14">
-        <v>0</v>
+      <c r="AZ14" t="s">
+        <v>189</v>
       </c>
       <c r="BA14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BB14">
         <v>0</v>
@@ -6602,8 +6626,8 @@
       <c r="BC14">
         <v>0</v>
       </c>
-      <c r="BD14">
-        <v>0</v>
+      <c r="BD14" t="s">
+        <v>189</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -6636,28 +6660,28 @@
         <v>0</v>
       </c>
       <c r="BO14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BP14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BQ14" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="BR14" t="s">
-        <v>201</v>
-      </c>
-      <c r="BS14">
-        <v>0</v>
-      </c>
-      <c r="BT14">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>189</v>
       </c>
       <c r="BU14">
         <v>0</v>
       </c>
-      <c r="BV14">
-        <v>0</v>
+      <c r="BV14" t="s">
+        <v>198</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -6666,34 +6690,34 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BZ14" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="CA14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CB14" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CE14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CF14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CG14" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH14">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>189</v>
       </c>
       <c r="CI14">
         <v>0</v>
@@ -6701,23 +6725,23 @@
       <c r="CJ14">
         <v>0</v>
       </c>
-      <c r="CK14">
-        <v>0</v>
+      <c r="CK14" t="s">
+        <v>189</v>
       </c>
       <c r="CL14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CM14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CN14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CO14" t="s">
-        <v>186</v>
-      </c>
-      <c r="CP14">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>189</v>
       </c>
       <c r="CQ14">
         <v>0</v>
@@ -6725,23 +6749,23 @@
       <c r="CR14">
         <v>0</v>
       </c>
-      <c r="CS14">
-        <v>0</v>
+      <c r="CS14" t="s">
+        <v>189</v>
       </c>
       <c r="CT14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="CU14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="CV14" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="CW14" t="s">
-        <v>201</v>
-      </c>
-      <c r="CX14">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>199</v>
       </c>
       <c r="CY14">
         <v>0</v>
@@ -6749,14 +6773,17 @@
       <c r="CZ14">
         <v>0</v>
       </c>
-      <c r="DA14">
-        <v>0</v>
+      <c r="DA14" t="s">
+        <v>198</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>198</v>
       </c>
       <c r="DC14">
         <v>0</v>
       </c>
       <c r="DD14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="DE14">
         <v>0</v>
@@ -6767,6 +6794,9 @@
       <c r="DI14">
         <v>0</v>
       </c>
+      <c r="DJ14" t="s">
+        <v>203</v>
+      </c>
       <c r="DK14">
         <v>0</v>
       </c>
@@ -6776,20 +6806,17 @@
       <c r="DO14">
         <v>0</v>
       </c>
+      <c r="DP14" t="s">
+        <v>198</v>
+      </c>
       <c r="DR14">
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>186</v>
-      </c>
-      <c r="DT14" t="s">
-        <v>186</v>
-      </c>
-      <c r="DU14" t="s">
-        <v>186</v>
-      </c>
-      <c r="DV14" t="s">
-        <v>199</v>
+        <v>189</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
       </c>
       <c r="DW14" t="s">
         <v>162</v>
@@ -6801,10 +6828,10 @@
         <v>162</v>
       </c>
       <c r="DZ14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -6812,11 +6839,11 @@
       <c r="EC14">
         <v>0</v>
       </c>
-      <c r="ED14">
-        <v>0</v>
-      </c>
-      <c r="EE14">
-        <v>0</v>
+      <c r="ED14" t="s">
+        <v>189</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>189</v>
       </c>
       <c r="EF14">
         <v>0</v>
@@ -6828,13 +6855,13 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>196</v>
-      </c>
-      <c r="EJ14" t="s">
-        <v>186</v>
-      </c>
-      <c r="EK14" t="s">
-        <v>186</v>
+        <v>202</v>
+      </c>
+      <c r="EJ14">
+        <v>0</v>
+      </c>
+      <c r="EK14">
+        <v>0</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -6852,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -6872,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6886,6 +6913,9 @@
       <c r="J15" t="s">
         <v>155</v>
       </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
       <c r="L15">
         <v>0</v>
       </c>
@@ -6895,6 +6925,9 @@
       <c r="N15">
         <v>0</v>
       </c>
+      <c r="O15" t="s">
+        <v>170</v>
+      </c>
       <c r="P15">
         <v>0</v>
       </c>
@@ -6902,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6914,28 +6947,28 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X15" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AA15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AB15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>200</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -6947,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="AH15" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -7045,20 +7078,20 @@
       <c r="BN15">
         <v>0</v>
       </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15">
-        <v>0</v>
-      </c>
-      <c r="BS15">
-        <v>0</v>
+      <c r="BO15" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>200</v>
       </c>
       <c r="BT15">
         <v>0</v>
@@ -7076,31 +7109,31 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BZ15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CA15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
-      <c r="CD15">
-        <v>0</v>
-      </c>
-      <c r="CE15">
-        <v>0</v>
-      </c>
-      <c r="CF15">
-        <v>0</v>
-      </c>
-      <c r="CG15">
-        <v>0</v>
-      </c>
-      <c r="CH15">
-        <v>0</v>
+      <c r="CD15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>189</v>
       </c>
       <c r="CI15">
         <v>0</v>
@@ -7111,20 +7144,20 @@
       <c r="CK15">
         <v>0</v>
       </c>
-      <c r="CL15">
-        <v>0</v>
-      </c>
-      <c r="CM15">
-        <v>0</v>
-      </c>
-      <c r="CN15">
-        <v>0</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15">
-        <v>0</v>
+      <c r="CL15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>189</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>189</v>
       </c>
       <c r="CQ15">
         <v>0</v>
@@ -7135,20 +7168,20 @@
       <c r="CS15">
         <v>0</v>
       </c>
-      <c r="CT15">
-        <v>0</v>
-      </c>
-      <c r="CU15">
-        <v>0</v>
-      </c>
-      <c r="CV15">
-        <v>0</v>
-      </c>
-      <c r="CW15">
-        <v>0</v>
-      </c>
-      <c r="CX15">
-        <v>0</v>
+      <c r="CT15" t="s">
+        <v>191</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>200</v>
       </c>
       <c r="CY15">
         <v>0</v>
@@ -7184,25 +7217,31 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DT15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DU15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DV15" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="DW15" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="DX15">
         <v>0</v>
       </c>
+      <c r="DY15" t="s">
+        <v>163</v>
+      </c>
       <c r="DZ15" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>189</v>
       </c>
       <c r="EB15">
         <v>0</v>
@@ -7226,10 +7265,13 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EJ15" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>189</v>
       </c>
       <c r="EL15">
         <v>0</v>
@@ -7247,10 +7289,10 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>240</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="ER15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:148">
@@ -7267,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -7281,6 +7323,9 @@
       <c r="J16" t="s">
         <v>155</v>
       </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
       <c r="L16">
         <v>0</v>
       </c>
@@ -7290,6 +7335,9 @@
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="O16" t="s">
+        <v>166</v>
+      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -7297,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7309,25 +7357,25 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>203</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -7341,14 +7389,17 @@
       <c r="AG16">
         <v>0</v>
       </c>
+      <c r="AH16" t="s">
+        <v>206</v>
+      </c>
       <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>198</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -7392,11 +7443,11 @@
       <c r="AY16">
         <v>0</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>189</v>
       </c>
       <c r="BB16">
         <v>0</v>
@@ -7437,17 +7488,17 @@
       <c r="BN16">
         <v>0</v>
       </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16">
-        <v>0</v>
+      <c r="BO16" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>203</v>
       </c>
       <c r="BS16">
         <v>0</v>
@@ -7468,31 +7519,31 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="BZ16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CA16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CB16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
-      <c r="CD16">
-        <v>0</v>
-      </c>
-      <c r="CE16">
-        <v>0</v>
-      </c>
-      <c r="CF16">
-        <v>0</v>
-      </c>
-      <c r="CG16">
-        <v>0</v>
+      <c r="CD16" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>189</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>189</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -7506,17 +7557,17 @@
       <c r="CK16">
         <v>0</v>
       </c>
-      <c r="CL16">
-        <v>0</v>
-      </c>
-      <c r="CM16">
-        <v>0</v>
-      </c>
-      <c r="CN16">
-        <v>0</v>
-      </c>
-      <c r="CO16">
-        <v>0</v>
+      <c r="CL16" t="s">
+        <v>189</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>189</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>189</v>
       </c>
       <c r="CP16">
         <v>0</v>
@@ -7530,17 +7581,17 @@
       <c r="CS16">
         <v>0</v>
       </c>
-      <c r="CT16">
-        <v>0</v>
-      </c>
-      <c r="CU16">
-        <v>0</v>
-      </c>
-      <c r="CV16">
-        <v>0</v>
-      </c>
-      <c r="CW16">
-        <v>0</v>
+      <c r="CT16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>203</v>
       </c>
       <c r="CX16">
         <v>0</v>
@@ -7554,12 +7605,12 @@
       <c r="DA16">
         <v>0</v>
       </c>
-      <c r="DB16" t="s">
-        <v>186</v>
-      </c>
       <c r="DC16">
         <v>0</v>
       </c>
+      <c r="DD16" t="s">
+        <v>198</v>
+      </c>
       <c r="DE16">
         <v>0</v>
       </c>
@@ -7582,28 +7633,31 @@
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DT16" t="s">
-        <v>186</v>
-      </c>
-      <c r="DU16">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>189</v>
       </c>
       <c r="DV16" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="DW16" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="DX16">
         <v>0</v>
       </c>
+      <c r="DY16" t="s">
+        <v>164</v>
+      </c>
       <c r="DZ16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EA16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="EB16">
         <v>0</v>
@@ -7627,13 +7681,13 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>186</v>
-      </c>
-      <c r="EJ16">
-        <v>0</v>
-      </c>
-      <c r="EK16">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>189</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>189</v>
       </c>
       <c r="EL16">
         <v>0</v>
@@ -7651,10 +7705,10 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>240</v>
-      </c>
-      <c r="ER16" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:148">
@@ -7671,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -7683,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -7694,9 +7748,6 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
-        <v>168</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -7704,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7716,22 +7767,22 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s">
         <v>199</v>
       </c>
       <c r="AA17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AB17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -7749,19 +7800,19 @@
         <v>0</v>
       </c>
       <c r="AH17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AI17">
         <v>0</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>197</v>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -7802,8 +7853,8 @@
       <c r="AY17">
         <v>0</v>
       </c>
-      <c r="AZ17" t="s">
-        <v>186</v>
+      <c r="AZ17">
+        <v>0</v>
       </c>
       <c r="BA17">
         <v>0</v>
@@ -7847,14 +7898,14 @@
       <c r="BN17">
         <v>0</v>
       </c>
-      <c r="BO17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>202</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>197</v>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
       </c>
       <c r="BR17">
         <v>0</v>
@@ -7878,28 +7929,25 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="BZ17" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CA17" t="s">
-        <v>186</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
-      <c r="CD17" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE17" t="s">
-        <v>202</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>197</v>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
       </c>
       <c r="CG17">
         <v>0</v>
@@ -7964,9 +8012,6 @@
       <c r="DA17">
         <v>0</v>
       </c>
-      <c r="DB17" t="s">
-        <v>198</v>
-      </c>
       <c r="DC17">
         <v>0</v>
       </c>
@@ -7992,19 +8037,25 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>189</v>
       </c>
       <c r="DU17" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>191</v>
       </c>
       <c r="DW17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DX17">
         <v>0</v>
       </c>
       <c r="DZ17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="EB17">
         <v>0</v>
@@ -8028,13 +8079,10 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="EJ17" t="s">
-        <v>186</v>
-      </c>
-      <c r="EK17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="EL17">
         <v>0</v>
@@ -8052,10 +8100,10 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>240</v>
-      </c>
-      <c r="ER17">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:148">
@@ -8084,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -8102,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8114,343 +8162,1148 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>233</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>189</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>241</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>0</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>189</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DI18">
+        <v>0</v>
+      </c>
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <v>0</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>189</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>189</v>
+      </c>
+      <c r="DU18">
+        <v>0</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>162</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX18">
+        <v>0</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>189</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB18">
+        <v>0</v>
+      </c>
+      <c r="EC18">
+        <v>0</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
+      </c>
+      <c r="EE18">
+        <v>0</v>
+      </c>
+      <c r="EF18">
+        <v>0</v>
+      </c>
+      <c r="EG18">
+        <v>0</v>
+      </c>
+      <c r="EH18">
+        <v>0</v>
+      </c>
+      <c r="EI18" t="s">
+        <v>189</v>
+      </c>
+      <c r="EJ18">
+        <v>0</v>
+      </c>
+      <c r="EK18">
+        <v>0</v>
+      </c>
+      <c r="EL18">
+        <v>0</v>
+      </c>
+      <c r="EM18">
+        <v>0</v>
+      </c>
+      <c r="EN18">
+        <v>0</v>
+      </c>
+      <c r="EO18">
+        <v>0</v>
+      </c>
+      <c r="EP18">
+        <v>0</v>
+      </c>
+      <c r="EQ18" t="s">
+        <v>246</v>
+      </c>
+      <c r="ER18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:148">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>172</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
         <v>192</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB19" t="s">
         <v>200</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="s">
         <v>201</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>0</v>
-      </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
-      <c r="BU18">
-        <v>0</v>
-      </c>
-      <c r="BV18">
-        <v>0</v>
-      </c>
-      <c r="BW18">
-        <v>0</v>
-      </c>
-      <c r="BX18">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>230</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>232</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>186</v>
-      </c>
-      <c r="CC18">
-        <v>0</v>
-      </c>
-      <c r="CD18">
-        <v>0</v>
-      </c>
-      <c r="CE18">
-        <v>0</v>
-      </c>
-      <c r="CF18">
-        <v>0</v>
-      </c>
-      <c r="CG18">
-        <v>0</v>
-      </c>
-      <c r="CH18">
-        <v>0</v>
-      </c>
-      <c r="CI18">
-        <v>0</v>
-      </c>
-      <c r="CJ18">
-        <v>0</v>
-      </c>
-      <c r="CK18">
-        <v>0</v>
-      </c>
-      <c r="CL18">
-        <v>0</v>
-      </c>
-      <c r="CM18">
-        <v>0</v>
-      </c>
-      <c r="CN18">
-        <v>0</v>
-      </c>
-      <c r="CO18">
-        <v>0</v>
-      </c>
-      <c r="CP18">
-        <v>0</v>
-      </c>
-      <c r="CQ18">
-        <v>0</v>
-      </c>
-      <c r="CR18">
-        <v>0</v>
-      </c>
-      <c r="CS18">
-        <v>0</v>
-      </c>
-      <c r="CT18">
-        <v>0</v>
-      </c>
-      <c r="CU18">
-        <v>0</v>
-      </c>
-      <c r="CV18">
-        <v>0</v>
-      </c>
-      <c r="CW18">
-        <v>0</v>
-      </c>
-      <c r="CX18">
-        <v>0</v>
-      </c>
-      <c r="CY18">
-        <v>0</v>
-      </c>
-      <c r="CZ18">
-        <v>0</v>
-      </c>
-      <c r="DA18">
-        <v>0</v>
-      </c>
-      <c r="DC18">
-        <v>0</v>
-      </c>
-      <c r="DE18">
-        <v>0</v>
-      </c>
-      <c r="DG18">
-        <v>0</v>
-      </c>
-      <c r="DI18">
-        <v>0</v>
-      </c>
-      <c r="DK18">
-        <v>0</v>
-      </c>
-      <c r="DM18">
-        <v>0</v>
-      </c>
-      <c r="DO18">
-        <v>0</v>
-      </c>
-      <c r="DR18">
-        <v>0</v>
-      </c>
-      <c r="DS18" t="s">
-        <v>186</v>
-      </c>
-      <c r="DT18" t="s">
-        <v>186</v>
-      </c>
-      <c r="DU18" t="s">
-        <v>186</v>
-      </c>
-      <c r="DV18" t="s">
-        <v>191</v>
-      </c>
-      <c r="DW18" t="s">
-        <v>191</v>
-      </c>
-      <c r="DX18">
-        <v>0</v>
-      </c>
-      <c r="DZ18" t="s">
-        <v>191</v>
-      </c>
-      <c r="EB18">
-        <v>0</v>
-      </c>
-      <c r="EC18">
-        <v>0</v>
-      </c>
-      <c r="ED18">
-        <v>0</v>
-      </c>
-      <c r="EE18">
-        <v>0</v>
-      </c>
-      <c r="EF18">
-        <v>0</v>
-      </c>
-      <c r="EG18">
-        <v>0</v>
-      </c>
-      <c r="EH18">
-        <v>0</v>
-      </c>
-      <c r="EI18" t="s">
-        <v>186</v>
-      </c>
-      <c r="EJ18" t="s">
-        <v>186</v>
-      </c>
-      <c r="EL18">
-        <v>0</v>
-      </c>
-      <c r="EM18">
-        <v>0</v>
-      </c>
-      <c r="EN18">
-        <v>0</v>
-      </c>
-      <c r="EO18">
-        <v>0</v>
-      </c>
-      <c r="EP18">
-        <v>0</v>
-      </c>
-      <c r="EQ18" t="s">
-        <v>240</v>
-      </c>
-      <c r="ER18" t="s">
-        <v>241</v>
+      <c r="BP19" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>189</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>201</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>0</v>
+      </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>199</v>
+      </c>
+      <c r="DC19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DK19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <v>0</v>
+      </c>
+      <c r="DR19">
+        <v>0</v>
+      </c>
+      <c r="DS19" t="s">
+        <v>189</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>189</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>192</v>
+      </c>
+      <c r="DX19">
+        <v>0</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>192</v>
+      </c>
+      <c r="EB19">
+        <v>0</v>
+      </c>
+      <c r="EC19">
+        <v>0</v>
+      </c>
+      <c r="ED19">
+        <v>0</v>
+      </c>
+      <c r="EE19">
+        <v>0</v>
+      </c>
+      <c r="EF19">
+        <v>0</v>
+      </c>
+      <c r="EG19">
+        <v>0</v>
+      </c>
+      <c r="EH19">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="s">
+        <v>161</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>189</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>189</v>
+      </c>
+      <c r="EL19">
+        <v>0</v>
+      </c>
+      <c r="EM19">
+        <v>0</v>
+      </c>
+      <c r="EN19">
+        <v>0</v>
+      </c>
+      <c r="EO19">
+        <v>0</v>
+      </c>
+      <c r="EP19">
+        <v>0</v>
+      </c>
+      <c r="EQ19" t="s">
+        <v>246</v>
+      </c>
+      <c r="ER19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:148">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>172</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>235</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>237</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>189</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20">
+        <v>0</v>
+      </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>0</v>
+      </c>
+      <c r="CO20">
+        <v>0</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DO20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>189</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>189</v>
+      </c>
+      <c r="DU20" t="s">
+        <v>189</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>193</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>193</v>
+      </c>
+      <c r="DX20">
+        <v>0</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>193</v>
+      </c>
+      <c r="EB20">
+        <v>0</v>
+      </c>
+      <c r="EC20">
+        <v>0</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
+      <c r="EE20">
+        <v>0</v>
+      </c>
+      <c r="EF20">
+        <v>0</v>
+      </c>
+      <c r="EG20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>0</v>
+      </c>
+      <c r="EI20" t="s">
+        <v>189</v>
+      </c>
+      <c r="EJ20" t="s">
+        <v>189</v>
+      </c>
+      <c r="EL20">
+        <v>0</v>
+      </c>
+      <c r="EM20">
+        <v>0</v>
+      </c>
+      <c r="EN20">
+        <v>0</v>
+      </c>
+      <c r="EO20">
+        <v>0</v>
+      </c>
+      <c r="EP20">
+        <v>0</v>
+      </c>
+      <c r="EQ20" t="s">
+        <v>246</v>
+      </c>
+      <c r="ER20" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="252">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -517,6 +517,9 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 40-44_yrs</t>
   </si>
   <si>
@@ -526,9 +529,6 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 50+_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
   </si>
   <si>
@@ -559,6 +559,9 @@
     <t>Chiparawe Clinic</t>
   </si>
   <si>
+    <t>Dombotombo Clinic</t>
+  </si>
+  <si>
     <t>Helywin Clinic</t>
   </si>
   <si>
@@ -613,6 +616,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -625,9 +631,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -691,7 +694,10 @@
     <t>2025-05-23T12:16:46.389505Z</t>
   </si>
   <si>
-    <t>2025-08-05T09:26:49.758411Z</t>
+    <t>2025-08-05T10:22:46.449299Z</t>
+  </si>
+  <si>
+    <t>2025-08-05T10:32:59.387756Z</t>
   </si>
   <si>
     <t>2025-08-04T12:32:14.254797Z</t>
@@ -739,6 +745,9 @@
     <t>20-24_yrs 35-39_yrs 50_yrs</t>
   </si>
   <si>
+    <t>20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs</t>
   </si>
   <si>
@@ -749,6 +758,9 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>24</t>
@@ -1115,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER20"/>
+  <dimension ref="A1:ER21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1632,34 +1644,34 @@
         <v>164</v>
       </c>
       <c r="Y2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AB2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF2" t="s">
         <v>199</v>
       </c>
-      <c r="AC2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>198</v>
-      </c>
       <c r="AG2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1758,28 +1770,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BP2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BQ2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BU2" t="s">
         <v>199</v>
       </c>
-      <c r="BR2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>198</v>
-      </c>
       <c r="BV2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1788,40 +1800,40 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BZ2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="CA2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CE2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CF2" t="s">
+        <v>201</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>199</v>
       </c>
-      <c r="CG2" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>198</v>
-      </c>
       <c r="CK2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -1896,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DT2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV2" t="s">
         <v>157</v>
@@ -1914,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DZ2" t="s">
         <v>157</v>
       </c>
       <c r="EA2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1944,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EJ2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1965,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -2033,10 +2045,10 @@
         <v>175</v>
       </c>
       <c r="X3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2159,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>212</v>
       </c>
-      <c r="BP3" t="s">
-        <v>196</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>211</v>
-      </c>
       <c r="BR3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2189,28 +2201,28 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BZ3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CA3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CE3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CF3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CG3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2225,16 +2237,16 @@
         <v>0</v>
       </c>
       <c r="CL3" t="s">
+        <v>213</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN3" t="s">
         <v>212</v>
       </c>
-      <c r="CM3" t="s">
-        <v>196</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>211</v>
-      </c>
       <c r="CO3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -2297,28 +2309,28 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DT3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="DW3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -2342,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EJ3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EK3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2366,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2434,16 +2446,16 @@
         <v>162</v>
       </c>
       <c r="Y4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA4" t="s">
         <v>194</v>
       </c>
-      <c r="Z4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>193</v>
-      </c>
       <c r="AB4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2467,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -2515,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2590,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BZ4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CA4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB4" t="s">
         <v>171</v>
@@ -2677,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DC4">
         <v>0</v>
@@ -2704,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DW4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2743,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="EJ4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EK4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2767,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2841,22 +2853,22 @@
         <v>176</v>
       </c>
       <c r="X5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA5" t="s">
         <v>159</v>
       </c>
       <c r="AB5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AC5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -2871,22 +2883,22 @@
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -2925,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BA5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -2970,16 +2982,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BP5" t="s">
         <v>159</v>
       </c>
       <c r="BQ5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BR5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -3000,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BZ5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CA5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB5" t="s">
         <v>166</v>
@@ -3015,16 +3027,16 @@
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CE5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CF5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CG5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -3039,112 +3051,112 @@
         <v>0</v>
       </c>
       <c r="CL5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CM5" t="s">
         <v>159</v>
       </c>
       <c r="CN5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>197</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>205</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>190</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="s">
         <v>199</v>
       </c>
-      <c r="CO5" t="s">
-        <v>203</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>196</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>204</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
-      <c r="DK5">
-        <v>0</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
-      <c r="DR5">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DU5">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>190</v>
-      </c>
-      <c r="DX5">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>190</v>
-      </c>
-      <c r="EB5">
-        <v>0</v>
-      </c>
-      <c r="EC5">
-        <v>0</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>198</v>
-      </c>
       <c r="EE5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EF5">
         <v>0</v>
@@ -3156,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3180,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3245,298 +3257,298 @@
         <v>177</v>
       </c>
       <c r="X6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>241</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>201</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DV6" t="s">
         <v>194</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>221</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>237</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>239</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>199</v>
-      </c>
-      <c r="DE6">
-        <v>0</v>
-      </c>
-      <c r="DG6">
-        <v>0</v>
-      </c>
-      <c r="DI6">
-        <v>0</v>
-      </c>
-      <c r="DK6">
-        <v>0</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DO6">
-        <v>0</v>
-      </c>
-      <c r="DR6">
-        <v>0</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>189</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>189</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>189</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>193</v>
-      </c>
       <c r="DW6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="EB6">
         <v>0</v>
@@ -3560,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EJ6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EK6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3584,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3655,10 +3667,10 @@
         <v>178</v>
       </c>
       <c r="X7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -3781,91 +3793,91 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>214</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>215</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BT7" t="s">
         <v>212</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BU7" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>190</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>240</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="s">
         <v>213</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="CM7" t="s">
         <v>214</v>
       </c>
-      <c r="BR7" t="s">
+      <c r="CN7" t="s">
         <v>215</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="CO7" t="s">
         <v>216</v>
       </c>
-      <c r="BT7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>202</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>222</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>238</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="s">
+      <c r="CP7" t="s">
+        <v>217</v>
+      </c>
+      <c r="CQ7" t="s">
         <v>212</v>
       </c>
-      <c r="CM7" t="s">
-        <v>213</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>214</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>215</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>216</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>211</v>
-      </c>
       <c r="CR7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3919,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DT7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU7">
         <v>0</v>
@@ -3937,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DZ7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA7" t="s">
         <v>158</v>
@@ -3967,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -3991,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4071,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -4197,25 +4209,25 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BQ8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BR8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BS8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BT8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BU8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4224,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BZ8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -4374,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -4434,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4505,25 +4517,25 @@
         <v>159</v>
       </c>
       <c r="Y9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AB9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AC9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AD9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AE9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4532,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -4661,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BZ9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CA9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CC9">
         <v>0</v>
@@ -4769,13 +4781,13 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DT9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV9" t="s">
         <v>159</v>
@@ -4790,10 +4802,10 @@
         <v>159</v>
       </c>
       <c r="DZ9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4817,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EJ9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EK9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4841,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4912,44 +4924,44 @@
         <v>160</v>
       </c>
       <c r="Y10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB10" t="s">
         <v>194</v>
       </c>
-      <c r="Z10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="s">
         <v>199</v>
       </c>
-      <c r="AB10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AH10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
         <v>200</v>
       </c>
-      <c r="AD10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>203</v>
-      </c>
       <c r="AL10">
         <v>0</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="AN10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -4966,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4996,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="BA10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -5005,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="BD10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BE10">
         <v>0</v>
@@ -5068,16 +5080,16 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BZ10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CA10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="CC10">
         <v>0</v>
@@ -5158,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="DD10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DE10">
         <v>0</v>
@@ -5170,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="DJ10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DK10">
         <v>0</v>
@@ -5185,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -5200,10 +5212,10 @@
         <v>160</v>
       </c>
       <c r="DZ10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EB10">
         <v>0</v>
@@ -5227,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5251,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5271,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5283,7 +5295,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="K11" t="s">
+        <v>157</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5293,6 +5308,9 @@
       </c>
       <c r="N11">
         <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>167</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5309,6 +5327,9 @@
       <c r="T11">
         <v>0</v>
       </c>
+      <c r="U11" t="s">
+        <v>173</v>
+      </c>
       <c r="V11">
         <v>0</v>
       </c>
@@ -5316,25 +5337,25 @@
         <v>181</v>
       </c>
       <c r="X11" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="Y11" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>201</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -5345,23 +5366,26 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
+      <c r="AH11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>202</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -5396,20 +5420,20 @@
       <c r="AY11">
         <v>0</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>190</v>
       </c>
       <c r="BE11">
         <v>0</v>
@@ -5441,20 +5465,20 @@
       <c r="BN11">
         <v>0</v>
       </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>0</v>
+      <c r="BO11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>201</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -5472,34 +5496,34 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BZ11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CA11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
-      <c r="CD11">
-        <v>0</v>
-      </c>
-      <c r="CE11">
-        <v>0</v>
-      </c>
-      <c r="CF11">
-        <v>0</v>
-      </c>
-      <c r="CG11">
-        <v>0</v>
-      </c>
-      <c r="CH11">
-        <v>0</v>
+      <c r="CD11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>190</v>
       </c>
       <c r="CI11">
         <v>0</v>
@@ -5510,20 +5534,20 @@
       <c r="CK11">
         <v>0</v>
       </c>
-      <c r="CL11">
-        <v>0</v>
-      </c>
-      <c r="CM11">
-        <v>0</v>
-      </c>
-      <c r="CN11">
-        <v>0</v>
-      </c>
-      <c r="CO11">
-        <v>0</v>
-      </c>
-      <c r="CP11">
-        <v>0</v>
+      <c r="CL11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>190</v>
       </c>
       <c r="CQ11">
         <v>0</v>
@@ -5534,20 +5558,20 @@
       <c r="CS11">
         <v>0</v>
       </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CW11">
-        <v>0</v>
-      </c>
-      <c r="CX11">
-        <v>0</v>
+      <c r="CT11" t="s">
+        <v>200</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>192</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>204</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>192</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>201</v>
       </c>
       <c r="CY11">
         <v>0</v>
@@ -5558,21 +5582,30 @@
       <c r="DA11">
         <v>0</v>
       </c>
-      <c r="DB11" t="s">
-        <v>189</v>
-      </c>
       <c r="DC11">
         <v>0</v>
       </c>
+      <c r="DD11" t="s">
+        <v>200</v>
+      </c>
       <c r="DE11">
         <v>0</v>
       </c>
+      <c r="DF11" t="s">
+        <v>199</v>
+      </c>
       <c r="DG11">
         <v>0</v>
       </c>
+      <c r="DH11" t="s">
+        <v>190</v>
+      </c>
       <c r="DI11">
         <v>0</v>
       </c>
+      <c r="DJ11" t="s">
+        <v>202</v>
+      </c>
       <c r="DK11">
         <v>0</v>
       </c>
@@ -5586,28 +5619,31 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DT11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DV11" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="DW11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
+      <c r="DY11" t="s">
+        <v>157</v>
+      </c>
       <c r="DZ11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA11" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="EB11">
         <v>0</v>
@@ -5615,11 +5651,11 @@
       <c r="EC11">
         <v>0</v>
       </c>
-      <c r="ED11">
-        <v>0</v>
-      </c>
-      <c r="EE11">
-        <v>0</v>
+      <c r="ED11" t="s">
+        <v>190</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>190</v>
       </c>
       <c r="EF11">
         <v>0</v>
@@ -5631,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5655,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>246</v>
-      </c>
-      <c r="ER11" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="ER11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:148">
@@ -5675,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5687,10 +5723,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5700,9 +5733,6 @@
       </c>
       <c r="N12">
         <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>167</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -5726,10 +5756,10 @@
         <v>182</v>
       </c>
       <c r="X12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -5758,8 +5788,8 @@
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
+      <c r="AJ12" t="s">
+        <v>190</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -5806,8 +5836,8 @@
       <c r="AY12">
         <v>0</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
+      <c r="AZ12" t="s">
+        <v>190</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -5851,14 +5881,14 @@
       <c r="BN12">
         <v>0</v>
       </c>
-      <c r="BO12" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>199</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>204</v>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
       </c>
       <c r="BR12">
         <v>0</v>
@@ -5866,8 +5896,8 @@
       <c r="BS12">
         <v>0</v>
       </c>
-      <c r="BT12" t="s">
-        <v>203</v>
+      <c r="BT12">
+        <v>0</v>
       </c>
       <c r="BU12">
         <v>0</v>
@@ -5882,25 +5912,28 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="CA12" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>244</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
-      <c r="CD12" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>189</v>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
       </c>
       <c r="CG12">
         <v>0</v>
@@ -5908,8 +5941,8 @@
       <c r="CH12">
         <v>0</v>
       </c>
-      <c r="CI12" t="s">
-        <v>189</v>
+      <c r="CI12">
+        <v>0</v>
       </c>
       <c r="CJ12">
         <v>0</v>
@@ -5917,14 +5950,14 @@
       <c r="CK12">
         <v>0</v>
       </c>
-      <c r="CL12" t="s">
-        <v>189</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>189</v>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
       </c>
       <c r="CO12">
         <v>0</v>
@@ -5932,8 +5965,8 @@
       <c r="CP12">
         <v>0</v>
       </c>
-      <c r="CQ12" t="s">
-        <v>189</v>
+      <c r="CQ12">
+        <v>0</v>
       </c>
       <c r="CR12">
         <v>0</v>
@@ -5941,14 +5974,14 @@
       <c r="CS12">
         <v>0</v>
       </c>
-      <c r="CT12" t="s">
-        <v>198</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>204</v>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
       </c>
       <c r="CW12">
         <v>0</v>
@@ -5956,8 +5989,8 @@
       <c r="CX12">
         <v>0</v>
       </c>
-      <c r="CY12" t="s">
-        <v>203</v>
+      <c r="CY12">
+        <v>0</v>
       </c>
       <c r="CZ12">
         <v>0</v>
@@ -5965,6 +5998,9 @@
       <c r="DA12">
         <v>0</v>
       </c>
+      <c r="DB12" t="s">
+        <v>190</v>
+      </c>
       <c r="DC12">
         <v>0</v>
       </c>
@@ -5990,31 +6026,28 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DT12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DU12" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
       </c>
       <c r="DV12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DW12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
-      <c r="DY12" t="s">
-        <v>161</v>
-      </c>
       <c r="DZ12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA12" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="EB12">
         <v>0</v>
@@ -6038,10 +6071,13 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>189</v>
-      </c>
-      <c r="EJ12" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="EJ12">
+        <v>0</v>
+      </c>
+      <c r="EK12">
+        <v>0</v>
       </c>
       <c r="EL12">
         <v>0</v>
@@ -6059,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>246</v>
-      </c>
-      <c r="ER12">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:148">
@@ -6091,7 +6127,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="K13" t="s">
+        <v>161</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6127,10 +6166,10 @@
         <v>183</v>
       </c>
       <c r="X13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -6159,120 +6198,123 @@
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="s">
         <v>200</v>
       </c>
-      <c r="AK13" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
       <c r="BU13">
         <v>0</v>
       </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
       <c r="BW13">
         <v>0</v>
       </c>
@@ -6280,28 +6322,25 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BZ13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="CA13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
-      <c r="CD13">
-        <v>0</v>
-      </c>
-      <c r="CE13">
-        <v>0</v>
-      </c>
-      <c r="CF13">
-        <v>0</v>
+      <c r="CD13" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>190</v>
       </c>
       <c r="CG13">
         <v>0</v>
@@ -6309,8 +6348,8 @@
       <c r="CH13">
         <v>0</v>
       </c>
-      <c r="CI13">
-        <v>0</v>
+      <c r="CI13" t="s">
+        <v>190</v>
       </c>
       <c r="CJ13">
         <v>0</v>
@@ -6318,14 +6357,14 @@
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
+      <c r="CL13" t="s">
+        <v>190</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>190</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>190</v>
       </c>
       <c r="CO13">
         <v>0</v>
@@ -6333,8 +6372,8 @@
       <c r="CP13">
         <v>0</v>
       </c>
-      <c r="CQ13">
-        <v>0</v>
+      <c r="CQ13" t="s">
+        <v>190</v>
       </c>
       <c r="CR13">
         <v>0</v>
@@ -6342,14 +6381,14 @@
       <c r="CS13">
         <v>0</v>
       </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
+      <c r="CT13" t="s">
+        <v>199</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>201</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>205</v>
       </c>
       <c r="CW13">
         <v>0</v>
@@ -6357,8 +6396,8 @@
       <c r="CX13">
         <v>0</v>
       </c>
-      <c r="CY13">
-        <v>0</v>
+      <c r="CY13" t="s">
+        <v>200</v>
       </c>
       <c r="CZ13">
         <v>0</v>
@@ -6391,22 +6430,31 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>190</v>
       </c>
       <c r="DU13" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>161</v>
       </c>
       <c r="DW13" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
+      <c r="DY13" t="s">
+        <v>161</v>
+      </c>
       <c r="DZ13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6430,13 +6478,10 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="EJ13" t="s">
-        <v>189</v>
-      </c>
-      <c r="EK13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6454,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6476,9 +6521,6 @@
       <c r="E14" t="s">
         <v>148</v>
       </c>
-      <c r="F14" t="s">
-        <v>150</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -6489,10 +6531,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6521,9 +6560,6 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" t="s">
-        <v>173</v>
-      </c>
       <c r="V14">
         <v>0</v>
       </c>
@@ -6531,55 +6567,52 @@
         <v>184</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="Y14" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK14" t="s">
         <v>199</v>
       </c>
-      <c r="AA14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AL14" t="s">
         <v>199</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
       <c r="AM14">
         <v>0</v>
       </c>
-      <c r="AN14" t="s">
-        <v>203</v>
+      <c r="AN14">
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -6587,8 +6620,8 @@
       <c r="AP14">
         <v>0</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>198</v>
+      <c r="AQ14">
+        <v>0</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -6614,11 +6647,11 @@
       <c r="AY14">
         <v>0</v>
       </c>
-      <c r="AZ14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>189</v>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
       </c>
       <c r="BB14">
         <v>0</v>
@@ -6626,8 +6659,8 @@
       <c r="BC14">
         <v>0</v>
       </c>
-      <c r="BD14" t="s">
-        <v>189</v>
+      <c r="BD14">
+        <v>0</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -6659,30 +6692,27 @@
       <c r="BN14">
         <v>0</v>
       </c>
-      <c r="BO14" t="s">
-        <v>199</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>200</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>199</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>189</v>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
       </c>
       <c r="BU14">
         <v>0</v>
       </c>
-      <c r="BV14" t="s">
-        <v>198</v>
-      </c>
       <c r="BW14">
         <v>0</v>
       </c>
@@ -6690,34 +6720,34 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BZ14" t="s">
         <v>238</v>
       </c>
       <c r="CA14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
-      <c r="CD14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>189</v>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
       </c>
       <c r="CI14">
         <v>0</v>
@@ -6725,23 +6755,23 @@
       <c r="CJ14">
         <v>0</v>
       </c>
-      <c r="CK14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>189</v>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
       </c>
       <c r="CQ14">
         <v>0</v>
@@ -6749,23 +6779,23 @@
       <c r="CR14">
         <v>0</v>
       </c>
-      <c r="CS14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CT14" t="s">
-        <v>199</v>
-      </c>
-      <c r="CU14" t="s">
-        <v>193</v>
-      </c>
-      <c r="CV14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CW14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CX14" t="s">
-        <v>199</v>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
       </c>
       <c r="CY14">
         <v>0</v>
@@ -6773,18 +6803,12 @@
       <c r="CZ14">
         <v>0</v>
       </c>
-      <c r="DA14" t="s">
-        <v>198</v>
-      </c>
-      <c r="DB14" t="s">
-        <v>198</v>
+      <c r="DA14">
+        <v>0</v>
       </c>
       <c r="DC14">
         <v>0</v>
       </c>
-      <c r="DD14" t="s">
-        <v>198</v>
-      </c>
       <c r="DE14">
         <v>0</v>
       </c>
@@ -6794,9 +6818,6 @@
       <c r="DI14">
         <v>0</v>
       </c>
-      <c r="DJ14" t="s">
-        <v>203</v>
-      </c>
       <c r="DK14">
         <v>0</v>
       </c>
@@ -6806,32 +6827,26 @@
       <c r="DO14">
         <v>0</v>
       </c>
-      <c r="DP14" t="s">
-        <v>198</v>
-      </c>
       <c r="DR14">
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>189</v>
-      </c>
-      <c r="DU14">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>190</v>
       </c>
       <c r="DW14" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="DX14">
         <v>0</v>
       </c>
-      <c r="DY14" t="s">
-        <v>162</v>
-      </c>
       <c r="DZ14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA14" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -6839,11 +6854,11 @@
       <c r="EC14">
         <v>0</v>
       </c>
-      <c r="ED14" t="s">
-        <v>189</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>189</v>
+      <c r="ED14">
+        <v>0</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
       </c>
       <c r="EF14">
         <v>0</v>
@@ -6855,13 +6870,13 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>202</v>
-      </c>
-      <c r="EJ14">
-        <v>0</v>
-      </c>
-      <c r="EK14">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>190</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>190</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -6879,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -6901,6 +6916,9 @@
       <c r="E15" t="s">
         <v>148</v>
       </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -6914,7 +6932,7 @@
         <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6943,32 +6961,35 @@
       <c r="T15">
         <v>0</v>
       </c>
+      <c r="U15" t="s">
+        <v>173</v>
+      </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA15" t="s">
         <v>194</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>199</v>
       </c>
       <c r="AB15" t="s">
         <v>202</v>
       </c>
       <c r="AC15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -6976,20 +6997,20 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
+      <c r="AG15" t="s">
+        <v>199</v>
       </c>
       <c r="AH15" t="s">
         <v>209</v>
       </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
+      <c r="AI15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>199</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -6997,8 +7018,8 @@
       <c r="AM15">
         <v>0</v>
       </c>
-      <c r="AN15">
-        <v>0</v>
+      <c r="AN15" t="s">
+        <v>200</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7006,8 +7027,8 @@
       <c r="AP15">
         <v>0</v>
       </c>
-      <c r="AQ15">
-        <v>0</v>
+      <c r="AQ15" t="s">
+        <v>199</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -7033,11 +7054,11 @@
       <c r="AY15">
         <v>0</v>
       </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
+      <c r="AZ15" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>190</v>
       </c>
       <c r="BB15">
         <v>0</v>
@@ -7045,8 +7066,8 @@
       <c r="BC15">
         <v>0</v>
       </c>
-      <c r="BD15">
-        <v>0</v>
+      <c r="BD15" t="s">
+        <v>190</v>
       </c>
       <c r="BE15">
         <v>0</v>
@@ -7079,28 +7100,28 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="BP15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="BQ15" t="s">
         <v>202</v>
       </c>
       <c r="BR15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BS15" t="s">
-        <v>200</v>
-      </c>
-      <c r="BT15">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>190</v>
       </c>
       <c r="BU15">
         <v>0</v>
       </c>
-      <c r="BV15">
-        <v>0</v>
+      <c r="BV15" t="s">
+        <v>199</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -7109,31 +7130,34 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BZ15" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="CA15" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>246</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CE15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CF15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CG15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CH15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CI15">
         <v>0</v>
@@ -7141,23 +7165,23 @@
       <c r="CJ15">
         <v>0</v>
       </c>
-      <c r="CK15">
-        <v>0</v>
+      <c r="CK15" t="s">
+        <v>190</v>
       </c>
       <c r="CL15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CM15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CN15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CO15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CP15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CQ15">
         <v>0</v>
@@ -7165,45 +7189,54 @@
       <c r="CR15">
         <v>0</v>
       </c>
-      <c r="CS15">
-        <v>0</v>
+      <c r="CS15" t="s">
+        <v>190</v>
       </c>
       <c r="CT15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="CU15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="CV15" t="s">
         <v>202</v>
       </c>
       <c r="CW15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>201</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>199</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>199</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>199</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0</v>
+      </c>
+      <c r="DJ15" t="s">
         <v>200</v>
       </c>
-      <c r="CX15" t="s">
-        <v>200</v>
-      </c>
-      <c r="CY15">
-        <v>0</v>
-      </c>
-      <c r="CZ15">
-        <v>0</v>
-      </c>
-      <c r="DA15">
-        <v>0</v>
-      </c>
-      <c r="DC15">
-        <v>0</v>
-      </c>
-      <c r="DE15">
-        <v>0</v>
-      </c>
-      <c r="DG15">
-        <v>0</v>
-      </c>
-      <c r="DI15">
-        <v>0</v>
-      </c>
       <c r="DK15">
         <v>0</v>
       </c>
@@ -7213,35 +7246,32 @@
       <c r="DO15">
         <v>0</v>
       </c>
+      <c r="DP15" t="s">
+        <v>199</v>
+      </c>
       <c r="DR15">
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>189</v>
-      </c>
-      <c r="DT15" t="s">
-        <v>189</v>
-      </c>
-      <c r="DU15" t="s">
-        <v>189</v>
-      </c>
-      <c r="DV15" t="s">
-        <v>163</v>
+        <v>190</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
       </c>
       <c r="DW15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX15">
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DZ15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EB15">
         <v>0</v>
@@ -7249,11 +7279,11 @@
       <c r="EC15">
         <v>0</v>
       </c>
-      <c r="ED15">
-        <v>0</v>
-      </c>
-      <c r="EE15">
-        <v>0</v>
+      <c r="ED15" t="s">
+        <v>190</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>190</v>
       </c>
       <c r="EF15">
         <v>0</v>
@@ -7265,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>189</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>189</v>
-      </c>
-      <c r="EK15" t="s">
-        <v>189</v>
+        <v>204</v>
+      </c>
+      <c r="EJ15">
+        <v>0</v>
+      </c>
+      <c r="EK15">
+        <v>0</v>
       </c>
       <c r="EL15">
         <v>0</v>
@@ -7289,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -7324,7 +7354,7 @@
         <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -7336,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -7360,25 +7390,25 @@
         <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AB16" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AC16" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>202</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -7390,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -7398,8 +7428,8 @@
       <c r="AJ16">
         <v>0</v>
       </c>
-      <c r="AK16" t="s">
-        <v>198</v>
+      <c r="AK16">
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -7446,8 +7476,8 @@
       <c r="AZ16">
         <v>0</v>
       </c>
-      <c r="BA16" t="s">
-        <v>189</v>
+      <c r="BA16">
+        <v>0</v>
       </c>
       <c r="BB16">
         <v>0</v>
@@ -7489,19 +7519,19 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="BP16" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="BQ16" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="BR16" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS16">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>202</v>
       </c>
       <c r="BT16">
         <v>0</v>
@@ -7519,34 +7549,31 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BZ16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="CA16" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
       <c r="CD16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CE16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CF16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CG16" t="s">
-        <v>189</v>
-      </c>
-      <c r="CH16">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>190</v>
       </c>
       <c r="CI16">
         <v>0</v>
@@ -7558,19 +7585,19 @@
         <v>0</v>
       </c>
       <c r="CL16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CM16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CN16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CO16" t="s">
-        <v>189</v>
-      </c>
-      <c r="CP16">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>190</v>
       </c>
       <c r="CQ16">
         <v>0</v>
@@ -7582,19 +7609,19 @@
         <v>0</v>
       </c>
       <c r="CT16" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="CU16" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="CV16" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="CW16" t="s">
-        <v>203</v>
-      </c>
-      <c r="CX16">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>202</v>
       </c>
       <c r="CY16">
         <v>0</v>
@@ -7608,9 +7635,6 @@
       <c r="DC16">
         <v>0</v>
       </c>
-      <c r="DD16" t="s">
-        <v>198</v>
-      </c>
       <c r="DE16">
         <v>0</v>
       </c>
@@ -7633,31 +7657,31 @@
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DT16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV16" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="DW16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DX16">
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DZ16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EA16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EB16">
         <v>0</v>
@@ -7681,13 +7705,13 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="EJ16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EK16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EL16">
         <v>0</v>
@@ -7705,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -7725,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -7737,7 +7761,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -7747,6 +7774,9 @@
       </c>
       <c r="N17">
         <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>166</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -7770,47 +7800,47 @@
         <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA17" t="s">
         <v>194</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="s">
         <v>199</v>
       </c>
-      <c r="AA17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
       <c r="AL17">
         <v>0</v>
       </c>
@@ -7856,8 +7886,8 @@
       <c r="AZ17">
         <v>0</v>
       </c>
-      <c r="BA17">
-        <v>0</v>
+      <c r="BA17" t="s">
+        <v>190</v>
       </c>
       <c r="BB17">
         <v>0</v>
@@ -7898,17 +7928,17 @@
       <c r="BN17">
         <v>0</v>
       </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>0</v>
+      <c r="BO17" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>200</v>
       </c>
       <c r="BS17">
         <v>0</v>
@@ -7929,28 +7959,31 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BZ17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CA17" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>241</v>
       </c>
       <c r="CC17">
         <v>0</v>
       </c>
-      <c r="CD17">
-        <v>0</v>
-      </c>
-      <c r="CE17">
-        <v>0</v>
-      </c>
-      <c r="CF17">
-        <v>0</v>
-      </c>
-      <c r="CG17">
-        <v>0</v>
+      <c r="CD17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>190</v>
       </c>
       <c r="CH17">
         <v>0</v>
@@ -7964,17 +7997,17 @@
       <c r="CK17">
         <v>0</v>
       </c>
-      <c r="CL17">
-        <v>0</v>
-      </c>
-      <c r="CM17">
-        <v>0</v>
-      </c>
-      <c r="CN17">
-        <v>0</v>
-      </c>
-      <c r="CO17">
-        <v>0</v>
+      <c r="CL17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>190</v>
       </c>
       <c r="CP17">
         <v>0</v>
@@ -7988,17 +8021,17 @@
       <c r="CS17">
         <v>0</v>
       </c>
-      <c r="CT17">
-        <v>0</v>
-      </c>
-      <c r="CU17">
-        <v>0</v>
-      </c>
-      <c r="CV17">
-        <v>0</v>
-      </c>
-      <c r="CW17">
-        <v>0</v>
+      <c r="CT17" t="s">
+        <v>202</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>194</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>194</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>200</v>
       </c>
       <c r="CX17">
         <v>0</v>
@@ -8015,6 +8048,9 @@
       <c r="DC17">
         <v>0</v>
       </c>
+      <c r="DD17" t="s">
+        <v>199</v>
+      </c>
       <c r="DE17">
         <v>0</v>
       </c>
@@ -8037,25 +8073,31 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DT17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV17" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="DW17" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="DX17">
         <v>0</v>
       </c>
+      <c r="DY17" t="s">
+        <v>164</v>
+      </c>
       <c r="DZ17" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>190</v>
       </c>
       <c r="EB17">
         <v>0</v>
@@ -8079,10 +8121,13 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="EJ17" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>190</v>
       </c>
       <c r="EL17">
         <v>0</v>
@@ -8100,10 +8145,10 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>246</v>
-      </c>
-      <c r="ER17" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="ER17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:148">
@@ -8162,302 +8207,296 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>0</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DI18">
+        <v>0</v>
+      </c>
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <v>0</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>190</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>190</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>192</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>192</v>
+      </c>
+      <c r="DX18">
+        <v>0</v>
+      </c>
+      <c r="DZ18" t="s">
         <v>194</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>0</v>
-      </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
-      <c r="BU18">
-        <v>0</v>
-      </c>
-      <c r="BV18">
-        <v>0</v>
-      </c>
-      <c r="BW18">
-        <v>0</v>
-      </c>
-      <c r="BX18">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>233</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>238</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>241</v>
-      </c>
-      <c r="CC18">
-        <v>0</v>
-      </c>
-      <c r="CD18">
-        <v>0</v>
-      </c>
-      <c r="CE18">
-        <v>0</v>
-      </c>
-      <c r="CF18">
-        <v>0</v>
-      </c>
-      <c r="CG18">
-        <v>0</v>
-      </c>
-      <c r="CH18">
-        <v>0</v>
-      </c>
-      <c r="CI18">
-        <v>0</v>
-      </c>
-      <c r="CJ18">
-        <v>0</v>
-      </c>
-      <c r="CK18">
-        <v>0</v>
-      </c>
-      <c r="CL18">
-        <v>0</v>
-      </c>
-      <c r="CM18">
-        <v>0</v>
-      </c>
-      <c r="CN18">
-        <v>0</v>
-      </c>
-      <c r="CO18">
-        <v>0</v>
-      </c>
-      <c r="CP18">
-        <v>0</v>
-      </c>
-      <c r="CQ18">
-        <v>0</v>
-      </c>
-      <c r="CR18">
-        <v>0</v>
-      </c>
-      <c r="CS18">
-        <v>0</v>
-      </c>
-      <c r="CT18">
-        <v>0</v>
-      </c>
-      <c r="CU18">
-        <v>0</v>
-      </c>
-      <c r="CV18">
-        <v>0</v>
-      </c>
-      <c r="CW18">
-        <v>0</v>
-      </c>
-      <c r="CX18">
-        <v>0</v>
-      </c>
-      <c r="CY18">
-        <v>0</v>
-      </c>
-      <c r="CZ18">
-        <v>0</v>
-      </c>
-      <c r="DA18">
-        <v>0</v>
-      </c>
-      <c r="DB18" t="s">
-        <v>189</v>
-      </c>
-      <c r="DC18">
-        <v>0</v>
-      </c>
-      <c r="DE18">
-        <v>0</v>
-      </c>
-      <c r="DG18">
-        <v>0</v>
-      </c>
-      <c r="DI18">
-        <v>0</v>
-      </c>
-      <c r="DK18">
-        <v>0</v>
-      </c>
-      <c r="DM18">
-        <v>0</v>
-      </c>
-      <c r="DO18">
-        <v>0</v>
-      </c>
-      <c r="DR18">
-        <v>0</v>
-      </c>
-      <c r="DS18" t="s">
-        <v>189</v>
-      </c>
-      <c r="DT18" t="s">
-        <v>189</v>
-      </c>
-      <c r="DU18">
-        <v>0</v>
-      </c>
-      <c r="DV18" t="s">
-        <v>162</v>
-      </c>
-      <c r="DW18" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX18">
-        <v>0</v>
-      </c>
-      <c r="DZ18" t="s">
-        <v>189</v>
-      </c>
-      <c r="EA18" t="s">
-        <v>162</v>
-      </c>
       <c r="EB18">
         <v>0</v>
       </c>
@@ -8480,13 +8519,10 @@
         <v>0</v>
       </c>
       <c r="EI18" t="s">
-        <v>189</v>
-      </c>
-      <c r="EJ18">
-        <v>0</v>
-      </c>
-      <c r="EK18">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>190</v>
       </c>
       <c r="EL18">
         <v>0</v>
@@ -8504,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="ER18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:148">
@@ -8524,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -8536,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -8546,9 +8582,6 @@
       </c>
       <c r="N19">
         <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>171</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -8572,19 +8605,19 @@
         <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>200</v>
+        <v>195</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -8601,20 +8634,17 @@
       <c r="AG19">
         <v>0</v>
       </c>
-      <c r="AH19" t="s">
-        <v>171</v>
-      </c>
       <c r="AI19">
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -8656,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BA19">
         <v>0</v>
@@ -8700,14 +8730,14 @@
       <c r="BN19">
         <v>0</v>
       </c>
-      <c r="BO19" t="s">
-        <v>201</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>200</v>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
       </c>
       <c r="BR19">
         <v>0</v>
@@ -8731,28 +8761,28 @@
         <v>0</v>
       </c>
       <c r="BY19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BZ19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="CA19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB19" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="CC19">
         <v>0</v>
       </c>
-      <c r="CD19" t="s">
-        <v>201</v>
-      </c>
-      <c r="CE19" t="s">
-        <v>204</v>
-      </c>
-      <c r="CF19" t="s">
-        <v>200</v>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
       </c>
       <c r="CG19">
         <v>0</v>
@@ -8818,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="DB19" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="DC19">
         <v>0</v>
@@ -8845,19 +8875,28 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>189</v>
-      </c>
-      <c r="DU19" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU19">
+        <v>0</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>162</v>
       </c>
       <c r="DW19" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="DX19">
         <v>0</v>
       </c>
       <c r="DZ19" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>162</v>
       </c>
       <c r="EB19">
         <v>0</v>
@@ -8881,13 +8920,13 @@
         <v>0</v>
       </c>
       <c r="EI19" t="s">
-        <v>161</v>
-      </c>
-      <c r="EJ19" t="s">
-        <v>189</v>
-      </c>
-      <c r="EK19" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="EJ19">
+        <v>0</v>
+      </c>
+      <c r="EK19">
+        <v>0</v>
       </c>
       <c r="EL19">
         <v>0</v>
@@ -8905,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="EQ19" t="s">
-        <v>246</v>
-      </c>
-      <c r="ER19">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="ER19" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:148">
@@ -8925,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -8937,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -8947,6 +8986,9 @@
       </c>
       <c r="N20">
         <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>171</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -8973,139 +9015,139 @@
         <v>193</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB20" t="s">
         <v>202</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="s">
         <v>203</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
-      </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
+      <c r="BP20" t="s">
+        <v>205</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>202</v>
       </c>
       <c r="BR20">
         <v>0</v>
@@ -9129,25 +9171,28 @@
         <v>0</v>
       </c>
       <c r="BY20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BZ20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CA20" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>171</v>
       </c>
       <c r="CC20">
         <v>0</v>
       </c>
-      <c r="CD20">
-        <v>0</v>
-      </c>
-      <c r="CE20">
-        <v>0</v>
-      </c>
-      <c r="CF20">
-        <v>0</v>
+      <c r="CD20" t="s">
+        <v>203</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>202</v>
       </c>
       <c r="CG20">
         <v>0</v>
@@ -9212,6 +9257,9 @@
       <c r="DA20">
         <v>0</v>
       </c>
+      <c r="DB20" t="s">
+        <v>201</v>
+      </c>
       <c r="DC20">
         <v>0</v>
       </c>
@@ -9237,16 +9285,10 @@
         <v>0</v>
       </c>
       <c r="DS20" t="s">
-        <v>189</v>
-      </c>
-      <c r="DT20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU20" t="s">
-        <v>189</v>
-      </c>
-      <c r="DV20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="DW20" t="s">
         <v>193</v>
@@ -9279,31 +9321,429 @@
         <v>0</v>
       </c>
       <c r="EI20" t="s">
+        <v>161</v>
+      </c>
+      <c r="EJ20" t="s">
+        <v>190</v>
+      </c>
+      <c r="EK20" t="s">
+        <v>190</v>
+      </c>
+      <c r="EL20">
+        <v>0</v>
+      </c>
+      <c r="EM20">
+        <v>0</v>
+      </c>
+      <c r="EN20">
+        <v>0</v>
+      </c>
+      <c r="EO20">
+        <v>0</v>
+      </c>
+      <c r="EP20">
+        <v>0</v>
+      </c>
+      <c r="EQ20" t="s">
+        <v>250</v>
+      </c>
+      <c r="ER20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:148">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>172</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
         <v>189</v>
       </c>
-      <c r="EJ20" t="s">
-        <v>189</v>
-      </c>
-      <c r="EL20">
-        <v>0</v>
-      </c>
-      <c r="EM20">
-        <v>0</v>
-      </c>
-      <c r="EN20">
-        <v>0</v>
-      </c>
-      <c r="EO20">
-        <v>0</v>
-      </c>
-      <c r="EP20">
-        <v>0</v>
-      </c>
-      <c r="EQ20" t="s">
-        <v>246</v>
-      </c>
-      <c r="ER20" t="s">
-        <v>247</v>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>0</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DI21">
+        <v>0</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DO21">
+        <v>0</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>190</v>
+      </c>
+      <c r="DT21" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU21" t="s">
+        <v>190</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>194</v>
+      </c>
+      <c r="DW21" t="s">
+        <v>194</v>
+      </c>
+      <c r="DX21">
+        <v>0</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>194</v>
+      </c>
+      <c r="EB21">
+        <v>0</v>
+      </c>
+      <c r="EC21">
+        <v>0</v>
+      </c>
+      <c r="ED21">
+        <v>0</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21">
+        <v>0</v>
+      </c>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="s">
+        <v>190</v>
+      </c>
+      <c r="EJ21" t="s">
+        <v>190</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>0</v>
+      </c>
+      <c r="EN21">
+        <v>0</v>
+      </c>
+      <c r="EO21">
+        <v>0</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
+      <c r="EQ21" t="s">
+        <v>250</v>
+      </c>
+      <c r="ER21" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="266">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -502,21 +502,33 @@
     <t>15</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 50+_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
   </si>
   <si>
@@ -526,12 +538,12 @@
     <t>50+_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 50+_yrs</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 45-49_yrs</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
@@ -580,9 +592,18 @@
     <t>Moy Clinic</t>
   </si>
   <si>
+    <t>Nyameni Clinic</t>
+  </si>
+  <si>
+    <t>Rakodzi Clinic</t>
+  </si>
+  <si>
     <t>Waddilove Clinic</t>
   </si>
   <si>
+    <t>Wenimbi Clinic</t>
+  </si>
+  <si>
     <t>Zebra downs Clinic</t>
   </si>
   <si>
@@ -592,6 +613,9 @@
     <t>48</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -619,21 +643,21 @@
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
@@ -649,15 +673,15 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 45-49_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -694,10 +718,10 @@
     <t>2025-05-23T12:16:46.389505Z</t>
   </si>
   <si>
-    <t>2025-08-05T10:22:46.449299Z</t>
-  </si>
-  <si>
-    <t>2025-08-05T10:32:59.387756Z</t>
+    <t>2025-08-06T10:53:55.142402Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:55.896332Z</t>
   </si>
   <si>
     <t>2025-08-04T12:32:14.254797Z</t>
@@ -706,15 +730,21 @@
     <t>2025-07-01T09:47:44.156355Z</t>
   </si>
   <si>
+    <t>2025-08-06T10:53:56.408881Z</t>
+  </si>
+  <si>
     <t>2025-07-04T06:51:29.899097Z</t>
   </si>
   <si>
-    <t>2025-08-05T09:26:49.394220Z</t>
+    <t>2025-08-06T10:53:56.957260Z</t>
   </si>
   <si>
     <t>2025-07-04T19:33:28.979488Z</t>
   </si>
   <si>
+    <t>2025-08-06T10:53:57.464207Z</t>
+  </si>
+  <si>
     <t>2025-07-04T19:26:49.877079Z</t>
   </si>
   <si>
@@ -724,9 +754,18 @@
     <t>2025-08-04T12:31:29.724489Z</t>
   </si>
   <si>
+    <t>2025-08-06T10:53:57.904267Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:58.440194Z</t>
+  </si>
+  <si>
     <t>2025-07-03T06:45:00.666926Z</t>
   </si>
   <si>
+    <t>2025-08-06T10:53:58.933309Z</t>
+  </si>
+  <si>
     <t>2025-06-04T08:58:08.926212Z</t>
   </si>
   <si>
@@ -745,7 +784,7 @@
     <t>20-24_yrs 35-39_yrs 50_yrs</t>
   </si>
   <si>
-    <t>20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
+    <t>20-24_yrs 25-29_yrs 35-39_yrs</t>
   </si>
   <si>
     <t>15-19_yrs</t>
@@ -754,7 +793,10 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 50_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs 35-39_yrs 50_yrs</t>
+    <t>15-19_yrs 20-24_yrs 30-34_yrs 35-39_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>25-29_yrs 45-49_yrs</t>
   </si>
   <si>
     <t>40</t>
@@ -1127,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER21"/>
+  <dimension ref="A1:ER26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1617,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1626,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1638,40 +1680,40 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AA2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AB2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AC2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AD2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AE2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AF2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AG2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AH2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1770,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="BP2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="BQ2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="BR2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="BS2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BT2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BU2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="BV2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1800,28 +1842,28 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="BZ2" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="CA2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="CE2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="CF2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="CG2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1830,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="CK2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -1908,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DV2" t="s">
         <v>157</v>
@@ -1926,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DZ2" t="s">
         <v>157</v>
       </c>
       <c r="EA2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -1956,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EJ2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -1977,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -2021,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2030,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2042,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="X3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2171,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="BP3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="BQ3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="BR3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="BS3">
         <v>0</v>
@@ -2201,28 +2243,28 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="BZ3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="CA3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CE3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CF3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CG3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2237,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="CL3" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="CM3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="CN3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="CO3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="CP3">
         <v>0</v>
@@ -2309,28 +2351,28 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DV3" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="DW3" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DZ3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA3" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -2354,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EJ3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EK3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2378,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2428,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2440,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="X4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AA4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AB4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2473,19 +2515,19 @@
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AK4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AL4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -2527,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2602,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="BZ4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="CA4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CB4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -2689,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="DB4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="DC4">
         <v>0</v>
@@ -2716,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DW4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2755,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="EJ4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EK4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2779,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2826,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2835,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2844,31 +2886,31 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="X5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Y5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AA5" t="s">
         <v>159</v>
       </c>
       <c r="AB5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AC5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -2883,22 +2925,22 @@
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AI5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AJ5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AK5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AL5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AM5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -2937,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BA5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -2982,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="BP5" t="s">
         <v>159</v>
       </c>
       <c r="BQ5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="BR5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -3012,31 +3054,31 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="BZ5" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="CA5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CB5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CE5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CF5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CG5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -3051,16 +3093,16 @@
         <v>0</v>
       </c>
       <c r="CL5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="CM5" t="s">
         <v>159</v>
       </c>
       <c r="CN5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="CO5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="CP5">
         <v>0</v>
@@ -3099,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="DB5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="DC5">
         <v>0</v>
       </c>
       <c r="DD5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="DE5">
         <v>0</v>
@@ -3129,22 +3171,22 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="EB5">
         <v>0</v>
@@ -3153,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="ED5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="EE5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EF5">
         <v>0</v>
@@ -3168,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="EJ5">
         <v>0</v>
@@ -3192,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3242,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3254,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="X6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -3293,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3341,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3413,16 +3455,16 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="BZ6" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="CA6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CB6" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -3503,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="DE6">
         <v>0</v>
@@ -3527,28 +3569,28 @@
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DV6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="DW6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DZ6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="EB6">
         <v>0</v>
@@ -3572,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="EJ6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EK6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -3596,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3643,178 +3685,178 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>182</v>
+      </c>
+      <c r="X7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="s">
         <v>165</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>172</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>178</v>
-      </c>
-      <c r="X7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>213</v>
-      </c>
       <c r="BP7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="BQ7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="BR7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="BS7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="BT7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="BU7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="BV7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3823,61 +3865,61 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CN7" t="s">
         <v>223</v>
       </c>
-      <c r="BZ7" t="s">
-        <v>240</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>213</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>214</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>215</v>
-      </c>
       <c r="CO7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="CP7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="CQ7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="CR7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -3931,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU7">
         <v>0</v>
@@ -3949,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DZ7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA7" t="s">
         <v>158</v>
@@ -3979,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EJ7">
         <v>0</v>
@@ -4003,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4053,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -4062,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4077,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -4209,25 +4251,25 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BP8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BQ8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BR8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BS8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BT8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BU8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4236,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="BZ8" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -4386,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -4446,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4499,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -4511,31 +4553,31 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="X9" t="s">
         <v>159</v>
       </c>
       <c r="Y9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AA9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AB9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AC9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AD9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AE9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4544,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -4673,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="BZ9" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="CA9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CC9">
         <v>0</v>
@@ -4781,13 +4823,13 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DV9" t="s">
         <v>159</v>
@@ -4802,10 +4844,10 @@
         <v>159</v>
       </c>
       <c r="DZ9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4829,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EJ9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EK9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EL9">
         <v>0</v>
@@ -4853,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4899,6 +4941,9 @@
       <c r="N10">
         <v>0</v>
       </c>
+      <c r="O10" t="s">
+        <v>170</v>
+      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -4906,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4914,248 +4959,251 @@
       <c r="T10">
         <v>0</v>
       </c>
+      <c r="U10" t="s">
+        <v>177</v>
+      </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="X10" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="Y10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z10" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AA10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AB10" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AC10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ10" t="s">
         <v>202</v>
       </c>
-      <c r="AD10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="BR10" t="s">
         <v>209</v>
       </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="BS10" t="s">
         <v>200</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="s">
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>255</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CT10" t="s">
         <v>200</v>
       </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
-        <v>0</v>
-      </c>
-      <c r="BU10">
-        <v>0</v>
-      </c>
-      <c r="BV10">
-        <v>0</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>226</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>240</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>242</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CD10">
-        <v>0</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>0</v>
-      </c>
-      <c r="CG10">
-        <v>0</v>
-      </c>
-      <c r="CH10">
-        <v>0</v>
-      </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
-      <c r="CJ10">
-        <v>0</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
-      </c>
-      <c r="CL10">
-        <v>0</v>
-      </c>
-      <c r="CM10">
-        <v>0</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <v>0</v>
-      </c>
-      <c r="CP10">
-        <v>0</v>
-      </c>
-      <c r="CQ10">
-        <v>0</v>
-      </c>
-      <c r="CR10">
-        <v>0</v>
-      </c>
-      <c r="CS10">
-        <v>0</v>
-      </c>
-      <c r="CT10">
-        <v>0</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
-      </c>
-      <c r="CW10">
-        <v>0</v>
-      </c>
-      <c r="CX10">
-        <v>0</v>
+      <c r="CU10" t="s">
+        <v>210</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>202</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>209</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>200</v>
       </c>
       <c r="CY10">
         <v>0</v>
@@ -5163,14 +5211,14 @@
       <c r="CZ10">
         <v>0</v>
       </c>
-      <c r="DA10">
-        <v>0</v>
+      <c r="DA10" t="s">
+        <v>207</v>
       </c>
       <c r="DC10">
         <v>0</v>
       </c>
       <c r="DD10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="DE10">
         <v>0</v>
@@ -5182,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="DJ10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="DK10">
         <v>0</v>
@@ -5193,11 +5241,14 @@
       <c r="DO10">
         <v>0</v>
       </c>
+      <c r="DP10" t="s">
+        <v>207</v>
+      </c>
       <c r="DR10">
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -5212,10 +5263,10 @@
         <v>160</v>
       </c>
       <c r="DZ10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EB10">
         <v>0</v>
@@ -5223,11 +5274,11 @@
       <c r="EC10">
         <v>0</v>
       </c>
-      <c r="ED10">
-        <v>0</v>
-      </c>
-      <c r="EE10">
-        <v>0</v>
+      <c r="ED10" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>197</v>
       </c>
       <c r="EF10">
         <v>0</v>
@@ -5239,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="EJ10">
         <v>0</v>
@@ -5263,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5285,6 +5336,9 @@
       <c r="E11" t="s">
         <v>148</v>
       </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -5310,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -5319,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5327,35 +5381,32 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" t="s">
-        <v>173</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="X11" t="s">
         <v>157</v>
       </c>
       <c r="Y11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA11" t="s">
         <v>200</v>
       </c>
-      <c r="AA11" t="s">
-        <v>192</v>
-      </c>
       <c r="AB11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AC11" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AD11" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -5367,211 +5418,211 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>211</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS11" t="s">
         <v>210</v>
       </c>
-      <c r="AI11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="s">
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>235</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>208</v>
+      </c>
+      <c r="CU11" t="s">
         <v>200</v>
       </c>
-      <c r="AL11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="s">
+      <c r="CV11" t="s">
+        <v>211</v>
+      </c>
+      <c r="CW11" t="s">
         <v>200</v>
       </c>
-      <c r="BP11" t="s">
-        <v>192</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>192</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11">
-        <v>0</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>227</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>240</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>243</v>
-      </c>
-      <c r="CC11">
-        <v>0</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CI11">
-        <v>0</v>
-      </c>
-      <c r="CJ11">
-        <v>0</v>
-      </c>
-      <c r="CK11">
-        <v>0</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CQ11">
-        <v>0</v>
-      </c>
-      <c r="CR11">
-        <v>0</v>
-      </c>
-      <c r="CS11">
-        <v>0</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>200</v>
-      </c>
-      <c r="CU11" t="s">
-        <v>192</v>
-      </c>
-      <c r="CV11" t="s">
-        <v>204</v>
-      </c>
-      <c r="CW11" t="s">
-        <v>192</v>
-      </c>
       <c r="CX11" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="CY11">
         <v>0</v>
@@ -5586,25 +5637,22 @@
         <v>0</v>
       </c>
       <c r="DD11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="DE11">
         <v>0</v>
       </c>
       <c r="DF11" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="DG11">
         <v>0</v>
       </c>
-      <c r="DH11" t="s">
-        <v>190</v>
-      </c>
       <c r="DI11">
         <v>0</v>
       </c>
       <c r="DJ11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="DK11">
         <v>0</v>
@@ -5619,16 +5667,16 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DV11" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="DW11" t="s">
         <v>157</v>
@@ -5640,10 +5688,10 @@
         <v>157</v>
       </c>
       <c r="DZ11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EB11">
         <v>0</v>
@@ -5651,11 +5699,11 @@
       <c r="EC11">
         <v>0</v>
       </c>
-      <c r="ED11" t="s">
-        <v>190</v>
-      </c>
-      <c r="EE11" t="s">
-        <v>190</v>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
       </c>
       <c r="EF11">
         <v>0</v>
@@ -5667,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -5691,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5741,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5753,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="X12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y12" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -5789,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -5837,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -5912,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="BZ12" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="CA12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CB12" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="CC12">
         <v>0</v>
@@ -5999,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="DB12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DC12">
         <v>0</v>
@@ -6026,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU12">
         <v>0</v>
@@ -6044,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="DZ12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA12" t="s">
         <v>160</v>
@@ -6071,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EJ12">
         <v>0</v>
@@ -6095,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER12" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:148">
@@ -6142,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6151,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6163,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="X13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y13" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -6292,13 +6340,13 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="BP13" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="BQ13" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="BR13">
         <v>0</v>
@@ -6307,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="BT13" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="BU13">
         <v>0</v>
@@ -6322,25 +6370,25 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="BZ13" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="CA13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CE13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CF13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CG13">
         <v>0</v>
@@ -6349,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="CI13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CJ13">
         <v>0</v>
@@ -6358,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="CL13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CM13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CN13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CO13">
         <v>0</v>
@@ -6373,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="CQ13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CR13">
         <v>0</v>
@@ -6382,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="CT13" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="CU13" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="CV13" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="CW13">
         <v>0</v>
@@ -6397,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="CY13" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="CZ13">
         <v>0</v>
@@ -6430,13 +6478,13 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DV13" t="s">
         <v>161</v>
@@ -6451,10 +6499,10 @@
         <v>161</v>
       </c>
       <c r="DZ13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6478,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EJ13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EL13">
         <v>0</v>
@@ -6499,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6521,6 +6569,9 @@
       <c r="E14" t="s">
         <v>148</v>
       </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -6531,7 +6582,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>162</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6543,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6552,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6560,32 +6614,35 @@
       <c r="T14">
         <v>0</v>
       </c>
+      <c r="U14" t="s">
+        <v>177</v>
+      </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="X14" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>208</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -6593,20 +6650,23 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>202</v>
+      <c r="AG14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
       </c>
       <c r="AK14" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>199</v>
+        <v>207</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -6650,8 +6710,8 @@
       <c r="AZ14">
         <v>0</v>
       </c>
-      <c r="BA14">
-        <v>0</v>
+      <c r="BA14" t="s">
+        <v>197</v>
       </c>
       <c r="BB14">
         <v>0</v>
@@ -6692,20 +6752,20 @@
       <c r="BN14">
         <v>0</v>
       </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>0</v>
-      </c>
-      <c r="BS14">
-        <v>0</v>
+      <c r="BO14" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>210</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>208</v>
       </c>
       <c r="BT14">
         <v>0</v>
@@ -6713,6 +6773,9 @@
       <c r="BU14">
         <v>0</v>
       </c>
+      <c r="BV14" t="s">
+        <v>207</v>
+      </c>
       <c r="BW14">
         <v>0</v>
       </c>
@@ -6720,34 +6783,34 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="BZ14" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="CA14" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CB14" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
-      <c r="CD14">
-        <v>0</v>
-      </c>
-      <c r="CE14">
-        <v>0</v>
-      </c>
-      <c r="CF14">
-        <v>0</v>
-      </c>
-      <c r="CG14">
-        <v>0</v>
-      </c>
-      <c r="CH14">
-        <v>0</v>
+      <c r="CD14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>197</v>
       </c>
       <c r="CI14">
         <v>0</v>
@@ -6755,23 +6818,23 @@
       <c r="CJ14">
         <v>0</v>
       </c>
-      <c r="CK14">
-        <v>0</v>
-      </c>
-      <c r="CL14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
-      <c r="CN14">
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <v>0</v>
-      </c>
-      <c r="CP14">
-        <v>0</v>
+      <c r="CK14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>197</v>
       </c>
       <c r="CQ14">
         <v>0</v>
@@ -6779,23 +6842,23 @@
       <c r="CR14">
         <v>0</v>
       </c>
-      <c r="CS14">
-        <v>0</v>
-      </c>
-      <c r="CT14">
-        <v>0</v>
-      </c>
-      <c r="CU14">
-        <v>0</v>
-      </c>
-      <c r="CV14">
-        <v>0</v>
-      </c>
-      <c r="CW14">
-        <v>0</v>
-      </c>
-      <c r="CX14">
-        <v>0</v>
+      <c r="CS14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>209</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>210</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>210</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>210</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>208</v>
       </c>
       <c r="CY14">
         <v>0</v>
@@ -6803,12 +6866,15 @@
       <c r="CZ14">
         <v>0</v>
       </c>
-      <c r="DA14">
-        <v>0</v>
+      <c r="DA14" t="s">
+        <v>207</v>
       </c>
       <c r="DC14">
         <v>0</v>
       </c>
+      <c r="DD14" t="s">
+        <v>207</v>
+      </c>
       <c r="DE14">
         <v>0</v>
       </c>
@@ -6827,26 +6893,38 @@
       <c r="DO14">
         <v>0</v>
       </c>
+      <c r="DP14" t="s">
+        <v>207</v>
+      </c>
       <c r="DR14">
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU14" t="s">
-        <v>190</v>
+        <v>197</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>262</v>
       </c>
       <c r="DW14" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="DX14">
         <v>0</v>
       </c>
+      <c r="DY14" t="s">
+        <v>162</v>
+      </c>
       <c r="DZ14" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA14" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -6854,11 +6932,11 @@
       <c r="EC14">
         <v>0</v>
       </c>
-      <c r="ED14">
-        <v>0</v>
-      </c>
-      <c r="EE14">
-        <v>0</v>
+      <c r="ED14" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>197</v>
       </c>
       <c r="EF14">
         <v>0</v>
@@ -6870,13 +6948,13 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>204</v>
-      </c>
-      <c r="EJ14" t="s">
-        <v>190</v>
-      </c>
-      <c r="EK14" t="s">
-        <v>190</v>
+        <v>207</v>
+      </c>
+      <c r="EJ14">
+        <v>0</v>
+      </c>
+      <c r="EK14">
+        <v>0</v>
       </c>
       <c r="EL14">
         <v>0</v>
@@ -6894,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER14">
         <v>0</v>
@@ -6916,9 +6994,6 @@
       <c r="E15" t="s">
         <v>148</v>
       </c>
-      <c r="F15" t="s">
-        <v>150</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -6929,10 +7004,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -6944,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6953,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -6961,35 +7033,32 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15" t="s">
-        <v>173</v>
-      </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="Y15" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -6997,29 +7066,26 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>209</v>
       </c>
-      <c r="AI15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>199</v>
-      </c>
       <c r="AK15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>207</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
-      <c r="AN15" t="s">
-        <v>200</v>
+      <c r="AN15">
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -7027,8 +7093,8 @@
       <c r="AP15">
         <v>0</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>199</v>
+      <c r="AQ15">
+        <v>0</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -7054,11 +7120,11 @@
       <c r="AY15">
         <v>0</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>190</v>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
       </c>
       <c r="BB15">
         <v>0</v>
@@ -7066,8 +7132,8 @@
       <c r="BC15">
         <v>0</v>
       </c>
-      <c r="BD15" t="s">
-        <v>190</v>
+      <c r="BD15">
+        <v>0</v>
       </c>
       <c r="BE15">
         <v>0</v>
@@ -7099,30 +7165,27 @@
       <c r="BN15">
         <v>0</v>
       </c>
-      <c r="BO15" t="s">
-        <v>201</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>194</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>202</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>202</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>190</v>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
       </c>
       <c r="BU15">
         <v>0</v>
       </c>
-      <c r="BV15" t="s">
-        <v>199</v>
-      </c>
       <c r="BW15">
         <v>0</v>
       </c>
@@ -7130,34 +7193,34 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="BZ15" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="CA15" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CB15" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
-      <c r="CD15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>190</v>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
       </c>
       <c r="CI15">
         <v>0</v>
@@ -7165,23 +7228,23 @@
       <c r="CJ15">
         <v>0</v>
       </c>
-      <c r="CK15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>190</v>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
       </c>
       <c r="CQ15">
         <v>0</v>
@@ -7189,23 +7252,23 @@
       <c r="CR15">
         <v>0</v>
       </c>
-      <c r="CS15" t="s">
-        <v>190</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>201</v>
-      </c>
-      <c r="CU15" t="s">
-        <v>194</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>202</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>202</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>201</v>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
       </c>
       <c r="CY15">
         <v>0</v>
@@ -7213,18 +7276,12 @@
       <c r="CZ15">
         <v>0</v>
       </c>
-      <c r="DA15" t="s">
-        <v>199</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>199</v>
+      <c r="DA15">
+        <v>0</v>
       </c>
       <c r="DC15">
         <v>0</v>
       </c>
-      <c r="DD15" t="s">
-        <v>199</v>
-      </c>
       <c r="DE15">
         <v>0</v>
       </c>
@@ -7234,9 +7291,6 @@
       <c r="DI15">
         <v>0</v>
       </c>
-      <c r="DJ15" t="s">
-        <v>200</v>
-      </c>
       <c r="DK15">
         <v>0</v>
       </c>
@@ -7246,32 +7300,26 @@
       <c r="DO15">
         <v>0</v>
       </c>
-      <c r="DP15" t="s">
-        <v>199</v>
-      </c>
       <c r="DR15">
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU15">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>197</v>
       </c>
       <c r="DW15" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="DX15">
         <v>0</v>
       </c>
-      <c r="DY15" t="s">
-        <v>162</v>
-      </c>
       <c r="DZ15" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA15" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="EB15">
         <v>0</v>
@@ -7279,11 +7327,11 @@
       <c r="EC15">
         <v>0</v>
       </c>
-      <c r="ED15" t="s">
-        <v>190</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>190</v>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
       </c>
       <c r="EF15">
         <v>0</v>
@@ -7295,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>204</v>
-      </c>
-      <c r="EJ15">
-        <v>0</v>
-      </c>
-      <c r="EK15">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>197</v>
       </c>
       <c r="EL15">
         <v>0</v>
@@ -7319,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -7341,6 +7389,9 @@
       <c r="E16" t="s">
         <v>148</v>
       </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -7366,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -7375,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7383,267 +7434,285 @@
       <c r="T16">
         <v>0</v>
       </c>
+      <c r="U16" t="s">
+        <v>177</v>
+      </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
         <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z16" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AB16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AC16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP16" t="s">
         <v>202</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="BQ16" t="s">
+        <v>209</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>240</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>210</v>
+      </c>
+      <c r="CU16" t="s">
         <v>202</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="CV16" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>209</v>
+      </c>
+      <c r="CX16" t="s">
         <v>210</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>192</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>201</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>202</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>202</v>
-      </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
-        <v>0</v>
-      </c>
-      <c r="BV16">
-        <v>0</v>
-      </c>
-      <c r="BW16">
-        <v>0</v>
-      </c>
-      <c r="BX16">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>232</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>238</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC16">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CI16">
-        <v>0</v>
-      </c>
-      <c r="CJ16">
-        <v>0</v>
-      </c>
-      <c r="CK16">
-        <v>0</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CQ16">
-        <v>0</v>
-      </c>
-      <c r="CR16">
-        <v>0</v>
-      </c>
-      <c r="CS16">
-        <v>0</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>192</v>
-      </c>
-      <c r="CU16" t="s">
-        <v>201</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>204</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>202</v>
-      </c>
-      <c r="CX16" t="s">
-        <v>202</v>
-      </c>
       <c r="CY16">
         <v>0</v>
       </c>
       <c r="CZ16">
         <v>0</v>
       </c>
-      <c r="DA16">
-        <v>0</v>
+      <c r="DA16" t="s">
+        <v>207</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>207</v>
       </c>
       <c r="DC16">
         <v>0</v>
       </c>
+      <c r="DD16" t="s">
+        <v>207</v>
+      </c>
       <c r="DE16">
         <v>0</v>
       </c>
       <c r="DG16">
         <v>0</v>
       </c>
+      <c r="DH16" t="s">
+        <v>197</v>
+      </c>
       <c r="DI16">
         <v>0</v>
       </c>
+      <c r="DJ16" t="s">
+        <v>208</v>
+      </c>
       <c r="DK16">
         <v>0</v>
       </c>
@@ -7653,20 +7722,17 @@
       <c r="DO16">
         <v>0</v>
       </c>
+      <c r="DP16" t="s">
+        <v>207</v>
+      </c>
       <c r="DR16">
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>190</v>
-      </c>
-      <c r="DT16" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU16" t="s">
-        <v>190</v>
-      </c>
-      <c r="DV16" t="s">
-        <v>163</v>
+        <v>197</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
       </c>
       <c r="DW16" t="s">
         <v>163</v>
@@ -7678,10 +7744,10 @@
         <v>163</v>
       </c>
       <c r="DZ16" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA16" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EB16">
         <v>0</v>
@@ -7689,11 +7755,11 @@
       <c r="EC16">
         <v>0</v>
       </c>
-      <c r="ED16">
-        <v>0</v>
-      </c>
-      <c r="EE16">
-        <v>0</v>
+      <c r="ED16" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>197</v>
       </c>
       <c r="EF16">
         <v>0</v>
@@ -7705,13 +7771,13 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>190</v>
-      </c>
-      <c r="EJ16" t="s">
-        <v>190</v>
-      </c>
-      <c r="EK16" t="s">
-        <v>190</v>
+        <v>211</v>
+      </c>
+      <c r="EJ16">
+        <v>0</v>
+      </c>
+      <c r="EK16">
+        <v>0</v>
       </c>
       <c r="EL16">
         <v>0</v>
@@ -7729,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -7776,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -7785,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -7797,244 +7863,241 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="X17" t="s">
         <v>164</v>
       </c>
       <c r="Y17" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="AB17" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AC17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="s">
         <v>200</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>202</v>
-      </c>
       <c r="BP17" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="BQ17" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="BR17" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>251</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="s">
         <v>200</v>
       </c>
-      <c r="BS17">
-        <v>0</v>
-      </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
-      <c r="BV17">
-        <v>0</v>
-      </c>
-      <c r="BW17">
-        <v>0</v>
-      </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>233</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>238</v>
-      </c>
-      <c r="CA17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>241</v>
-      </c>
-      <c r="CC17">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH17">
-        <v>0</v>
-      </c>
-      <c r="CI17">
-        <v>0</v>
-      </c>
-      <c r="CJ17">
-        <v>0</v>
-      </c>
-      <c r="CK17">
-        <v>0</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CN17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CP17">
-        <v>0</v>
-      </c>
-      <c r="CQ17">
-        <v>0</v>
-      </c>
-      <c r="CR17">
-        <v>0</v>
-      </c>
-      <c r="CS17">
-        <v>0</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>202</v>
-      </c>
       <c r="CU17" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="CV17" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="CW17" t="s">
-        <v>200</v>
-      </c>
-      <c r="CX17">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>209</v>
       </c>
       <c r="CY17">
         <v>0</v>
@@ -8048,9 +8111,6 @@
       <c r="DC17">
         <v>0</v>
       </c>
-      <c r="DD17" t="s">
-        <v>199</v>
-      </c>
       <c r="DE17">
         <v>0</v>
       </c>
@@ -8073,16 +8133,16 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DU17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DV17" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="DW17" t="s">
         <v>164</v>
@@ -8094,10 +8154,10 @@
         <v>164</v>
       </c>
       <c r="DZ17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EB17">
         <v>0</v>
@@ -8121,13 +8181,13 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="EJ17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EK17" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EL17">
         <v>0</v>
@@ -8145,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -8165,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -8177,7 +8237,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -8188,6 +8251,9 @@
       <c r="N18">
         <v>0</v>
       </c>
+      <c r="O18" t="s">
+        <v>169</v>
+      </c>
       <c r="P18">
         <v>0</v>
       </c>
@@ -8195,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8203,29 +8269,32 @@
       <c r="T18">
         <v>0</v>
       </c>
+      <c r="U18" t="s">
+        <v>177</v>
+      </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z18" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AA18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>211</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -8240,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="AH18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>197</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -8338,17 +8407,17 @@
       <c r="BN18">
         <v>0</v>
       </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18">
-        <v>0</v>
+      <c r="BO18" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>211</v>
       </c>
       <c r="BS18">
         <v>0</v>
@@ -8369,28 +8438,28 @@
         <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="BZ18" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="CA18" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
-      <c r="CD18">
-        <v>0</v>
-      </c>
-      <c r="CE18">
-        <v>0</v>
-      </c>
-      <c r="CF18">
-        <v>0</v>
-      </c>
-      <c r="CG18">
-        <v>0</v>
+      <c r="CD18" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>197</v>
       </c>
       <c r="CH18">
         <v>0</v>
@@ -8404,17 +8473,17 @@
       <c r="CK18">
         <v>0</v>
       </c>
-      <c r="CL18">
-        <v>0</v>
-      </c>
-      <c r="CM18">
-        <v>0</v>
-      </c>
-      <c r="CN18">
-        <v>0</v>
-      </c>
-      <c r="CO18">
-        <v>0</v>
+      <c r="CL18" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>197</v>
       </c>
       <c r="CP18">
         <v>0</v>
@@ -8428,17 +8497,17 @@
       <c r="CS18">
         <v>0</v>
       </c>
-      <c r="CT18">
-        <v>0</v>
-      </c>
-      <c r="CU18">
-        <v>0</v>
-      </c>
-      <c r="CV18">
-        <v>0</v>
-      </c>
-      <c r="CW18">
-        <v>0</v>
+      <c r="CT18" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>210</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>211</v>
       </c>
       <c r="CX18">
         <v>0</v>
@@ -8477,25 +8546,31 @@
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT18" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU18" t="s">
-        <v>190</v>
+        <v>197</v>
+      </c>
+      <c r="DU18">
+        <v>0</v>
       </c>
       <c r="DV18" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="DW18" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="DX18">
         <v>0</v>
       </c>
+      <c r="DY18" t="s">
+        <v>165</v>
+      </c>
       <c r="DZ18" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>197</v>
       </c>
       <c r="EB18">
         <v>0</v>
@@ -8503,11 +8578,11 @@
       <c r="EC18">
         <v>0</v>
       </c>
-      <c r="ED18">
-        <v>0</v>
-      </c>
-      <c r="EE18">
-        <v>0</v>
+      <c r="ED18" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE18" t="s">
+        <v>197</v>
       </c>
       <c r="EF18">
         <v>0</v>
@@ -8519,10 +8594,13 @@
         <v>0</v>
       </c>
       <c r="EI18" t="s">
-        <v>190</v>
-      </c>
-      <c r="EJ18" t="s">
-        <v>190</v>
+        <v>197</v>
+      </c>
+      <c r="EJ18">
+        <v>0</v>
+      </c>
+      <c r="EK18">
+        <v>0</v>
       </c>
       <c r="EL18">
         <v>0</v>
@@ -8540,10 +8618,10 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="s">
-        <v>250</v>
-      </c>
-      <c r="ER18" t="s">
-        <v>251</v>
+        <v>264</v>
+      </c>
+      <c r="ER18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:148">
@@ -8560,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -8572,7 +8650,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -8583,6 +8664,9 @@
       <c r="N19">
         <v>0</v>
       </c>
+      <c r="O19" t="s">
+        <v>169</v>
+      </c>
       <c r="P19">
         <v>0</v>
       </c>
@@ -8590,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -8602,25 +8686,25 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>208</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -8634,14 +8718,17 @@
       <c r="AG19">
         <v>0</v>
       </c>
+      <c r="AH19" t="s">
+        <v>215</v>
+      </c>
       <c r="AI19">
         <v>0</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>207</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -8685,11 +8772,11 @@
       <c r="AY19">
         <v>0</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>197</v>
       </c>
       <c r="BB19">
         <v>0</v>
@@ -8730,17 +8817,17 @@
       <c r="BN19">
         <v>0</v>
       </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19">
-        <v>0</v>
+      <c r="BO19" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>202</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>208</v>
       </c>
       <c r="BS19">
         <v>0</v>
@@ -8761,31 +8848,31 @@
         <v>0</v>
       </c>
       <c r="BY19" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="BZ19" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="CA19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="CB19" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="CC19">
         <v>0</v>
       </c>
-      <c r="CD19">
-        <v>0</v>
-      </c>
-      <c r="CE19">
-        <v>0</v>
-      </c>
-      <c r="CF19">
-        <v>0</v>
-      </c>
-      <c r="CG19">
-        <v>0</v>
+      <c r="CD19" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>197</v>
       </c>
       <c r="CH19">
         <v>0</v>
@@ -8799,17 +8886,17 @@
       <c r="CK19">
         <v>0</v>
       </c>
-      <c r="CL19">
-        <v>0</v>
-      </c>
-      <c r="CM19">
-        <v>0</v>
-      </c>
-      <c r="CN19">
-        <v>0</v>
-      </c>
-      <c r="CO19">
-        <v>0</v>
+      <c r="CL19" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>197</v>
       </c>
       <c r="CP19">
         <v>0</v>
@@ -8823,17 +8910,17 @@
       <c r="CS19">
         <v>0</v>
       </c>
-      <c r="CT19">
-        <v>0</v>
-      </c>
-      <c r="CU19">
-        <v>0</v>
-      </c>
-      <c r="CV19">
-        <v>0</v>
-      </c>
-      <c r="CW19">
-        <v>0</v>
+      <c r="CT19" t="s">
+        <v>209</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>202</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>202</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>208</v>
       </c>
       <c r="CX19">
         <v>0</v>
@@ -8847,12 +8934,12 @@
       <c r="DA19">
         <v>0</v>
       </c>
-      <c r="DB19" t="s">
-        <v>190</v>
-      </c>
       <c r="DC19">
         <v>0</v>
       </c>
+      <c r="DD19" t="s">
+        <v>207</v>
+      </c>
       <c r="DE19">
         <v>0</v>
       </c>
@@ -8875,28 +8962,31 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DT19" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU19">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>197</v>
       </c>
       <c r="DV19" t="s">
         <v>162</v>
       </c>
       <c r="DW19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="DX19">
         <v>0</v>
       </c>
+      <c r="DY19" t="s">
+        <v>166</v>
+      </c>
       <c r="DZ19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EA19" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="EB19">
         <v>0</v>
@@ -8920,13 +9010,13 @@
         <v>0</v>
       </c>
       <c r="EI19" t="s">
-        <v>190</v>
-      </c>
-      <c r="EJ19">
-        <v>0</v>
-      </c>
-      <c r="EK19">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>197</v>
       </c>
       <c r="EL19">
         <v>0</v>
@@ -8944,10 +9034,10 @@
         <v>0</v>
       </c>
       <c r="EQ19" t="s">
-        <v>250</v>
-      </c>
-      <c r="ER19" t="s">
-        <v>251</v>
+        <v>264</v>
+      </c>
+      <c r="ER19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:148">
@@ -8964,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -8976,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -8987,9 +9077,6 @@
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
-        <v>171</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -8997,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -9009,296 +9096,296 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X20" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AB20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>244</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>252</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>197</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20">
+        <v>0</v>
+      </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>0</v>
+      </c>
+      <c r="CO20">
+        <v>0</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DO20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU20" t="s">
+        <v>197</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>200</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>200</v>
+      </c>
+      <c r="DX20">
+        <v>0</v>
+      </c>
+      <c r="DZ20" t="s">
         <v>202</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
-      </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>205</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>202</v>
-      </c>
-      <c r="BR20">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>0</v>
-      </c>
-      <c r="BT20">
-        <v>0</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
-      </c>
-      <c r="BV20">
-        <v>0</v>
-      </c>
-      <c r="BW20">
-        <v>0</v>
-      </c>
-      <c r="BX20">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="s">
-        <v>236</v>
-      </c>
-      <c r="BZ20" t="s">
-        <v>238</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>171</v>
-      </c>
-      <c r="CC20">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="s">
-        <v>203</v>
-      </c>
-      <c r="CE20" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF20" t="s">
-        <v>202</v>
-      </c>
-      <c r="CG20">
-        <v>0</v>
-      </c>
-      <c r="CH20">
-        <v>0</v>
-      </c>
-      <c r="CI20">
-        <v>0</v>
-      </c>
-      <c r="CJ20">
-        <v>0</v>
-      </c>
-      <c r="CK20">
-        <v>0</v>
-      </c>
-      <c r="CL20">
-        <v>0</v>
-      </c>
-      <c r="CM20">
-        <v>0</v>
-      </c>
-      <c r="CN20">
-        <v>0</v>
-      </c>
-      <c r="CO20">
-        <v>0</v>
-      </c>
-      <c r="CP20">
-        <v>0</v>
-      </c>
-      <c r="CQ20">
-        <v>0</v>
-      </c>
-      <c r="CR20">
-        <v>0</v>
-      </c>
-      <c r="CS20">
-        <v>0</v>
-      </c>
-      <c r="CT20">
-        <v>0</v>
-      </c>
-      <c r="CU20">
-        <v>0</v>
-      </c>
-      <c r="CV20">
-        <v>0</v>
-      </c>
-      <c r="CW20">
-        <v>0</v>
-      </c>
-      <c r="CX20">
-        <v>0</v>
-      </c>
-      <c r="CY20">
-        <v>0</v>
-      </c>
-      <c r="CZ20">
-        <v>0</v>
-      </c>
-      <c r="DA20">
-        <v>0</v>
-      </c>
-      <c r="DB20" t="s">
-        <v>201</v>
-      </c>
-      <c r="DC20">
-        <v>0</v>
-      </c>
-      <c r="DE20">
-        <v>0</v>
-      </c>
-      <c r="DG20">
-        <v>0</v>
-      </c>
-      <c r="DI20">
-        <v>0</v>
-      </c>
-      <c r="DK20">
-        <v>0</v>
-      </c>
-      <c r="DM20">
-        <v>0</v>
-      </c>
-      <c r="DO20">
-        <v>0</v>
-      </c>
-      <c r="DR20">
-        <v>0</v>
-      </c>
-      <c r="DS20" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU20" t="s">
-        <v>190</v>
-      </c>
-      <c r="DW20" t="s">
-        <v>193</v>
-      </c>
-      <c r="DX20">
-        <v>0</v>
-      </c>
-      <c r="DZ20" t="s">
-        <v>193</v>
-      </c>
       <c r="EB20">
         <v>0</v>
       </c>
@@ -9321,13 +9408,10 @@
         <v>0</v>
       </c>
       <c r="EI20" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="EJ20" t="s">
-        <v>190</v>
-      </c>
-      <c r="EK20" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="EL20">
         <v>0</v>
@@ -9345,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="EQ20" t="s">
-        <v>250</v>
-      </c>
-      <c r="ER20">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="ER20" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:148">
@@ -9395,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -9407,343 +9491,2405 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>257</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>0</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DB21" t="s">
+        <v>197</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DI21">
+        <v>0</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DO21">
+        <v>0</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT21" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU21">
+        <v>0</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX21">
+        <v>0</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB21">
+        <v>0</v>
+      </c>
+      <c r="EC21">
+        <v>0</v>
+      </c>
+      <c r="ED21">
+        <v>0</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21">
+        <v>0</v>
+      </c>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="s">
+        <v>197</v>
+      </c>
+      <c r="EJ21">
+        <v>0</v>
+      </c>
+      <c r="EK21">
+        <v>0</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>0</v>
+      </c>
+      <c r="EN21">
+        <v>0</v>
+      </c>
+      <c r="EO21">
+        <v>0</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
+      <c r="EQ21" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:148">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>171</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>176</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>177</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>192</v>
+      </c>
+      <c r="X22" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>202</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>202</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>246</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
+        <v>0</v>
+      </c>
+      <c r="CK22">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ22">
+        <v>0</v>
+      </c>
+      <c r="CR22">
+        <v>0</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU22" t="s">
+        <v>202</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>210</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>208</v>
+      </c>
+      <c r="CY22">
+        <v>0</v>
+      </c>
+      <c r="CZ22">
+        <v>0</v>
+      </c>
+      <c r="DA22">
+        <v>0</v>
+      </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <v>0</v>
+      </c>
+      <c r="DG22">
+        <v>0</v>
+      </c>
+      <c r="DI22">
+        <v>0</v>
+      </c>
+      <c r="DK22">
+        <v>0</v>
+      </c>
+      <c r="DM22">
+        <v>0</v>
+      </c>
+      <c r="DO22">
+        <v>0</v>
+      </c>
+      <c r="DR22">
+        <v>0</v>
+      </c>
+      <c r="DS22" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT22" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU22">
+        <v>0</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>164</v>
+      </c>
+      <c r="DW22" t="s">
+        <v>164</v>
+      </c>
+      <c r="DX22">
+        <v>0</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>164</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB22">
+        <v>0</v>
+      </c>
+      <c r="EC22">
+        <v>0</v>
+      </c>
+      <c r="ED22" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE22" t="s">
+        <v>197</v>
+      </c>
+      <c r="EF22">
+        <v>0</v>
+      </c>
+      <c r="EG22">
+        <v>0</v>
+      </c>
+      <c r="EH22">
+        <v>0</v>
+      </c>
+      <c r="EI22" t="s">
+        <v>197</v>
+      </c>
+      <c r="EJ22">
+        <v>0</v>
+      </c>
+      <c r="EK22">
+        <v>0</v>
+      </c>
+      <c r="EL22">
+        <v>0</v>
+      </c>
+      <c r="EM22">
+        <v>0</v>
+      </c>
+      <c r="EN22">
+        <v>0</v>
+      </c>
+      <c r="EO22">
+        <v>0</v>
+      </c>
+      <c r="EP22">
+        <v>0</v>
+      </c>
+      <c r="EQ22" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:148">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>176</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>177</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>193</v>
+      </c>
+      <c r="X23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>247</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
+        <v>0</v>
+      </c>
+      <c r="CK23">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ23">
+        <v>0</v>
+      </c>
+      <c r="CR23">
+        <v>0</v>
+      </c>
+      <c r="CS23">
+        <v>0</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>210</v>
+      </c>
+      <c r="CU23" t="s">
+        <v>208</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>207</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>207</v>
+      </c>
+      <c r="CY23">
+        <v>0</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23">
+        <v>0</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>197</v>
+      </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>197</v>
+      </c>
+      <c r="DE23">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="s">
+        <v>197</v>
+      </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
+      <c r="DH23" t="s">
+        <v>197</v>
+      </c>
+      <c r="DI23">
+        <v>0</v>
+      </c>
+      <c r="DJ23" t="s">
+        <v>197</v>
+      </c>
+      <c r="DK23">
+        <v>0</v>
+      </c>
+      <c r="DM23">
+        <v>0</v>
+      </c>
+      <c r="DO23">
+        <v>0</v>
+      </c>
+      <c r="DR23">
+        <v>0</v>
+      </c>
+      <c r="DS23" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT23" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU23">
+        <v>0</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW23" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX23">
+        <v>0</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>159</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB23">
+        <v>0</v>
+      </c>
+      <c r="EC23">
+        <v>0</v>
+      </c>
+      <c r="ED23" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE23" t="s">
+        <v>197</v>
+      </c>
+      <c r="EF23">
+        <v>0</v>
+      </c>
+      <c r="EG23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>0</v>
+      </c>
+      <c r="EI23" t="s">
+        <v>197</v>
+      </c>
+      <c r="EJ23">
+        <v>0</v>
+      </c>
+      <c r="EK23">
+        <v>0</v>
+      </c>
+      <c r="EL23">
+        <v>0</v>
+      </c>
+      <c r="EM23">
+        <v>0</v>
+      </c>
+      <c r="EN23">
+        <v>0</v>
+      </c>
+      <c r="EO23">
+        <v>0</v>
+      </c>
+      <c r="EP23">
+        <v>0</v>
+      </c>
+      <c r="EQ23" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:148">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>176</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
         <v>194</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>212</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>209</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>212</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>209</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
+      </c>
+      <c r="CH24">
+        <v>0</v>
+      </c>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
+        <v>0</v>
+      </c>
+      <c r="CK24">
+        <v>0</v>
+      </c>
+      <c r="CL24">
+        <v>0</v>
+      </c>
+      <c r="CM24">
+        <v>0</v>
+      </c>
+      <c r="CN24">
+        <v>0</v>
+      </c>
+      <c r="CO24">
+        <v>0</v>
+      </c>
+      <c r="CP24">
+        <v>0</v>
+      </c>
+      <c r="CQ24">
+        <v>0</v>
+      </c>
+      <c r="CR24">
+        <v>0</v>
+      </c>
+      <c r="CS24">
+        <v>0</v>
+      </c>
+      <c r="CT24">
+        <v>0</v>
+      </c>
+      <c r="CU24">
+        <v>0</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
+      <c r="CW24">
+        <v>0</v>
+      </c>
+      <c r="CX24">
+        <v>0</v>
+      </c>
+      <c r="CY24">
+        <v>0</v>
+      </c>
+      <c r="CZ24">
+        <v>0</v>
+      </c>
+      <c r="DA24">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>210</v>
+      </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
+      <c r="DE24">
+        <v>0</v>
+      </c>
+      <c r="DG24">
+        <v>0</v>
+      </c>
+      <c r="DI24">
+        <v>0</v>
+      </c>
+      <c r="DK24">
+        <v>0</v>
+      </c>
+      <c r="DM24">
+        <v>0</v>
+      </c>
+      <c r="DO24">
+        <v>0</v>
+      </c>
+      <c r="DR24">
+        <v>0</v>
+      </c>
+      <c r="DS24" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU24" t="s">
+        <v>197</v>
+      </c>
+      <c r="DW24" t="s">
+        <v>201</v>
+      </c>
+      <c r="DX24">
+        <v>0</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>201</v>
+      </c>
+      <c r="EB24">
+        <v>0</v>
+      </c>
+      <c r="EC24">
+        <v>0</v>
+      </c>
+      <c r="ED24">
+        <v>0</v>
+      </c>
+      <c r="EE24">
+        <v>0</v>
+      </c>
+      <c r="EF24">
+        <v>0</v>
+      </c>
+      <c r="EG24">
+        <v>0</v>
+      </c>
+      <c r="EH24">
+        <v>0</v>
+      </c>
+      <c r="EI24" t="s">
+        <v>161</v>
+      </c>
+      <c r="EJ24" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK24" t="s">
+        <v>197</v>
+      </c>
+      <c r="EL24">
+        <v>0</v>
+      </c>
+      <c r="EM24">
+        <v>0</v>
+      </c>
+      <c r="EN24">
+        <v>0</v>
+      </c>
+      <c r="EO24">
+        <v>0</v>
+      </c>
+      <c r="EP24">
+        <v>0</v>
+      </c>
+      <c r="EQ24" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:148">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>176</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>177</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
         <v>195</v>
       </c>
-      <c r="Z21" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="X25" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>210</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>210</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>249</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>260</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK25">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>208</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ25">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="s">
+        <v>197</v>
+      </c>
+      <c r="CS25">
+        <v>0</v>
+      </c>
+      <c r="CT25" t="s">
         <v>211</v>
       </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
-      <c r="BF21">
-        <v>0</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>0</v>
-      </c>
-      <c r="BI21">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>0</v>
-      </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>0</v>
-      </c>
-      <c r="BO21">
-        <v>0</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21">
-        <v>0</v>
-      </c>
-      <c r="BS21">
-        <v>0</v>
-      </c>
-      <c r="BT21">
-        <v>0</v>
-      </c>
-      <c r="BU21">
-        <v>0</v>
-      </c>
-      <c r="BV21">
-        <v>0</v>
-      </c>
-      <c r="BW21">
-        <v>0</v>
-      </c>
-      <c r="BX21">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>237</v>
-      </c>
-      <c r="BZ21" t="s">
-        <v>239</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC21">
-        <v>0</v>
-      </c>
-      <c r="CD21">
-        <v>0</v>
-      </c>
-      <c r="CE21">
-        <v>0</v>
-      </c>
-      <c r="CF21">
-        <v>0</v>
-      </c>
-      <c r="CG21">
-        <v>0</v>
-      </c>
-      <c r="CH21">
-        <v>0</v>
-      </c>
-      <c r="CI21">
-        <v>0</v>
-      </c>
-      <c r="CJ21">
-        <v>0</v>
-      </c>
-      <c r="CK21">
-        <v>0</v>
-      </c>
-      <c r="CL21">
-        <v>0</v>
-      </c>
-      <c r="CM21">
-        <v>0</v>
-      </c>
-      <c r="CN21">
-        <v>0</v>
-      </c>
-      <c r="CO21">
-        <v>0</v>
-      </c>
-      <c r="CP21">
-        <v>0</v>
-      </c>
-      <c r="CQ21">
-        <v>0</v>
-      </c>
-      <c r="CR21">
-        <v>0</v>
-      </c>
-      <c r="CS21">
-        <v>0</v>
-      </c>
-      <c r="CT21">
-        <v>0</v>
-      </c>
-      <c r="CU21">
-        <v>0</v>
-      </c>
-      <c r="CV21">
-        <v>0</v>
-      </c>
-      <c r="CW21">
-        <v>0</v>
-      </c>
-      <c r="CX21">
-        <v>0</v>
-      </c>
-      <c r="CY21">
-        <v>0</v>
-      </c>
-      <c r="CZ21">
-        <v>0</v>
-      </c>
-      <c r="DA21">
-        <v>0</v>
-      </c>
-      <c r="DC21">
-        <v>0</v>
-      </c>
-      <c r="DE21">
-        <v>0</v>
-      </c>
-      <c r="DG21">
-        <v>0</v>
-      </c>
-      <c r="DI21">
-        <v>0</v>
-      </c>
-      <c r="DK21">
-        <v>0</v>
-      </c>
-      <c r="DM21">
-        <v>0</v>
-      </c>
-      <c r="DO21">
-        <v>0</v>
-      </c>
-      <c r="DR21">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="s">
-        <v>190</v>
-      </c>
-      <c r="DT21" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU21" t="s">
-        <v>190</v>
-      </c>
-      <c r="DV21" t="s">
-        <v>194</v>
-      </c>
-      <c r="DW21" t="s">
-        <v>194</v>
-      </c>
-      <c r="DX21">
-        <v>0</v>
-      </c>
-      <c r="DZ21" t="s">
-        <v>194</v>
-      </c>
-      <c r="EB21">
-        <v>0</v>
-      </c>
-      <c r="EC21">
-        <v>0</v>
-      </c>
-      <c r="ED21">
-        <v>0</v>
-      </c>
-      <c r="EE21">
-        <v>0</v>
-      </c>
-      <c r="EF21">
-        <v>0</v>
-      </c>
-      <c r="EG21">
-        <v>0</v>
-      </c>
-      <c r="EH21">
-        <v>0</v>
-      </c>
-      <c r="EI21" t="s">
-        <v>190</v>
-      </c>
-      <c r="EJ21" t="s">
-        <v>190</v>
-      </c>
-      <c r="EL21">
-        <v>0</v>
-      </c>
-      <c r="EM21">
-        <v>0</v>
-      </c>
-      <c r="EN21">
-        <v>0</v>
-      </c>
-      <c r="EO21">
-        <v>0</v>
-      </c>
-      <c r="EP21">
-        <v>0</v>
-      </c>
-      <c r="EQ21" t="s">
+      <c r="CU25" t="s">
+        <v>210</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>213</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>210</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>209</v>
+      </c>
+      <c r="CY25">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="s">
+        <v>207</v>
+      </c>
+      <c r="DA25">
+        <v>0</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>0</v>
+      </c>
+      <c r="DF25" t="s">
+        <v>207</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DI25">
+        <v>0</v>
+      </c>
+      <c r="DK25">
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <v>0</v>
+      </c>
+      <c r="DO25">
+        <v>0</v>
+      </c>
+      <c r="DR25">
+        <v>0</v>
+      </c>
+      <c r="DS25" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU25">
+        <v>0</v>
+      </c>
+      <c r="DW25" t="s">
+        <v>167</v>
+      </c>
+      <c r="DX25">
+        <v>0</v>
+      </c>
+      <c r="DY25" t="s">
+        <v>222</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA25" t="s">
+        <v>208</v>
+      </c>
+      <c r="EB25">
+        <v>0</v>
+      </c>
+      <c r="EC25">
+        <v>0</v>
+      </c>
+      <c r="ED25" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE25" t="s">
+        <v>197</v>
+      </c>
+      <c r="EF25">
+        <v>0</v>
+      </c>
+      <c r="EG25">
+        <v>0</v>
+      </c>
+      <c r="EH25">
+        <v>0</v>
+      </c>
+      <c r="EI25" t="s">
+        <v>208</v>
+      </c>
+      <c r="EJ25">
+        <v>0</v>
+      </c>
+      <c r="EK25">
+        <v>0</v>
+      </c>
+      <c r="EL25">
+        <v>0</v>
+      </c>
+      <c r="EM25">
+        <v>0</v>
+      </c>
+      <c r="EN25">
+        <v>0</v>
+      </c>
+      <c r="EO25">
+        <v>0</v>
+      </c>
+      <c r="EP25">
+        <v>0</v>
+      </c>
+      <c r="EQ25" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:148">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>176</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>196</v>
+      </c>
+      <c r="X26" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="s">
         <v>250</v>
       </c>
-      <c r="ER21" t="s">
-        <v>251</v>
+      <c r="BZ26" t="s">
+        <v>252</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>197</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <v>0</v>
+      </c>
+      <c r="CK26">
+        <v>0</v>
+      </c>
+      <c r="CL26">
+        <v>0</v>
+      </c>
+      <c r="CM26">
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <v>0</v>
+      </c>
+      <c r="CO26">
+        <v>0</v>
+      </c>
+      <c r="CP26">
+        <v>0</v>
+      </c>
+      <c r="CQ26">
+        <v>0</v>
+      </c>
+      <c r="CR26">
+        <v>0</v>
+      </c>
+      <c r="CS26">
+        <v>0</v>
+      </c>
+      <c r="CT26">
+        <v>0</v>
+      </c>
+      <c r="CU26">
+        <v>0</v>
+      </c>
+      <c r="CV26">
+        <v>0</v>
+      </c>
+      <c r="CW26">
+        <v>0</v>
+      </c>
+      <c r="CX26">
+        <v>0</v>
+      </c>
+      <c r="CY26">
+        <v>0</v>
+      </c>
+      <c r="CZ26">
+        <v>0</v>
+      </c>
+      <c r="DA26">
+        <v>0</v>
+      </c>
+      <c r="DC26">
+        <v>0</v>
+      </c>
+      <c r="DE26">
+        <v>0</v>
+      </c>
+      <c r="DG26">
+        <v>0</v>
+      </c>
+      <c r="DI26">
+        <v>0</v>
+      </c>
+      <c r="DK26">
+        <v>0</v>
+      </c>
+      <c r="DM26">
+        <v>0</v>
+      </c>
+      <c r="DO26">
+        <v>0</v>
+      </c>
+      <c r="DR26">
+        <v>0</v>
+      </c>
+      <c r="DS26" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT26" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU26" t="s">
+        <v>197</v>
+      </c>
+      <c r="DV26" t="s">
+        <v>202</v>
+      </c>
+      <c r="DW26" t="s">
+        <v>202</v>
+      </c>
+      <c r="DX26">
+        <v>0</v>
+      </c>
+      <c r="DZ26" t="s">
+        <v>202</v>
+      </c>
+      <c r="EB26">
+        <v>0</v>
+      </c>
+      <c r="EC26">
+        <v>0</v>
+      </c>
+      <c r="ED26">
+        <v>0</v>
+      </c>
+      <c r="EE26">
+        <v>0</v>
+      </c>
+      <c r="EF26">
+        <v>0</v>
+      </c>
+      <c r="EG26">
+        <v>0</v>
+      </c>
+      <c r="EH26">
+        <v>0</v>
+      </c>
+      <c r="EI26" t="s">
+        <v>197</v>
+      </c>
+      <c r="EJ26" t="s">
+        <v>197</v>
+      </c>
+      <c r="EL26">
+        <v>0</v>
+      </c>
+      <c r="EM26">
+        <v>0</v>
+      </c>
+      <c r="EN26">
+        <v>0</v>
+      </c>
+      <c r="EO26">
+        <v>0</v>
+      </c>
+      <c r="EP26">
+        <v>0</v>
+      </c>
+      <c r="EQ26" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER26" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="273">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -520,7 +520,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>30-34_yrs</t>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
@@ -604,6 +604,9 @@
     <t>Rakodzi Clinic</t>
   </si>
   <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
     <t>Waddilove Clinic</t>
   </si>
   <si>
@@ -625,6 +628,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
@@ -634,9 +640,6 @@
     <t>correction</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -700,7 +703,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>2025-08-07T09:01:51.023207Z</t>
+    <t>2025-08-07T09:47:19.395370Z</t>
   </si>
   <si>
     <t>2025-07-19T10:04:43.558609Z</t>
@@ -772,6 +775,9 @@
     <t>2025-08-06T10:53:58.440194Z</t>
   </si>
   <si>
+    <t>2025-08-07T09:38:58.546918Z</t>
+  </si>
+  <si>
     <t>2025-07-03T06:45:00.666926Z</t>
   </si>
   <si>
@@ -824,6 +830,9 @@
   </si>
   <si>
     <t>Outreach</t>
+  </si>
+  <si>
+    <t>Static</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER28"/>
+  <dimension ref="A1:ER29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1692,10 +1701,10 @@
         <v>180</v>
       </c>
       <c r="X2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1817,23 +1826,23 @@
       <c r="BN2">
         <v>0</v>
       </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
+      <c r="BO2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>211</v>
       </c>
       <c r="BR2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>200</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1848,28 +1857,28 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BZ2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CA2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
+      <c r="CD2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>200</v>
       </c>
       <c r="CG2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1883,17 +1892,17 @@
       <c r="CK2">
         <v>0</v>
       </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
+      <c r="CL2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>211</v>
       </c>
       <c r="CO2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CP2">
         <v>0</v>
@@ -1956,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU2">
         <v>0</v>
       </c>
       <c r="DV2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DW2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
       <c r="DZ2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -2001,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -2025,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -2099,34 +2108,34 @@
         <v>166</v>
       </c>
       <c r="Y3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF3" t="s">
         <v>210</v>
       </c>
-      <c r="AB3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>209</v>
-      </c>
       <c r="AG3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AH3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2225,70 +2234,70 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BP3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU3" t="s">
         <v>210</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>212</v>
-      </c>
-      <c r="BR3" t="s">
+      <c r="BV3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>213</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="s">
         <v>210</v>
       </c>
-      <c r="BS3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>209</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>256</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>212</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>209</v>
-      </c>
       <c r="CK3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CL3">
         <v>0</v>
@@ -2363,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DV3" t="s">
         <v>157</v>
@@ -2381,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DZ3" t="s">
         <v>157</v>
       </c>
       <c r="EA3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB3">
         <v>0</v>
@@ -2411,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -2432,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2500,10 +2509,10 @@
         <v>181</v>
       </c>
       <c r="X4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2629,13 +2638,13 @@
         <v>165</v>
       </c>
       <c r="BP4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BQ4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BR4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BS4">
         <v>0</v>
@@ -2656,28 +2665,28 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BZ4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="CA4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CE4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CF4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CG4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2695,13 +2704,13 @@
         <v>165</v>
       </c>
       <c r="CM4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CN4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CO4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CP4">
         <v>0</v>
@@ -2764,28 +2773,28 @@
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DV4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="DW4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DZ4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2809,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EK4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2833,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2901,16 +2910,16 @@
         <v>163</v>
       </c>
       <c r="Y5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2934,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AK5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2982,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -3057,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BZ5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="CA5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CB5" t="s">
         <v>176</v>
@@ -3144,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="DB5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -3171,22 +3180,22 @@
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DW5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DX5">
         <v>0</v>
       </c>
       <c r="DZ5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="EB5">
         <v>0</v>
@@ -3210,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="EJ5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EK5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL5">
         <v>0</v>
@@ -3234,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3308,22 +3317,22 @@
         <v>182</v>
       </c>
       <c r="X6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA6" t="s">
         <v>159</v>
       </c>
       <c r="AB6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AC6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -3338,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -3392,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BA6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3437,16 +3446,16 @@
         <v>0</v>
       </c>
       <c r="BO6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BP6" t="s">
         <v>159</v>
       </c>
       <c r="BQ6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BR6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BS6">
         <v>0</v>
@@ -3467,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BZ6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CA6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CB6" t="s">
         <v>170</v>
@@ -3482,16 +3491,16 @@
         <v>0</v>
       </c>
       <c r="CD6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CE6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CF6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CG6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CH6">
         <v>0</v>
@@ -3506,112 +3515,112 @@
         <v>0</v>
       </c>
       <c r="CL6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CM6" t="s">
         <v>159</v>
       </c>
       <c r="CN6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CO6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>208</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>215</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>201</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>201</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="s">
         <v>210</v>
       </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>207</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>214</v>
-      </c>
-      <c r="DE6">
-        <v>0</v>
-      </c>
-      <c r="DG6">
-        <v>0</v>
-      </c>
-      <c r="DI6">
-        <v>0</v>
-      </c>
-      <c r="DK6">
-        <v>0</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DO6">
-        <v>0</v>
-      </c>
-      <c r="DR6">
-        <v>0</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>199</v>
-      </c>
-      <c r="DU6">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>200</v>
-      </c>
-      <c r="DX6">
-        <v>0</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>199</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>200</v>
-      </c>
-      <c r="EB6">
-        <v>0</v>
-      </c>
-      <c r="EC6">
-        <v>0</v>
-      </c>
-      <c r="ED6" t="s">
-        <v>209</v>
-      </c>
       <c r="EE6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EF6">
         <v>0</v>
@@ -3623,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3647,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3712,10 +3721,10 @@
         <v>183</v>
       </c>
       <c r="X7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -3748,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="AK7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -3796,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="BA7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -3868,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BZ7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="CA7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CB7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="CC7">
         <v>0</v>
@@ -3958,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="DD7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="DE7">
         <v>0</v>
@@ -3982,28 +3991,28 @@
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DV7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="DW7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="DX7">
         <v>0</v>
       </c>
       <c r="DZ7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="EB7">
         <v>0</v>
@@ -4027,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="EJ7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EK7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL7">
         <v>0</v>
@@ -4051,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4122,10 +4131,10 @@
         <v>184</v>
       </c>
       <c r="X8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -4251,25 +4260,25 @@
         <v>165</v>
       </c>
       <c r="BP8" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>228</v>
+      </c>
+      <c r="BT8" t="s">
         <v>224</v>
       </c>
-      <c r="BQ8" t="s">
-        <v>225</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>226</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>227</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>223</v>
-      </c>
       <c r="BU8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BV8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -4278,37 +4287,37 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BZ8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CA8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CE8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CF8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CG8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CH8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CI8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CJ8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CK8">
         <v>0</v>
@@ -4317,22 +4326,22 @@
         <v>165</v>
       </c>
       <c r="CM8" t="s">
+        <v>225</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>226</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>227</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>228</v>
+      </c>
+      <c r="CQ8" t="s">
         <v>224</v>
       </c>
-      <c r="CN8" t="s">
-        <v>225</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>226</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>227</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>223</v>
-      </c>
       <c r="CR8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CS8">
         <v>0</v>
@@ -4386,10 +4395,10 @@
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU8">
         <v>0</v>
@@ -4404,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DZ8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA8" t="s">
         <v>158</v>
@@ -4434,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ8">
         <v>0</v>
@@ -4458,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4529,7 +4538,7 @@
         <v>160</v>
       </c>
       <c r="Y9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z9" t="s">
         <v>160</v>
@@ -4655,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -4685,19 +4694,19 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BZ9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CA9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -4721,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="CL9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CM9">
         <v>0</v>
@@ -4793,28 +4802,28 @@
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
       <c r="DV9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="DW9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DZ9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4838,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ9">
         <v>0</v>
@@ -4862,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4942,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -5068,25 +5077,25 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BP10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BQ10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BR10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BS10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BT10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BU10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -5095,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BZ10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -5245,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="DW10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DX10">
         <v>0</v>
@@ -5305,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5376,26 +5385,26 @@
         <v>159</v>
       </c>
       <c r="Y11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD11" t="s">
         <v>210</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
         <v>210</v>
       </c>
-      <c r="AC11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>209</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5532,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BZ11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="CA11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CC11">
         <v>0</v>
@@ -5640,13 +5649,13 @@
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DV11" t="s">
         <v>159</v>
@@ -5661,10 +5670,10 @@
         <v>159</v>
       </c>
       <c r="DZ11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB11">
         <v>0</v>
@@ -5688,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EK11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL11">
         <v>0</v>
@@ -5712,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5786,286 +5795,286 @@
         <v>186</v>
       </c>
       <c r="X12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC12" t="s">
         <v>212</v>
       </c>
-      <c r="AB12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
         <v>211</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>213</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>206</v>
+      </c>
+      <c r="BR12" t="s">
         <v>212</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="BS12" t="s">
+        <v>203</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="s">
         <v>210</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="s">
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>239</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>261</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>203</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>213</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>206</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>212</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="s">
         <v>210</v>
       </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>202</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>212</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR12" t="s">
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="s">
         <v>211</v>
       </c>
-      <c r="BS12" t="s">
-        <v>202</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>209</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>238</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>259</v>
-      </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>202</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>212</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>204</v>
-      </c>
-      <c r="CW12" t="s">
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DJ12" t="s">
         <v>211</v>
       </c>
-      <c r="CX12" t="s">
-        <v>202</v>
-      </c>
-      <c r="CY12">
-        <v>0</v>
-      </c>
-      <c r="CZ12">
-        <v>0</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>209</v>
-      </c>
-      <c r="DC12">
-        <v>0</v>
-      </c>
-      <c r="DD12" t="s">
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DP12" t="s">
         <v>210</v>
       </c>
-      <c r="DE12">
-        <v>0</v>
-      </c>
-      <c r="DG12">
-        <v>0</v>
-      </c>
-      <c r="DI12">
-        <v>0</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK12">
-        <v>0</v>
-      </c>
-      <c r="DM12">
-        <v>0</v>
-      </c>
-      <c r="DO12">
-        <v>0</v>
-      </c>
-      <c r="DP12" t="s">
-        <v>209</v>
-      </c>
       <c r="DR12">
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU12">
         <v>0</v>
@@ -6080,10 +6089,10 @@
         <v>160</v>
       </c>
       <c r="DZ12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB12">
         <v>0</v>
@@ -6092,10 +6101,10 @@
         <v>0</v>
       </c>
       <c r="ED12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EE12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EF12">
         <v>0</v>
@@ -6107,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="EI12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="EJ12">
         <v>0</v>
@@ -6131,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6208,269 +6217,269 @@
         <v>157</v>
       </c>
       <c r="Y13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL13" t="s">
         <v>210</v>
       </c>
-      <c r="AA13" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS13" t="s">
         <v>213</v>
       </c>
-      <c r="AC13" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>240</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>211</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>214</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>213</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>211</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DJ13" t="s">
         <v>212</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>210</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>202</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>213</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>202</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>212</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>239</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>260</v>
-      </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CI13">
-        <v>0</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
-      </c>
-      <c r="CK13">
-        <v>0</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ13">
-        <v>0</v>
-      </c>
-      <c r="CR13">
-        <v>0</v>
-      </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CU13" t="s">
-        <v>202</v>
-      </c>
-      <c r="CV13" t="s">
-        <v>213</v>
-      </c>
-      <c r="CW13" t="s">
-        <v>202</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CY13">
-        <v>0</v>
-      </c>
-      <c r="CZ13">
-        <v>0</v>
-      </c>
-      <c r="DA13">
-        <v>0</v>
-      </c>
-      <c r="DC13">
-        <v>0</v>
-      </c>
-      <c r="DD13" t="s">
-        <v>210</v>
-      </c>
-      <c r="DE13">
-        <v>0</v>
-      </c>
-      <c r="DF13" t="s">
-        <v>209</v>
-      </c>
-      <c r="DG13">
-        <v>0</v>
-      </c>
-      <c r="DI13">
-        <v>0</v>
-      </c>
-      <c r="DJ13" t="s">
-        <v>211</v>
-      </c>
       <c r="DK13">
         <v>0</v>
       </c>
@@ -6484,16 +6493,16 @@
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU13">
         <v>0</v>
       </c>
       <c r="DV13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="DW13" t="s">
         <v>157</v>
@@ -6505,10 +6514,10 @@
         <v>157</v>
       </c>
       <c r="DZ13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB13">
         <v>0</v>
@@ -6532,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="EI13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EJ13">
         <v>0</v>
@@ -6556,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6621,10 +6630,10 @@
         <v>188</v>
       </c>
       <c r="X14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -6654,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -6702,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -6777,13 +6786,13 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BZ14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CA14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CB14" t="s">
         <v>171</v>
@@ -6864,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="DB14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DC14">
         <v>0</v>
@@ -6891,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU14">
         <v>0</v>
@@ -6909,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="DZ14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA14" t="s">
         <v>160</v>
@@ -6936,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="EI14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ14">
         <v>0</v>
@@ -6960,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:148">
@@ -7031,10 +7040,10 @@
         <v>189</v>
       </c>
       <c r="X15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -7157,13 +7166,13 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BP15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BQ15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BR15">
         <v>0</v>
@@ -7172,88 +7181,88 @@
         <v>0</v>
       </c>
       <c r="BT15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>242</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>259</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="s">
         <v>210</v>
       </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
-      <c r="BV15">
-        <v>0</v>
-      </c>
-      <c r="BW15">
-        <v>0</v>
-      </c>
-      <c r="BX15">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>241</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>257</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC15">
-        <v>0</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG15">
-        <v>0</v>
-      </c>
-      <c r="CH15">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CJ15">
-        <v>0</v>
-      </c>
-      <c r="CK15">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>199</v>
-      </c>
-      <c r="CR15">
-        <v>0</v>
-      </c>
-      <c r="CS15">
-        <v>0</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>209</v>
-      </c>
       <c r="CU15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CV15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="CW15">
         <v>0</v>
@@ -7262,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="CY15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CZ15">
         <v>0</v>
@@ -7295,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DV15" t="s">
         <v>161</v>
@@ -7316,10 +7325,10 @@
         <v>161</v>
       </c>
       <c r="DZ15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB15">
         <v>0</v>
@@ -7343,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="EI15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL15">
         <v>0</v>
@@ -7364,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -7444,289 +7453,289 @@
         <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z16" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD16" t="s">
         <v>211</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="s">
         <v>212</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="BP16" t="s">
+        <v>213</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>213</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>260</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>200</v>
+      </c>
+      <c r="CT16" t="s">
         <v>212</v>
       </c>
-      <c r="AC16" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="CU16" t="s">
+        <v>213</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>213</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>213</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="s">
         <v>210</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>212</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>212</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>212</v>
-      </c>
-      <c r="BS16" t="s">
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="s">
         <v>210</v>
       </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>209</v>
-      </c>
-      <c r="BW16">
-        <v>0</v>
-      </c>
-      <c r="BX16">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>242</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>258</v>
-      </c>
-      <c r="CC16">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CI16">
-        <v>0</v>
-      </c>
-      <c r="CJ16">
-        <v>0</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ16">
-        <v>0</v>
-      </c>
-      <c r="CR16">
-        <v>0</v>
-      </c>
-      <c r="CS16" t="s">
-        <v>199</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>211</v>
-      </c>
-      <c r="CU16" t="s">
-        <v>212</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>212</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>212</v>
-      </c>
-      <c r="CX16" t="s">
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="s">
         <v>210</v>
       </c>
-      <c r="CY16">
-        <v>0</v>
-      </c>
-      <c r="CZ16">
-        <v>0</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>209</v>
-      </c>
-      <c r="DC16">
-        <v>0</v>
-      </c>
-      <c r="DD16" t="s">
-        <v>209</v>
-      </c>
-      <c r="DE16">
-        <v>0</v>
-      </c>
-      <c r="DG16">
-        <v>0</v>
-      </c>
-      <c r="DI16">
-        <v>0</v>
-      </c>
-      <c r="DK16">
-        <v>0</v>
-      </c>
-      <c r="DM16">
-        <v>0</v>
-      </c>
-      <c r="DO16">
-        <v>0</v>
-      </c>
-      <c r="DP16" t="s">
-        <v>209</v>
-      </c>
       <c r="DR16">
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU16">
         <v>0</v>
       </c>
       <c r="DV16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="DW16" t="s">
         <v>162</v>
@@ -7738,10 +7747,10 @@
         <v>162</v>
       </c>
       <c r="DZ16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB16">
         <v>0</v>
@@ -7750,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="ED16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EE16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EF16">
         <v>0</v>
@@ -7765,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="EI16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -7789,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -7857,10 +7866,10 @@
         <v>190</v>
       </c>
       <c r="X17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -7890,13 +7899,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -8010,16 +8019,16 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BZ17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="CA17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CB17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="CC17">
         <v>0</v>
@@ -8121,22 +8130,22 @@
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DW17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DX17">
         <v>0</v>
       </c>
       <c r="DZ17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="EB17">
         <v>0</v>
@@ -8160,13 +8169,13 @@
         <v>0</v>
       </c>
       <c r="EI17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="EJ17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EK17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL17">
         <v>0</v>
@@ -8184,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -8264,289 +8273,289 @@
         <v>163</v>
       </c>
       <c r="Y18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB18" t="s">
         <v>212</v>
       </c>
-      <c r="AA18" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN18" t="s">
         <v>211</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>212</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>213</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>200</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>213</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>206</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>212</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>212</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>213</v>
+      </c>
+      <c r="CY18">
+        <v>0</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>210</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>210</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>210</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DH18" t="s">
+        <v>200</v>
+      </c>
+      <c r="DI18">
+        <v>0</v>
+      </c>
+      <c r="DJ18" t="s">
         <v>211</v>
       </c>
-      <c r="AD18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN18" t="s">
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <v>0</v>
+      </c>
+      <c r="DP18" t="s">
         <v>210</v>
       </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>212</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>211</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>212</v>
-      </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
-      <c r="BU18">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>209</v>
-      </c>
-      <c r="BW18">
-        <v>0</v>
-      </c>
-      <c r="BX18">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>244</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>262</v>
-      </c>
-      <c r="CC18">
-        <v>0</v>
-      </c>
-      <c r="CD18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CI18">
-        <v>0</v>
-      </c>
-      <c r="CJ18">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CL18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ18">
-        <v>0</v>
-      </c>
-      <c r="CR18">
-        <v>0</v>
-      </c>
-      <c r="CS18" t="s">
-        <v>199</v>
-      </c>
-      <c r="CT18" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU18" t="s">
-        <v>204</v>
-      </c>
-      <c r="CV18" t="s">
-        <v>211</v>
-      </c>
-      <c r="CW18" t="s">
-        <v>211</v>
-      </c>
-      <c r="CX18" t="s">
-        <v>212</v>
-      </c>
-      <c r="CY18">
-        <v>0</v>
-      </c>
-      <c r="CZ18">
-        <v>0</v>
-      </c>
-      <c r="DA18" t="s">
-        <v>209</v>
-      </c>
-      <c r="DB18" t="s">
-        <v>209</v>
-      </c>
-      <c r="DC18">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="s">
-        <v>209</v>
-      </c>
-      <c r="DE18">
-        <v>0</v>
-      </c>
-      <c r="DG18">
-        <v>0</v>
-      </c>
-      <c r="DH18" t="s">
-        <v>199</v>
-      </c>
-      <c r="DI18">
-        <v>0</v>
-      </c>
-      <c r="DJ18" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK18">
-        <v>0</v>
-      </c>
-      <c r="DM18">
-        <v>0</v>
-      </c>
-      <c r="DO18">
-        <v>0</v>
-      </c>
-      <c r="DP18" t="s">
-        <v>209</v>
-      </c>
       <c r="DR18">
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU18">
         <v>0</v>
@@ -8561,10 +8570,10 @@
         <v>163</v>
       </c>
       <c r="DZ18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB18">
         <v>0</v>
@@ -8573,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="ED18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EE18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EF18">
         <v>0</v>
@@ -8588,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="EI18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="EJ18">
         <v>0</v>
@@ -8612,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER18">
         <v>0</v>
@@ -8686,235 +8695,235 @@
         <v>164</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC19" t="s">
         <v>212</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP19" t="s">
         <v>213</v>
       </c>
-      <c r="AC19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <v>0</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>202</v>
-      </c>
-      <c r="BP19" t="s">
+      <c r="BQ19" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR19" t="s">
         <v>212</v>
       </c>
-      <c r="BQ19" t="s">
+      <c r="BS19" t="s">
+        <v>212</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>246</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>203</v>
+      </c>
+      <c r="CU19" t="s">
         <v>213</v>
       </c>
-      <c r="BR19" t="s">
-        <v>211</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>211</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
-      <c r="BV19">
-        <v>0</v>
-      </c>
-      <c r="BW19">
-        <v>0</v>
-      </c>
-      <c r="BX19">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="s">
-        <v>245</v>
-      </c>
-      <c r="BZ19" t="s">
-        <v>256</v>
-      </c>
-      <c r="CA19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC19">
-        <v>0</v>
-      </c>
-      <c r="CD19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CI19">
-        <v>0</v>
-      </c>
-      <c r="CJ19">
-        <v>0</v>
-      </c>
-      <c r="CK19">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP19" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ19">
-        <v>0</v>
-      </c>
-      <c r="CR19">
-        <v>0</v>
-      </c>
-      <c r="CS19">
-        <v>0</v>
-      </c>
-      <c r="CT19" t="s">
-        <v>202</v>
-      </c>
-      <c r="CU19" t="s">
+      <c r="CV19" t="s">
+        <v>214</v>
+      </c>
+      <c r="CW19" t="s">
         <v>212</v>
       </c>
-      <c r="CV19" t="s">
-        <v>213</v>
-      </c>
-      <c r="CW19" t="s">
-        <v>211</v>
-      </c>
       <c r="CX19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CY19">
         <v>0</v>
@@ -8950,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DV19" t="s">
         <v>164</v>
@@ -8971,10 +8980,10 @@
         <v>164</v>
       </c>
       <c r="DZ19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB19">
         <v>0</v>
@@ -8998,13 +9007,13 @@
         <v>0</v>
       </c>
       <c r="EI19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EK19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL19">
         <v>0</v>
@@ -9022,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="EQ19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER19">
         <v>0</v>
@@ -9099,232 +9108,232 @@
         <v>165</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AC20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ20" t="s">
         <v>213</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
-      </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>209</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>202</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>212</v>
-      </c>
       <c r="BR20" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>247</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>210</v>
+      </c>
+      <c r="CU20" t="s">
+        <v>203</v>
+      </c>
+      <c r="CV20" t="s">
         <v>213</v>
       </c>
-      <c r="BS20">
-        <v>0</v>
-      </c>
-      <c r="BT20">
-        <v>0</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
-      </c>
-      <c r="BV20">
-        <v>0</v>
-      </c>
-      <c r="BW20">
-        <v>0</v>
-      </c>
-      <c r="BX20">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="s">
-        <v>246</v>
-      </c>
-      <c r="BZ20" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC20">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH20">
-        <v>0</v>
-      </c>
-      <c r="CI20">
-        <v>0</v>
-      </c>
-      <c r="CJ20">
-        <v>0</v>
-      </c>
-      <c r="CK20">
-        <v>0</v>
-      </c>
-      <c r="CL20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO20" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP20">
-        <v>0</v>
-      </c>
-      <c r="CQ20">
-        <v>0</v>
-      </c>
-      <c r="CR20">
-        <v>0</v>
-      </c>
-      <c r="CS20">
-        <v>0</v>
-      </c>
-      <c r="CT20" t="s">
-        <v>209</v>
-      </c>
-      <c r="CU20" t="s">
-        <v>202</v>
-      </c>
-      <c r="CV20" t="s">
-        <v>212</v>
-      </c>
       <c r="CW20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CX20">
         <v>0</v>
@@ -9363,10 +9372,10 @@
         <v>0</v>
       </c>
       <c r="DS20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU20">
         <v>0</v>
@@ -9384,10 +9393,10 @@
         <v>165</v>
       </c>
       <c r="DZ20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB20">
         <v>0</v>
@@ -9396,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="ED20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EE20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EF20">
         <v>0</v>
@@ -9411,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="EI20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ20">
         <v>0</v>
@@ -9435,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="EQ20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER20">
         <v>0</v>
@@ -9509,44 +9518,44 @@
         <v>166</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC21" t="s">
         <v>211</v>
       </c>
-      <c r="AA21" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
         <v>210</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>209</v>
-      </c>
       <c r="AL21">
         <v>0</v>
       </c>
@@ -9593,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="BA21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BB21">
         <v>0</v>
@@ -9635,128 +9644,128 @@
         <v>0</v>
       </c>
       <c r="BO21" t="s">
+        <v>212</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>206</v>
+      </c>
+      <c r="BR21" t="s">
         <v>211</v>
       </c>
-      <c r="BP21" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR21" t="s">
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>248</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>260</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU21" t="s">
+        <v>206</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>206</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>211</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="s">
         <v>210</v>
       </c>
-      <c r="BS21">
-        <v>0</v>
-      </c>
-      <c r="BT21">
-        <v>0</v>
-      </c>
-      <c r="BU21">
-        <v>0</v>
-      </c>
-      <c r="BV21">
-        <v>0</v>
-      </c>
-      <c r="BW21">
-        <v>0</v>
-      </c>
-      <c r="BX21">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>247</v>
-      </c>
-      <c r="BZ21" t="s">
-        <v>256</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>258</v>
-      </c>
-      <c r="CC21">
-        <v>0</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH21">
-        <v>0</v>
-      </c>
-      <c r="CI21">
-        <v>0</v>
-      </c>
-      <c r="CJ21">
-        <v>0</v>
-      </c>
-      <c r="CK21">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO21" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP21">
-        <v>0</v>
-      </c>
-      <c r="CQ21">
-        <v>0</v>
-      </c>
-      <c r="CR21">
-        <v>0</v>
-      </c>
-      <c r="CS21">
-        <v>0</v>
-      </c>
-      <c r="CT21" t="s">
-        <v>211</v>
-      </c>
-      <c r="CU21" t="s">
-        <v>204</v>
-      </c>
-      <c r="CV21" t="s">
-        <v>204</v>
-      </c>
-      <c r="CW21" t="s">
-        <v>210</v>
-      </c>
-      <c r="CX21">
-        <v>0</v>
-      </c>
-      <c r="CY21">
-        <v>0</v>
-      </c>
-      <c r="CZ21">
-        <v>0</v>
-      </c>
-      <c r="DA21">
-        <v>0</v>
-      </c>
-      <c r="DC21">
-        <v>0</v>
-      </c>
-      <c r="DD21" t="s">
-        <v>209</v>
-      </c>
       <c r="DE21">
         <v>0</v>
       </c>
@@ -9779,13 +9788,13 @@
         <v>0</v>
       </c>
       <c r="DS21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DV21" t="s">
         <v>162</v>
@@ -9800,10 +9809,10 @@
         <v>166</v>
       </c>
       <c r="DZ21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB21">
         <v>0</v>
@@ -9827,13 +9836,13 @@
         <v>0</v>
       </c>
       <c r="EI21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="EJ21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EK21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL21">
         <v>0</v>
@@ -9851,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="EQ21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER21">
         <v>0</v>
@@ -9916,19 +9925,19 @@
         <v>193</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -10075,13 +10084,13 @@
         <v>0</v>
       </c>
       <c r="BY22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BZ22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="CA22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CC22">
         <v>0</v>
@@ -10183,25 +10192,25 @@
         <v>0</v>
       </c>
       <c r="DS22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DV22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DW22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DX22">
         <v>0</v>
       </c>
       <c r="DZ22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="EB22">
         <v>0</v>
@@ -10225,10 +10234,10 @@
         <v>0</v>
       </c>
       <c r="EI22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EL22">
         <v>0</v>
@@ -10246,10 +10255,10 @@
         <v>0</v>
       </c>
       <c r="EQ22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:148">
@@ -10311,10 +10320,10 @@
         <v>193</v>
       </c>
       <c r="X23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -10344,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -10392,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BA23">
         <v>0</v>
@@ -10467,13 +10476,13 @@
         <v>0</v>
       </c>
       <c r="BY23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BZ23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CA23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CB23" t="s">
         <v>171</v>
@@ -10554,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="DB23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DC23">
         <v>0</v>
@@ -10581,10 +10590,10 @@
         <v>0</v>
       </c>
       <c r="DS23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU23">
         <v>0</v>
@@ -10599,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="DZ23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA23" t="s">
         <v>163</v>
@@ -10626,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="EI23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ23">
         <v>0</v>
@@ -10650,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="EQ23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:148">
@@ -10727,235 +10736,235 @@
         <v>164</v>
       </c>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AC24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AD24" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="s">
         <v>210</v>
       </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <v>0</v>
-      </c>
-      <c r="BF24">
-        <v>0</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <v>0</v>
-      </c>
-      <c r="BI24">
-        <v>0</v>
-      </c>
-      <c r="BJ24">
-        <v>0</v>
-      </c>
-      <c r="BK24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BM24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
-        <v>0</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>209</v>
-      </c>
       <c r="BP24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BQ24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BR24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BS24" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>257</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
+        <v>0</v>
+      </c>
+      <c r="CK24">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ24">
+        <v>0</v>
+      </c>
+      <c r="CR24">
+        <v>0</v>
+      </c>
+      <c r="CS24">
+        <v>0</v>
+      </c>
+      <c r="CT24" t="s">
         <v>210</v>
       </c>
-      <c r="BT24">
-        <v>0</v>
-      </c>
-      <c r="BU24">
-        <v>0</v>
-      </c>
-      <c r="BV24">
-        <v>0</v>
-      </c>
-      <c r="BW24">
-        <v>0</v>
-      </c>
-      <c r="BX24">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="s">
-        <v>250</v>
-      </c>
-      <c r="BZ24" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC24">
-        <v>0</v>
-      </c>
-      <c r="CD24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CI24">
-        <v>0</v>
-      </c>
-      <c r="CJ24">
-        <v>0</v>
-      </c>
-      <c r="CK24">
-        <v>0</v>
-      </c>
-      <c r="CL24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP24" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ24">
-        <v>0</v>
-      </c>
-      <c r="CR24">
-        <v>0</v>
-      </c>
-      <c r="CS24">
-        <v>0</v>
-      </c>
-      <c r="CT24" t="s">
-        <v>209</v>
-      </c>
       <c r="CU24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="CV24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CW24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="CX24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CY24">
         <v>0</v>
@@ -10991,10 +11000,10 @@
         <v>0</v>
       </c>
       <c r="DS24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU24">
         <v>0</v>
@@ -11012,10 +11021,10 @@
         <v>164</v>
       </c>
       <c r="DZ24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB24">
         <v>0</v>
@@ -11024,10 +11033,10 @@
         <v>0</v>
       </c>
       <c r="ED24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EE24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EF24">
         <v>0</v>
@@ -11039,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="EI24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ24">
         <v>0</v>
@@ -11063,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="EQ24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER24">
         <v>0</v>
@@ -11140,22 +11149,22 @@
         <v>159</v>
       </c>
       <c r="Y25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB25" t="s">
         <v>210</v>
       </c>
-      <c r="AB25" t="s">
-        <v>209</v>
-      </c>
       <c r="AC25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AD25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -11167,25 +11176,25 @@
         <v>0</v>
       </c>
       <c r="AH25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -11221,19 +11230,19 @@
         <v>0</v>
       </c>
       <c r="AZ25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BA25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BB25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BC25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BD25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BE25">
         <v>0</v>
@@ -11266,19 +11275,19 @@
         <v>0</v>
       </c>
       <c r="BO25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BP25" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ25" t="s">
         <v>210</v>
       </c>
-      <c r="BQ25" t="s">
-        <v>209</v>
-      </c>
       <c r="BR25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BS25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BT25">
         <v>0</v>
@@ -11296,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="BY25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BZ25" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CA25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CB25" t="s">
         <v>173</v>
@@ -11311,19 +11320,19 @@
         <v>0</v>
       </c>
       <c r="CD25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CE25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CF25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CG25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CH25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CI25">
         <v>0</v>
@@ -11335,19 +11344,19 @@
         <v>0</v>
       </c>
       <c r="CL25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CM25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CN25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CO25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CP25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CQ25">
         <v>0</v>
@@ -11359,19 +11368,19 @@
         <v>0</v>
       </c>
       <c r="CT25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CU25" t="s">
+        <v>211</v>
+      </c>
+      <c r="CV25" t="s">
         <v>210</v>
       </c>
-      <c r="CV25" t="s">
-        <v>209</v>
-      </c>
       <c r="CW25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CX25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CY25">
         <v>0</v>
@@ -11383,31 +11392,31 @@
         <v>0</v>
       </c>
       <c r="DB25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DC25">
         <v>0</v>
       </c>
       <c r="DD25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DE25">
         <v>0</v>
       </c>
       <c r="DF25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DG25">
         <v>0</v>
       </c>
       <c r="DH25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DI25">
         <v>0</v>
       </c>
       <c r="DJ25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DK25">
         <v>0</v>
@@ -11422,10 +11431,10 @@
         <v>0</v>
       </c>
       <c r="DS25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DT25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DU25">
         <v>0</v>
@@ -11443,10 +11452,10 @@
         <v>159</v>
       </c>
       <c r="DZ25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EA25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EB25">
         <v>0</v>
@@ -11455,10 +11464,10 @@
         <v>0</v>
       </c>
       <c r="ED25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EE25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EF25">
         <v>0</v>
@@ -11470,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="EI25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EJ25">
         <v>0</v>
@@ -11494,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="EQ25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER25">
         <v>0</v>
@@ -11514,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -11526,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -11536,9 +11545,6 @@
       </c>
       <c r="N26">
         <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>176</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -11562,19 +11568,19 @@
         <v>196</v>
       </c>
       <c r="X26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z26" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="AA26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AB26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -11597,14 +11603,14 @@
       <c r="AI26">
         <v>0</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>211</v>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -11645,8 +11651,8 @@
       <c r="AY26">
         <v>0</v>
       </c>
-      <c r="AZ26" t="s">
-        <v>199</v>
+      <c r="AZ26">
+        <v>0</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -11690,14 +11696,14 @@
       <c r="BN26">
         <v>0</v>
       </c>
-      <c r="BO26" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>214</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>211</v>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
       </c>
       <c r="BR26">
         <v>0</v>
@@ -11721,28 +11727,25 @@
         <v>0</v>
       </c>
       <c r="BY26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BZ26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA26" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB26" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="CC26">
         <v>0</v>
       </c>
-      <c r="CD26" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE26" t="s">
-        <v>214</v>
-      </c>
-      <c r="CF26" t="s">
-        <v>211</v>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
       </c>
       <c r="CG26">
         <v>0</v>
@@ -11807,9 +11810,6 @@
       <c r="DA26">
         <v>0</v>
       </c>
-      <c r="DB26" t="s">
-        <v>212</v>
-      </c>
       <c r="DC26">
         <v>0</v>
       </c>
@@ -11835,19 +11835,28 @@
         <v>0</v>
       </c>
       <c r="DS26" t="s">
-        <v>199</v>
-      </c>
-      <c r="DU26" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="DT26" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU26">
+        <v>0</v>
+      </c>
+      <c r="DV26" t="s">
+        <v>160</v>
       </c>
       <c r="DW26" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="DX26">
         <v>0</v>
       </c>
       <c r="DZ26" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="EA26" t="s">
+        <v>160</v>
       </c>
       <c r="EB26">
         <v>0</v>
@@ -11871,13 +11880,13 @@
         <v>0</v>
       </c>
       <c r="EI26" t="s">
-        <v>161</v>
-      </c>
-      <c r="EJ26" t="s">
-        <v>199</v>
-      </c>
-      <c r="EK26" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="EJ26">
+        <v>0</v>
+      </c>
+      <c r="EK26">
+        <v>0</v>
       </c>
       <c r="EL26">
         <v>0</v>
@@ -11895,10 +11904,10 @@
         <v>0</v>
       </c>
       <c r="EQ26" t="s">
-        <v>268</v>
-      </c>
-      <c r="ER26">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="ER26" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:148">
@@ -11927,10 +11936,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -11942,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -11959,9 +11965,6 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27" t="s">
-        <v>179</v>
-      </c>
       <c r="V27">
         <v>0</v>
       </c>
@@ -11969,298 +11972,292 @@
         <v>197</v>
       </c>
       <c r="X27" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>215</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>212</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>254</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>212</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>0</v>
+      </c>
+      <c r="CI27">
+        <v>0</v>
+      </c>
+      <c r="CJ27">
+        <v>0</v>
+      </c>
+      <c r="CK27">
+        <v>0</v>
+      </c>
+      <c r="CL27">
+        <v>0</v>
+      </c>
+      <c r="CM27">
+        <v>0</v>
+      </c>
+      <c r="CN27">
+        <v>0</v>
+      </c>
+      <c r="CO27">
+        <v>0</v>
+      </c>
+      <c r="CP27">
+        <v>0</v>
+      </c>
+      <c r="CQ27">
+        <v>0</v>
+      </c>
+      <c r="CR27">
+        <v>0</v>
+      </c>
+      <c r="CS27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>0</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DA27">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="s">
+        <v>213</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DI27">
+        <v>0</v>
+      </c>
+      <c r="DK27">
+        <v>0</v>
+      </c>
+      <c r="DM27">
+        <v>0</v>
+      </c>
+      <c r="DO27">
+        <v>0</v>
+      </c>
+      <c r="DR27">
+        <v>0</v>
+      </c>
+      <c r="DS27" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU27" t="s">
+        <v>200</v>
+      </c>
+      <c r="DW27" t="s">
         <v>205</v>
       </c>
-      <c r="Z27" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
-      <c r="BI27">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BK27">
-        <v>0</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
-      </c>
-      <c r="BN27">
-        <v>0</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>204</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>212</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>215</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>212</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>211</v>
-      </c>
-      <c r="BT27">
-        <v>0</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>209</v>
-      </c>
-      <c r="BV27">
-        <v>0</v>
-      </c>
-      <c r="BW27">
-        <v>0</v>
-      </c>
-      <c r="BX27">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="s">
-        <v>253</v>
-      </c>
-      <c r="BZ27" t="s">
-        <v>255</v>
-      </c>
-      <c r="CA27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB27" t="s">
-        <v>263</v>
-      </c>
-      <c r="CC27">
-        <v>0</v>
-      </c>
-      <c r="CD27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CE27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CF27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CI27">
-        <v>0</v>
-      </c>
-      <c r="CJ27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CK27">
-        <v>0</v>
-      </c>
-      <c r="CL27" t="s">
-        <v>210</v>
-      </c>
-      <c r="CM27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ27">
-        <v>0</v>
-      </c>
-      <c r="CR27" t="s">
-        <v>199</v>
-      </c>
-      <c r="CS27">
-        <v>0</v>
-      </c>
-      <c r="CT27" t="s">
-        <v>213</v>
-      </c>
-      <c r="CU27" t="s">
-        <v>212</v>
-      </c>
-      <c r="CV27" t="s">
-        <v>215</v>
-      </c>
-      <c r="CW27" t="s">
-        <v>212</v>
-      </c>
-      <c r="CX27" t="s">
-        <v>211</v>
-      </c>
-      <c r="CY27">
-        <v>0</v>
-      </c>
-      <c r="CZ27" t="s">
-        <v>209</v>
-      </c>
-      <c r="DA27">
-        <v>0</v>
-      </c>
-      <c r="DC27">
-        <v>0</v>
-      </c>
-      <c r="DE27">
-        <v>0</v>
-      </c>
-      <c r="DF27" t="s">
-        <v>209</v>
-      </c>
-      <c r="DG27">
-        <v>0</v>
-      </c>
-      <c r="DI27">
-        <v>0</v>
-      </c>
-      <c r="DK27">
-        <v>0</v>
-      </c>
-      <c r="DM27">
-        <v>0</v>
-      </c>
-      <c r="DO27">
-        <v>0</v>
-      </c>
-      <c r="DR27">
-        <v>0</v>
-      </c>
-      <c r="DS27" t="s">
-        <v>199</v>
-      </c>
-      <c r="DU27">
-        <v>0</v>
-      </c>
-      <c r="DW27" t="s">
-        <v>167</v>
-      </c>
       <c r="DX27">
         <v>0</v>
       </c>
-      <c r="DY27" t="s">
-        <v>224</v>
-      </c>
       <c r="DZ27" t="s">
-        <v>199</v>
-      </c>
-      <c r="EA27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="EB27">
         <v>0</v>
@@ -12268,11 +12265,11 @@
       <c r="EC27">
         <v>0</v>
       </c>
-      <c r="ED27" t="s">
-        <v>199</v>
-      </c>
-      <c r="EE27" t="s">
-        <v>199</v>
+      <c r="ED27">
+        <v>0</v>
+      </c>
+      <c r="EE27">
+        <v>0</v>
       </c>
       <c r="EF27">
         <v>0</v>
@@ -12284,13 +12281,13 @@
         <v>0</v>
       </c>
       <c r="EI27" t="s">
-        <v>210</v>
-      </c>
-      <c r="EJ27">
-        <v>0</v>
-      </c>
-      <c r="EK27">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="EJ27" t="s">
+        <v>200</v>
+      </c>
+      <c r="EK27" t="s">
+        <v>200</v>
       </c>
       <c r="EL27">
         <v>0</v>
@@ -12308,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="EQ27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="ER27">
         <v>0</v>
@@ -12328,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -12340,7 +12337,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="K28" t="s">
+        <v>167</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -12350,6 +12350,9 @@
       </c>
       <c r="N28">
         <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>177</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -12366,6 +12369,9 @@
       <c r="T28">
         <v>0</v>
       </c>
+      <c r="U28" t="s">
+        <v>179</v>
+      </c>
       <c r="V28">
         <v>0</v>
       </c>
@@ -12373,31 +12379,31 @@
         <v>198</v>
       </c>
       <c r="X28" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="Y28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA28" t="s">
         <v>213</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="s">
         <v>210</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -12405,8 +12411,8 @@
       <c r="AH28" t="s">
         <v>222</v>
       </c>
-      <c r="AI28">
-        <v>0</v>
+      <c r="AI28" t="s">
+        <v>200</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -12414,8 +12420,8 @@
       <c r="AK28">
         <v>0</v>
       </c>
-      <c r="AL28">
-        <v>0</v>
+      <c r="AL28" t="s">
+        <v>210</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -12426,8 +12432,8 @@
       <c r="AO28">
         <v>0</v>
       </c>
-      <c r="AP28">
-        <v>0</v>
+      <c r="AP28" t="s">
+        <v>210</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -12462,8 +12468,8 @@
       <c r="BA28">
         <v>0</v>
       </c>
-      <c r="BB28">
-        <v>0</v>
+      <c r="BB28" t="s">
+        <v>200</v>
       </c>
       <c r="BC28">
         <v>0</v>
@@ -12501,26 +12507,26 @@
       <c r="BN28">
         <v>0</v>
       </c>
-      <c r="BO28">
-        <v>0</v>
-      </c>
-      <c r="BP28">
-        <v>0</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>0</v>
+      <c r="BO28" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>213</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>216</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>213</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>212</v>
       </c>
       <c r="BT28">
         <v>0</v>
       </c>
-      <c r="BU28">
-        <v>0</v>
+      <c r="BU28" t="s">
+        <v>210</v>
       </c>
       <c r="BV28">
         <v>0</v>
@@ -12532,181 +12538,585 @@
         <v>0</v>
       </c>
       <c r="BY28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BZ28" t="s">
         <v>257</v>
       </c>
       <c r="CA28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>265</v>
+      </c>
+      <c r="CC28">
+        <v>0</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI28">
+        <v>0</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK28">
+        <v>0</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>211</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ28">
+        <v>0</v>
+      </c>
+      <c r="CR28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CS28">
+        <v>0</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU28" t="s">
+        <v>213</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>216</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>213</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>212</v>
+      </c>
+      <c r="CY28">
+        <v>0</v>
+      </c>
+      <c r="CZ28" t="s">
+        <v>210</v>
+      </c>
+      <c r="DA28">
+        <v>0</v>
+      </c>
+      <c r="DC28">
+        <v>0</v>
+      </c>
+      <c r="DE28">
+        <v>0</v>
+      </c>
+      <c r="DF28" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG28">
+        <v>0</v>
+      </c>
+      <c r="DI28">
+        <v>0</v>
+      </c>
+      <c r="DK28">
+        <v>0</v>
+      </c>
+      <c r="DM28">
+        <v>0</v>
+      </c>
+      <c r="DO28">
+        <v>0</v>
+      </c>
+      <c r="DR28">
+        <v>0</v>
+      </c>
+      <c r="DS28" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU28">
+        <v>0</v>
+      </c>
+      <c r="DW28" t="s">
+        <v>167</v>
+      </c>
+      <c r="DX28">
+        <v>0</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>225</v>
+      </c>
+      <c r="DZ28" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA28" t="s">
+        <v>211</v>
+      </c>
+      <c r="EB28">
+        <v>0</v>
+      </c>
+      <c r="EC28">
+        <v>0</v>
+      </c>
+      <c r="ED28" t="s">
+        <v>200</v>
+      </c>
+      <c r="EE28" t="s">
+        <v>200</v>
+      </c>
+      <c r="EF28">
+        <v>0</v>
+      </c>
+      <c r="EG28">
+        <v>0</v>
+      </c>
+      <c r="EH28">
+        <v>0</v>
+      </c>
+      <c r="EI28" t="s">
+        <v>211</v>
+      </c>
+      <c r="EJ28">
+        <v>0</v>
+      </c>
+      <c r="EK28">
+        <v>0</v>
+      </c>
+      <c r="EL28">
+        <v>0</v>
+      </c>
+      <c r="EM28">
+        <v>0</v>
+      </c>
+      <c r="EN28">
+        <v>0</v>
+      </c>
+      <c r="EO28">
+        <v>0</v>
+      </c>
+      <c r="EP28">
+        <v>0</v>
+      </c>
+      <c r="EQ28" t="s">
+        <v>270</v>
+      </c>
+      <c r="ER28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:148">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>178</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
         <v>199</v>
       </c>
-      <c r="CC28">
-        <v>0</v>
-      </c>
-      <c r="CD28">
-        <v>0</v>
-      </c>
-      <c r="CE28">
-        <v>0</v>
-      </c>
-      <c r="CF28">
-        <v>0</v>
-      </c>
-      <c r="CG28">
-        <v>0</v>
-      </c>
-      <c r="CH28">
-        <v>0</v>
-      </c>
-      <c r="CI28">
-        <v>0</v>
-      </c>
-      <c r="CJ28">
-        <v>0</v>
-      </c>
-      <c r="CK28">
-        <v>0</v>
-      </c>
-      <c r="CL28">
-        <v>0</v>
-      </c>
-      <c r="CM28">
-        <v>0</v>
-      </c>
-      <c r="CN28">
-        <v>0</v>
-      </c>
-      <c r="CO28">
-        <v>0</v>
-      </c>
-      <c r="CP28">
-        <v>0</v>
-      </c>
-      <c r="CQ28">
-        <v>0</v>
-      </c>
-      <c r="CR28">
-        <v>0</v>
-      </c>
-      <c r="CS28">
-        <v>0</v>
-      </c>
-      <c r="CT28">
-        <v>0</v>
-      </c>
-      <c r="CU28">
-        <v>0</v>
-      </c>
-      <c r="CV28">
-        <v>0</v>
-      </c>
-      <c r="CW28">
-        <v>0</v>
-      </c>
-      <c r="CX28">
-        <v>0</v>
-      </c>
-      <c r="CY28">
-        <v>0</v>
-      </c>
-      <c r="CZ28">
-        <v>0</v>
-      </c>
-      <c r="DA28">
-        <v>0</v>
-      </c>
-      <c r="DC28">
-        <v>0</v>
-      </c>
-      <c r="DE28">
-        <v>0</v>
-      </c>
-      <c r="DG28">
-        <v>0</v>
-      </c>
-      <c r="DI28">
-        <v>0</v>
-      </c>
-      <c r="DK28">
-        <v>0</v>
-      </c>
-      <c r="DM28">
-        <v>0</v>
-      </c>
-      <c r="DO28">
-        <v>0</v>
-      </c>
-      <c r="DR28">
-        <v>0</v>
-      </c>
-      <c r="DS28" t="s">
-        <v>199</v>
-      </c>
-      <c r="DT28" t="s">
-        <v>199</v>
-      </c>
-      <c r="DU28" t="s">
-        <v>199</v>
-      </c>
-      <c r="DV28" t="s">
-        <v>204</v>
-      </c>
-      <c r="DW28" t="s">
-        <v>204</v>
-      </c>
-      <c r="DX28">
-        <v>0</v>
-      </c>
-      <c r="DZ28" t="s">
-        <v>204</v>
-      </c>
-      <c r="EB28">
-        <v>0</v>
-      </c>
-      <c r="EC28">
-        <v>0</v>
-      </c>
-      <c r="ED28">
-        <v>0</v>
-      </c>
-      <c r="EE28">
-        <v>0</v>
-      </c>
-      <c r="EF28">
-        <v>0</v>
-      </c>
-      <c r="EG28">
-        <v>0</v>
-      </c>
-      <c r="EH28">
-        <v>0</v>
-      </c>
-      <c r="EI28" t="s">
-        <v>199</v>
-      </c>
-      <c r="EJ28" t="s">
-        <v>199</v>
-      </c>
-      <c r="EL28">
-        <v>0</v>
-      </c>
-      <c r="EM28">
-        <v>0</v>
-      </c>
-      <c r="EN28">
-        <v>0</v>
-      </c>
-      <c r="EO28">
-        <v>0</v>
-      </c>
-      <c r="EP28">
-        <v>0</v>
-      </c>
-      <c r="EQ28" t="s">
-        <v>268</v>
-      </c>
-      <c r="ER28" t="s">
-        <v>269</v>
+      <c r="X29" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29">
+        <v>0</v>
+      </c>
+      <c r="BV29">
+        <v>0</v>
+      </c>
+      <c r="BW29">
+        <v>0</v>
+      </c>
+      <c r="BX29">
+        <v>0</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>256</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>259</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC29">
+        <v>0</v>
+      </c>
+      <c r="CD29">
+        <v>0</v>
+      </c>
+      <c r="CE29">
+        <v>0</v>
+      </c>
+      <c r="CF29">
+        <v>0</v>
+      </c>
+      <c r="CG29">
+        <v>0</v>
+      </c>
+      <c r="CH29">
+        <v>0</v>
+      </c>
+      <c r="CI29">
+        <v>0</v>
+      </c>
+      <c r="CJ29">
+        <v>0</v>
+      </c>
+      <c r="CK29">
+        <v>0</v>
+      </c>
+      <c r="CL29">
+        <v>0</v>
+      </c>
+      <c r="CM29">
+        <v>0</v>
+      </c>
+      <c r="CN29">
+        <v>0</v>
+      </c>
+      <c r="CO29">
+        <v>0</v>
+      </c>
+      <c r="CP29">
+        <v>0</v>
+      </c>
+      <c r="CQ29">
+        <v>0</v>
+      </c>
+      <c r="CR29">
+        <v>0</v>
+      </c>
+      <c r="CS29">
+        <v>0</v>
+      </c>
+      <c r="CT29">
+        <v>0</v>
+      </c>
+      <c r="CU29">
+        <v>0</v>
+      </c>
+      <c r="CV29">
+        <v>0</v>
+      </c>
+      <c r="CW29">
+        <v>0</v>
+      </c>
+      <c r="CX29">
+        <v>0</v>
+      </c>
+      <c r="CY29">
+        <v>0</v>
+      </c>
+      <c r="CZ29">
+        <v>0</v>
+      </c>
+      <c r="DA29">
+        <v>0</v>
+      </c>
+      <c r="DC29">
+        <v>0</v>
+      </c>
+      <c r="DE29">
+        <v>0</v>
+      </c>
+      <c r="DG29">
+        <v>0</v>
+      </c>
+      <c r="DI29">
+        <v>0</v>
+      </c>
+      <c r="DK29">
+        <v>0</v>
+      </c>
+      <c r="DM29">
+        <v>0</v>
+      </c>
+      <c r="DO29">
+        <v>0</v>
+      </c>
+      <c r="DR29">
+        <v>0</v>
+      </c>
+      <c r="DS29" t="s">
+        <v>200</v>
+      </c>
+      <c r="DT29" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU29" t="s">
+        <v>200</v>
+      </c>
+      <c r="DV29" t="s">
+        <v>206</v>
+      </c>
+      <c r="DW29" t="s">
+        <v>206</v>
+      </c>
+      <c r="DX29">
+        <v>0</v>
+      </c>
+      <c r="DZ29" t="s">
+        <v>206</v>
+      </c>
+      <c r="EB29">
+        <v>0</v>
+      </c>
+      <c r="EC29">
+        <v>0</v>
+      </c>
+      <c r="ED29">
+        <v>0</v>
+      </c>
+      <c r="EE29">
+        <v>0</v>
+      </c>
+      <c r="EF29">
+        <v>0</v>
+      </c>
+      <c r="EG29">
+        <v>0</v>
+      </c>
+      <c r="EH29">
+        <v>0</v>
+      </c>
+      <c r="EI29" t="s">
+        <v>200</v>
+      </c>
+      <c r="EJ29" t="s">
+        <v>200</v>
+      </c>
+      <c r="EL29">
+        <v>0</v>
+      </c>
+      <c r="EM29">
+        <v>0</v>
+      </c>
+      <c r="EN29">
+        <v>0</v>
+      </c>
+      <c r="EO29">
+        <v>0</v>
+      </c>
+      <c r="EP29">
+        <v>0</v>
+      </c>
+      <c r="EQ29" t="s">
+        <v>270</v>
+      </c>
+      <c r="ER29" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -775,7 +775,7 @@
     <t>2025-08-06T10:53:58.440194Z</t>
   </si>
   <si>
-    <t>2025-08-07T09:38:58.546918Z</t>
+    <t>2025-08-07T10:06:48.503912Z</t>
   </si>
   <si>
     <t>2025-07-03T06:45:00.666926Z</t>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="273">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -775,7 +775,7 @@
     <t>2025-08-06T10:53:58.440194Z</t>
   </si>
   <si>
-    <t>2025-08-07T10:06:48.503912Z</t>
+    <t>2025-08-07T10:47:53.451885Z</t>
   </si>
   <si>
     <t>2025-07-03T06:45:00.666926Z</t>
@@ -11537,6 +11537,9 @@
       <c r="J26" t="s">
         <v>151</v>
       </c>
+      <c r="K26" t="s">
+        <v>160</v>
+      </c>
       <c r="L26">
         <v>0</v>
       </c>
@@ -11545,6 +11548,9 @@
       </c>
       <c r="N26">
         <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>169</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -11696,29 +11702,26 @@
       <c r="BN26">
         <v>0</v>
       </c>
-      <c r="BO26">
-        <v>0</v>
-      </c>
-      <c r="BP26">
-        <v>0</v>
-      </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
-      <c r="BR26">
-        <v>0</v>
-      </c>
-      <c r="BS26">
-        <v>0</v>
-      </c>
-      <c r="BT26">
-        <v>0</v>
-      </c>
-      <c r="BU26">
-        <v>0</v>
-      </c>
-      <c r="BV26">
-        <v>0</v>
+      <c r="BO26" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>210</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>200</v>
       </c>
       <c r="BW26">
         <v>0</v>
@@ -11738,20 +11741,20 @@
       <c r="CC26">
         <v>0</v>
       </c>
-      <c r="CD26">
-        <v>0</v>
-      </c>
-      <c r="CE26">
-        <v>0</v>
-      </c>
-      <c r="CF26">
-        <v>0</v>
-      </c>
-      <c r="CG26">
-        <v>0</v>
-      </c>
-      <c r="CH26">
-        <v>0</v>
+      <c r="CD26" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>200</v>
       </c>
       <c r="CI26">
         <v>0</v>
@@ -11762,20 +11765,20 @@
       <c r="CK26">
         <v>0</v>
       </c>
-      <c r="CL26">
-        <v>0</v>
-      </c>
-      <c r="CM26">
-        <v>0</v>
-      </c>
-      <c r="CN26">
-        <v>0</v>
-      </c>
-      <c r="CO26">
-        <v>0</v>
-      </c>
-      <c r="CP26">
-        <v>0</v>
+      <c r="CL26" t="s">
+        <v>204</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>206</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>203</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>210</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>210</v>
       </c>
       <c r="CQ26">
         <v>0</v>
@@ -11851,6 +11854,9 @@
       </c>
       <c r="DX26">
         <v>0</v>
+      </c>
+      <c r="DY26" t="s">
+        <v>200</v>
       </c>
       <c r="DZ26" t="s">
         <v>200</v>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="275">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -487,6 +487,9 @@
     <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
@@ -520,295 +523,298 @@
     <t>32</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
   </si>
   <si>
+    <t>20-24_yrs 25-29_yrs 45-49_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 40-44_yrs</t>
+  </si>
+  <si>
+    <t>50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 45-49_yrs</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>referral_sti referral_srh</t>
+  </si>
+  <si>
+    <t>Beagest Clinic</t>
+  </si>
+  <si>
+    <t>Border Church Clinic</t>
+  </si>
+  <si>
+    <t>Chakadini Clinic</t>
+  </si>
+  <si>
+    <t>Chimbwanda Clinic</t>
+  </si>
+  <si>
+    <t>Chinamhora</t>
+  </si>
+  <si>
+    <t>Chinhere Clinic</t>
+  </si>
+  <si>
+    <t>Chiparawe Clinic</t>
+  </si>
+  <si>
+    <t>Dombotombo Clinic</t>
+  </si>
+  <si>
+    <t>Helywin Clinic</t>
+  </si>
+  <si>
+    <t>Kushinga Clinic</t>
+  </si>
+  <si>
+    <t>Mahusekwa District Hospital</t>
+  </si>
+  <si>
+    <t>Marondera Provincial Hospital</t>
+  </si>
+  <si>
+    <t>Marondera Rural District Council Clinic</t>
+  </si>
+  <si>
+    <t>Moy Clinic</t>
+  </si>
+  <si>
+    <t>Nyameni Clinic</t>
+  </si>
+  <si>
+    <t>Rakodzi Clinic</t>
+  </si>
+  <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
+    <t>Waddilove Clinic</t>
+  </si>
+  <si>
+    <t>Wenimbi Clinic</t>
+  </si>
+  <si>
+    <t>Zebra downs Clinic</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 45-49_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2025-08-07T11:27:16.549430Z</t>
+  </si>
+  <si>
+    <t>2025-07-19T10:04:43.558609Z</t>
+  </si>
+  <si>
+    <t>2025-06-04T06:33:05.775814Z</t>
+  </si>
+  <si>
+    <t>2025-05-14T09:44:12.349300Z</t>
+  </si>
+  <si>
+    <t>2025-08-01T16:30:29.462584Z</t>
+  </si>
+  <si>
+    <t>2025-05-14T10:01:37.406487Z</t>
+  </si>
+  <si>
+    <t>2025-08-05T07:55:09.464010Z</t>
+  </si>
+  <si>
+    <t>2025-08-07T11:36:22.971156Z</t>
+  </si>
+  <si>
+    <t>2025-07-03T04:35:05.818275Z</t>
+  </si>
+  <si>
+    <t>2025-05-23T12:16:46.389505Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:55.142402Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:55.896332Z</t>
+  </si>
+  <si>
+    <t>2025-08-04T12:32:14.254797Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:47:44.156355Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:56.408881Z</t>
+  </si>
+  <si>
+    <t>2025-07-04T06:51:29.899097Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:56.957260Z</t>
+  </si>
+  <si>
+    <t>2025-07-04T19:33:28.979488Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:57.464207Z</t>
+  </si>
+  <si>
+    <t>2025-07-04T19:26:49.877079Z</t>
+  </si>
+  <si>
+    <t>2025-06-04T08:59:38.762892Z</t>
+  </si>
+  <si>
+    <t>2025-08-04T12:31:29.724489Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:57.904267Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:58.440194Z</t>
+  </si>
+  <si>
+    <t>2025-08-07T11:41:07.408643Z</t>
+  </si>
+  <si>
+    <t>2025-07-03T06:45:00.666926Z</t>
+  </si>
+  <si>
+    <t>2025-08-06T10:53:58.933309Z</t>
+  </si>
+  <si>
+    <t>2025-06-04T08:58:08.926212Z</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>15-19_yrs 25-29_yrs</t>
+  </si>
+  <si>
+    <t>20-24_yrs</t>
+  </si>
+  <si>
+    <t>20-24_yrs 35-39_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>20-24_yrs 25-29_yrs 35-39_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 40-44_yrs</t>
-  </si>
-  <si>
-    <t>50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 45-49_yrs</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>referral_sti referral_srh</t>
-  </si>
-  <si>
-    <t>Beagest Clinic</t>
-  </si>
-  <si>
-    <t>Border Church Clinic</t>
-  </si>
-  <si>
-    <t>Chakadini Clinic</t>
-  </si>
-  <si>
-    <t>Chimbwanda Clinic</t>
-  </si>
-  <si>
-    <t>Chinamhora</t>
-  </si>
-  <si>
-    <t>Chinhere Clinic</t>
-  </si>
-  <si>
-    <t>Chiparawe Clinic</t>
-  </si>
-  <si>
-    <t>Dombotombo Clinic</t>
-  </si>
-  <si>
-    <t>Helywin Clinic</t>
-  </si>
-  <si>
-    <t>Kushinga Clinic</t>
-  </si>
-  <si>
-    <t>Mahusekwa District Hospital</t>
-  </si>
-  <si>
-    <t>Marondera Provincial Hospital</t>
-  </si>
-  <si>
-    <t>Marondera Rural District Council Clinic</t>
-  </si>
-  <si>
-    <t>Moy Clinic</t>
-  </si>
-  <si>
-    <t>Nyameni Clinic</t>
-  </si>
-  <si>
-    <t>Rakodzi Clinic</t>
-  </si>
-  <si>
-    <t>Tengwe Clinic</t>
-  </si>
-  <si>
-    <t>Waddilove Clinic</t>
-  </si>
-  <si>
-    <t>Wenimbi Clinic</t>
-  </si>
-  <si>
-    <t>Zebra downs Clinic</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>correction</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 45-49_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2025-08-07T09:47:19.395370Z</t>
-  </si>
-  <si>
-    <t>2025-07-19T10:04:43.558609Z</t>
-  </si>
-  <si>
-    <t>2025-06-04T06:33:05.775814Z</t>
-  </si>
-  <si>
-    <t>2025-05-14T09:44:12.349300Z</t>
-  </si>
-  <si>
-    <t>2025-08-01T16:30:29.462584Z</t>
-  </si>
-  <si>
-    <t>2025-05-14T10:01:37.406487Z</t>
-  </si>
-  <si>
-    <t>2025-08-05T07:55:09.464010Z</t>
-  </si>
-  <si>
-    <t>2025-08-07T08:55:32.329926Z</t>
-  </si>
-  <si>
-    <t>2025-07-03T04:35:05.818275Z</t>
-  </si>
-  <si>
-    <t>2025-05-23T12:16:46.389505Z</t>
-  </si>
-  <si>
-    <t>2025-08-06T10:53:55.142402Z</t>
-  </si>
-  <si>
-    <t>2025-08-06T10:53:55.896332Z</t>
-  </si>
-  <si>
-    <t>2025-08-04T12:32:14.254797Z</t>
-  </si>
-  <si>
-    <t>2025-07-01T09:47:44.156355Z</t>
-  </si>
-  <si>
-    <t>2025-08-06T10:53:56.408881Z</t>
-  </si>
-  <si>
-    <t>2025-07-04T06:51:29.899097Z</t>
-  </si>
-  <si>
-    <t>2025-08-06T10:53:56.957260Z</t>
-  </si>
-  <si>
-    <t>2025-07-04T19:33:28.979488Z</t>
-  </si>
-  <si>
-    <t>2025-08-06T10:53:57.464207Z</t>
-  </si>
-  <si>
-    <t>2025-07-04T19:26:49.877079Z</t>
-  </si>
-  <si>
-    <t>2025-06-04T08:59:38.762892Z</t>
-  </si>
-  <si>
-    <t>2025-08-04T12:31:29.724489Z</t>
-  </si>
-  <si>
-    <t>2025-08-06T10:53:57.904267Z</t>
-  </si>
-  <si>
-    <t>2025-08-06T10:53:58.440194Z</t>
-  </si>
-  <si>
-    <t>2025-08-07T10:47:53.451885Z</t>
-  </si>
-  <si>
-    <t>2025-07-03T06:45:00.666926Z</t>
-  </si>
-  <si>
-    <t>2025-08-06T10:53:58.933309Z</t>
-  </si>
-  <si>
-    <t>2025-06-04T08:58:08.926212Z</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>20-24_yrs</t>
-  </si>
-  <si>
-    <t>20-24_yrs 35-39_yrs 50_yrs</t>
-  </si>
-  <si>
-    <t>20-24_yrs 25-29_yrs 35-39_yrs</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 50_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 30-34_yrs 35-39_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 35-39_yrs</t>
   </si>
   <si>
     <t>25-29_yrs 45-49_yrs</t>
@@ -1667,6 +1673,9 @@
       <c r="J2" t="s">
         <v>151</v>
       </c>
+      <c r="K2" t="s">
+        <v>157</v>
+      </c>
       <c r="L2">
         <v>0</v>
       </c>
@@ -1675,9 +1684,6 @@
       </c>
       <c r="N2">
         <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>168</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1704,7 +1710,7 @@
         <v>200</v>
       </c>
       <c r="Y2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1733,14 +1739,14 @@
       <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
+      <c r="AJ2" t="s">
+        <v>211</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
+      <c r="AL2" t="s">
+        <v>210</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -1787,8 +1793,8 @@
       <c r="BA2">
         <v>0</v>
       </c>
-      <c r="BB2">
-        <v>0</v>
+      <c r="BB2" t="s">
+        <v>200</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -1826,192 +1832,195 @@
       <c r="BN2">
         <v>0</v>
       </c>
-      <c r="BO2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>205</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="s">
         <v>212</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>257</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>212</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>200</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>200</v>
-      </c>
-      <c r="DU2">
-        <v>0</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>215</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>215</v>
-      </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>200</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>215</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2">
-        <v>0</v>
-      </c>
-      <c r="EH2">
-        <v>0</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>200</v>
-      </c>
       <c r="EJ2">
         <v>0</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -2069,7 +2078,7 @@
         <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2105,13 +2114,13 @@
         <v>180</v>
       </c>
       <c r="X3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z3" t="s">
         <v>207</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>204</v>
       </c>
       <c r="AA3" t="s">
         <v>211</v>
@@ -2135,7 +2144,7 @@
         <v>200</v>
       </c>
       <c r="AH3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2234,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BP3" t="s">
         <v>211</v>
@@ -2264,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BZ3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CA3" t="s">
         <v>200</v>
@@ -2276,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="CE3" t="s">
         <v>211</v>
@@ -2381,10 +2390,10 @@
         <v>200</v>
       </c>
       <c r="DV3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DW3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DX3">
         <v>0</v>
@@ -2393,7 +2402,7 @@
         <v>200</v>
       </c>
       <c r="DZ3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="EA3" t="s">
         <v>200</v>
@@ -2441,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2512,7 +2521,7 @@
         <v>200</v>
       </c>
       <c r="Y4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2635,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BP4" t="s">
         <v>208</v>
       </c>
       <c r="BQ4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BR4" t="s">
         <v>212</v>
@@ -2665,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BZ4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CA4" t="s">
         <v>200</v>
@@ -2701,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="CL4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CM4" t="s">
         <v>208</v>
       </c>
       <c r="CN4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CO4" t="s">
         <v>212</v>
@@ -2782,10 +2791,10 @@
         <v>200</v>
       </c>
       <c r="DV4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="DW4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="DX4">
         <v>0</v>
@@ -2794,7 +2803,7 @@
         <v>200</v>
       </c>
       <c r="EA4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2842,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2907,16 +2916,16 @@
         <v>182</v>
       </c>
       <c r="X5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z5" t="s">
         <v>208</v>
       </c>
       <c r="AA5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB5" t="s">
         <v>214</v>
@@ -2943,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL5" t="s">
         <v>203</v>
@@ -3066,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BZ5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CA5" t="s">
         <v>200</v>
@@ -3153,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="DB5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -3186,7 +3195,7 @@
         <v>200</v>
       </c>
       <c r="DW5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="DX5">
         <v>0</v>
@@ -3195,7 +3204,7 @@
         <v>200</v>
       </c>
       <c r="EA5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="EB5">
         <v>0</v>
@@ -3219,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EJ5" t="s">
         <v>200</v>
@@ -3243,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3320,13 +3329,13 @@
         <v>201</v>
       </c>
       <c r="Y6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z6" t="s">
         <v>209</v>
       </c>
       <c r="AA6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="s">
         <v>213</v>
@@ -3347,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI6" t="s">
         <v>200</v>
@@ -3356,7 +3365,7 @@
         <v>208</v>
       </c>
       <c r="AK6" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="AL6" t="s">
         <v>213</v>
@@ -3449,7 +3458,7 @@
         <v>209</v>
       </c>
       <c r="BP6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BQ6" t="s">
         <v>213</v>
@@ -3476,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BZ6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA6" t="s">
         <v>200</v>
@@ -3518,7 +3527,7 @@
         <v>209</v>
       </c>
       <c r="CM6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CN6" t="s">
         <v>213</v>
@@ -3569,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="DE6">
         <v>0</v>
@@ -3632,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3656,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3724,7 +3733,7 @@
         <v>200</v>
       </c>
       <c r="Y7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -3877,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BZ7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CA7" t="s">
         <v>200</v>
@@ -4000,10 +4009,10 @@
         <v>200</v>
       </c>
       <c r="DV7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="DW7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="DX7">
         <v>0</v>
@@ -4012,7 +4021,7 @@
         <v>200</v>
       </c>
       <c r="EA7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="EB7">
         <v>0</v>
@@ -4060,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4095,7 +4104,7 @@
         <v>153</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4134,7 +4143,7 @@
         <v>200</v>
       </c>
       <c r="Y8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -4257,22 +4266,22 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BP8" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ8" t="s">
         <v>225</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BR8" t="s">
         <v>226</v>
       </c>
-      <c r="BR8" t="s">
+      <c r="BS8" t="s">
         <v>227</v>
       </c>
-      <c r="BS8" t="s">
-        <v>228</v>
-      </c>
       <c r="BT8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BU8" t="s">
         <v>214</v>
@@ -4287,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BZ8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA8" t="s">
         <v>200</v>
@@ -4323,22 +4332,22 @@
         <v>0</v>
       </c>
       <c r="CL8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CM8" t="s">
+        <v>224</v>
+      </c>
+      <c r="CN8" t="s">
         <v>225</v>
       </c>
-      <c r="CN8" t="s">
+      <c r="CO8" t="s">
         <v>226</v>
       </c>
-      <c r="CO8" t="s">
+      <c r="CP8" t="s">
         <v>227</v>
       </c>
-      <c r="CP8" t="s">
-        <v>228</v>
-      </c>
       <c r="CQ8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CR8" t="s">
         <v>214</v>
@@ -4404,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="DV8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DW8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -4419,7 +4428,7 @@
         <v>200</v>
       </c>
       <c r="EA8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="EB8">
         <v>0</v>
@@ -4467,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4538,16 +4547,16 @@
         <v>160</v>
       </c>
       <c r="Y9" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>211</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4558,8 +4567,8 @@
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
+      <c r="AF9" t="s">
+        <v>210</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -4663,14 +4672,14 @@
       <c r="BN9">
         <v>0</v>
       </c>
-      <c r="BO9" t="s">
-        <v>209</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>211</v>
       </c>
       <c r="BR9">
         <v>0</v>
@@ -4681,8 +4690,8 @@
       <c r="BT9">
         <v>0</v>
       </c>
-      <c r="BU9">
-        <v>0</v>
+      <c r="BU9" t="s">
+        <v>210</v>
       </c>
       <c r="BV9">
         <v>0</v>
@@ -4694,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BZ9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA9" t="s">
         <v>200</v>
@@ -4705,14 +4714,14 @@
       <c r="CC9">
         <v>0</v>
       </c>
-      <c r="CD9" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>200</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4723,20 +4732,20 @@
       <c r="CI9">
         <v>0</v>
       </c>
-      <c r="CJ9">
-        <v>0</v>
+      <c r="CJ9" t="s">
+        <v>200</v>
       </c>
       <c r="CK9">
         <v>0</v>
       </c>
-      <c r="CL9" t="s">
-        <v>209</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>211</v>
       </c>
       <c r="CO9">
         <v>0</v>
@@ -4747,8 +4756,8 @@
       <c r="CQ9">
         <v>0</v>
       </c>
-      <c r="CR9">
-        <v>0</v>
+      <c r="CR9" t="s">
+        <v>210</v>
       </c>
       <c r="CS9">
         <v>0</v>
@@ -4811,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="DV9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="DW9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="DX9">
         <v>0</v>
@@ -4823,7 +4832,7 @@
         <v>200</v>
       </c>
       <c r="EA9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4871,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4951,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -5104,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BZ10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -5314,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5349,7 +5358,7 @@
         <v>154</v>
       </c>
       <c r="K11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5382,10 +5391,10 @@
         <v>186</v>
       </c>
       <c r="X11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z11" t="s">
         <v>210</v>
@@ -5412,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5541,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BZ11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CA11" t="s">
         <v>200</v>
@@ -5658,16 +5667,16 @@
         <v>200</v>
       </c>
       <c r="DV11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DW11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DZ11" t="s">
         <v>200</v>
@@ -5721,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5756,7 +5765,7 @@
         <v>155</v>
       </c>
       <c r="K12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5798,7 +5807,7 @@
         <v>202</v>
       </c>
       <c r="Y12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z12" t="s">
         <v>203</v>
@@ -5807,7 +5816,7 @@
         <v>213</v>
       </c>
       <c r="AB12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC12" t="s">
         <v>212</v>
@@ -5825,7 +5834,7 @@
         <v>210</v>
       </c>
       <c r="AH12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -5930,7 +5939,7 @@
         <v>213</v>
       </c>
       <c r="BQ12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BR12" t="s">
         <v>212</v>
@@ -5954,10 +5963,10 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BZ12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA12" t="s">
         <v>200</v>
@@ -6023,7 +6032,7 @@
         <v>213</v>
       </c>
       <c r="CV12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CW12" t="s">
         <v>212</v>
@@ -6080,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="DW12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DZ12" t="s">
         <v>200</v>
@@ -6140,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6178,7 +6187,7 @@
         <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6214,10 +6223,10 @@
         <v>187</v>
       </c>
       <c r="X13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z13" t="s">
         <v>211</v>
@@ -6244,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -6373,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BZ13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA13" t="s">
         <v>200</v>
@@ -6502,16 +6511,16 @@
         <v>0</v>
       </c>
       <c r="DV13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="DW13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DZ13" t="s">
         <v>200</v>
@@ -6565,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6633,7 +6642,7 @@
         <v>200</v>
       </c>
       <c r="Y14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -6786,16 +6795,16 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BZ14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA14" t="s">
         <v>200</v>
       </c>
       <c r="CB14" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="CC14">
         <v>0</v>
@@ -6909,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="DV14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DW14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX14">
         <v>0</v>
@@ -6921,7 +6930,7 @@
         <v>200</v>
       </c>
       <c r="EA14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -6969,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:148">
@@ -7004,7 +7013,7 @@
         <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -7043,7 +7052,7 @@
         <v>200</v>
       </c>
       <c r="Y15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -7172,7 +7181,7 @@
         <v>213</v>
       </c>
       <c r="BQ15" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="BR15">
         <v>0</v>
@@ -7196,10 +7205,10 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BZ15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CA15" t="s">
         <v>200</v>
@@ -7262,7 +7271,7 @@
         <v>213</v>
       </c>
       <c r="CV15" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="CW15">
         <v>0</v>
@@ -7313,16 +7322,16 @@
         <v>200</v>
       </c>
       <c r="DV15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DW15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DX15">
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DZ15" t="s">
         <v>200</v>
@@ -7373,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -7411,7 +7420,7 @@
         <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -7450,10 +7459,10 @@
         <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z16" t="s">
         <v>212</v>
@@ -7480,7 +7489,7 @@
         <v>210</v>
       </c>
       <c r="AH16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI16" t="s">
         <v>200</v>
@@ -7609,10 +7618,10 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BZ16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA16" t="s">
         <v>200</v>
@@ -7735,16 +7744,16 @@
         <v>0</v>
       </c>
       <c r="DV16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="DW16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DX16">
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DZ16" t="s">
         <v>200</v>
@@ -7798,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -7869,7 +7878,7 @@
         <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -8019,16 +8028,16 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BZ17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CA17" t="s">
         <v>200</v>
       </c>
       <c r="CB17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="CC17">
         <v>0</v>
@@ -8193,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -8231,7 +8240,7 @@
         <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -8270,16 +8279,16 @@
         <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s">
         <v>213</v>
       </c>
       <c r="AA18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB18" t="s">
         <v>212</v>
@@ -8300,7 +8309,7 @@
         <v>210</v>
       </c>
       <c r="AH18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI18" t="s">
         <v>200</v>
@@ -8402,7 +8411,7 @@
         <v>213</v>
       </c>
       <c r="BP18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BQ18" t="s">
         <v>212</v>
@@ -8429,16 +8438,16 @@
         <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BZ18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA18" t="s">
         <v>200</v>
       </c>
       <c r="CB18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CC18">
         <v>0</v>
@@ -8495,7 +8504,7 @@
         <v>213</v>
       </c>
       <c r="CU18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CV18" t="s">
         <v>212</v>
@@ -8561,13 +8570,13 @@
         <v>0</v>
       </c>
       <c r="DW18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DX18">
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DZ18" t="s">
         <v>200</v>
@@ -8621,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER18">
         <v>0</v>
@@ -8656,7 +8665,7 @@
         <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -8692,10 +8701,10 @@
         <v>191</v>
       </c>
       <c r="X19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z19" t="s">
         <v>203</v>
@@ -8722,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="AH19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -8851,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="BY19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BZ19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CA19" t="s">
         <v>200</v>
@@ -8968,16 +8977,16 @@
         <v>200</v>
       </c>
       <c r="DV19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DW19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DX19">
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DZ19" t="s">
         <v>200</v>
@@ -9031,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="EQ19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER19">
         <v>0</v>
@@ -9066,7 +9075,7 @@
         <v>155</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -9105,10 +9114,10 @@
         <v>192</v>
       </c>
       <c r="X20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z20" t="s">
         <v>210</v>
@@ -9135,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI20" t="s">
         <v>200</v>
@@ -9264,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="BY20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BZ20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA20" t="s">
         <v>200</v>
@@ -9381,16 +9390,16 @@
         <v>0</v>
       </c>
       <c r="DV20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DW20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DX20">
         <v>0</v>
       </c>
       <c r="DY20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DZ20" t="s">
         <v>200</v>
@@ -9444,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="EQ20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER20">
         <v>0</v>
@@ -9479,7 +9488,7 @@
         <v>155</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -9515,19 +9524,19 @@
         <v>192</v>
       </c>
       <c r="X21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z21" t="s">
         <v>212</v>
       </c>
       <c r="AA21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC21" t="s">
         <v>211</v>
@@ -9545,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="AH21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -9647,10 +9656,10 @@
         <v>212</v>
       </c>
       <c r="BP21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BQ21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BR21" t="s">
         <v>211</v>
@@ -9674,10 +9683,10 @@
         <v>0</v>
       </c>
       <c r="BY21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BZ21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CA21" t="s">
         <v>200</v>
@@ -9740,10 +9749,10 @@
         <v>212</v>
       </c>
       <c r="CU21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CV21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CW21" t="s">
         <v>211</v>
@@ -9797,16 +9806,16 @@
         <v>200</v>
       </c>
       <c r="DV21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DW21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DX21">
         <v>0</v>
       </c>
       <c r="DY21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DZ21" t="s">
         <v>200</v>
@@ -9860,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="EQ21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER21">
         <v>0</v>
@@ -9928,7 +9937,7 @@
         <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z22" t="s">
         <v>213</v>
@@ -10084,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="BY22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BZ22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CA22" t="s">
         <v>200</v>
@@ -10210,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="DZ22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="EB22">
         <v>0</v>
@@ -10255,10 +10264,10 @@
         <v>0</v>
       </c>
       <c r="EQ22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:148">
@@ -10323,7 +10332,7 @@
         <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -10476,16 +10485,16 @@
         <v>0</v>
       </c>
       <c r="BY23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BZ23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA23" t="s">
         <v>200</v>
       </c>
       <c r="CB23" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="CC23">
         <v>0</v>
@@ -10599,10 +10608,10 @@
         <v>0</v>
       </c>
       <c r="DV23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DW23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DX23">
         <v>0</v>
@@ -10611,7 +10620,7 @@
         <v>200</v>
       </c>
       <c r="EA23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EB23">
         <v>0</v>
@@ -10659,10 +10668,10 @@
         <v>0</v>
       </c>
       <c r="EQ23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:148">
@@ -10694,7 +10703,7 @@
         <v>155</v>
       </c>
       <c r="K24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -10733,22 +10742,22 @@
         <v>194</v>
       </c>
       <c r="X24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z24" t="s">
         <v>210</v>
       </c>
       <c r="AA24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB24" t="s">
         <v>213</v>
       </c>
       <c r="AC24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD24" t="s">
         <v>211</v>
@@ -10763,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AH24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI24" t="s">
         <v>200</v>
@@ -10865,13 +10874,13 @@
         <v>210</v>
       </c>
       <c r="BP24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BQ24" t="s">
         <v>213</v>
       </c>
       <c r="BR24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BS24" t="s">
         <v>211</v>
@@ -10892,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="BY24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BZ24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA24" t="s">
         <v>200</v>
@@ -10955,13 +10964,13 @@
         <v>210</v>
       </c>
       <c r="CU24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CV24" t="s">
         <v>213</v>
       </c>
       <c r="CW24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CX24" t="s">
         <v>211</v>
@@ -11009,16 +11018,16 @@
         <v>0</v>
       </c>
       <c r="DV24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DW24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DX24">
         <v>0</v>
       </c>
       <c r="DY24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DZ24" t="s">
         <v>200</v>
@@ -11072,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="EQ24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER24">
         <v>0</v>
@@ -11107,7 +11116,7 @@
         <v>155</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -11146,10 +11155,10 @@
         <v>195</v>
       </c>
       <c r="X25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z25" t="s">
         <v>213</v>
@@ -11176,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="AH25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI25" t="s">
         <v>200</v>
@@ -11305,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="BY25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BZ25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA25" t="s">
         <v>200</v>
@@ -11440,16 +11449,16 @@
         <v>0</v>
       </c>
       <c r="DV25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DW25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DX25">
         <v>0</v>
       </c>
       <c r="DY25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DZ25" t="s">
         <v>200</v>
@@ -11503,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="EQ25" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER25">
         <v>0</v>
@@ -11537,9 +11546,6 @@
       <c r="J26" t="s">
         <v>151</v>
       </c>
-      <c r="K26" t="s">
-        <v>160</v>
-      </c>
       <c r="L26">
         <v>0</v>
       </c>
@@ -11548,9 +11554,6 @@
       </c>
       <c r="N26">
         <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>169</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -11574,55 +11577,52 @@
         <v>196</v>
       </c>
       <c r="X26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y26" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z26" t="s">
         <v>206</v>
       </c>
-      <c r="AA26" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB26" t="s">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>212</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
+      <c r="AK26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>212</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
-      <c r="AN26">
-        <v>0</v>
+      <c r="AN26" t="s">
+        <v>210</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -11657,14 +11657,14 @@
       <c r="AY26">
         <v>0</v>
       </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
+      <c r="AZ26" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>200</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -11702,26 +11702,29 @@
       <c r="BN26">
         <v>0</v>
       </c>
-      <c r="BO26" t="s">
-        <v>204</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>206</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>203</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>210</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>210</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>200</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>200</v>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
       </c>
       <c r="BW26">
         <v>0</v>
@@ -11730,31 +11733,34 @@
         <v>0</v>
       </c>
       <c r="BY26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BZ26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA26" t="s">
         <v>200</v>
       </c>
+      <c r="CB26" t="s">
+        <v>266</v>
+      </c>
       <c r="CC26">
         <v>0</v>
       </c>
-      <c r="CD26" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE26" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF26" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG26" t="s">
-        <v>200</v>
-      </c>
-      <c r="CH26" t="s">
-        <v>200</v>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
       </c>
       <c r="CI26">
         <v>0</v>
@@ -11765,20 +11771,20 @@
       <c r="CK26">
         <v>0</v>
       </c>
-      <c r="CL26" t="s">
-        <v>204</v>
-      </c>
-      <c r="CM26" t="s">
-        <v>206</v>
-      </c>
-      <c r="CN26" t="s">
-        <v>203</v>
-      </c>
-      <c r="CO26" t="s">
-        <v>210</v>
-      </c>
-      <c r="CP26" t="s">
-        <v>210</v>
+      <c r="CL26">
+        <v>0</v>
+      </c>
+      <c r="CM26">
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <v>0</v>
+      </c>
+      <c r="CO26">
+        <v>0</v>
+      </c>
+      <c r="CP26">
+        <v>0</v>
       </c>
       <c r="CQ26">
         <v>0</v>
@@ -11813,12 +11819,21 @@
       <c r="DA26">
         <v>0</v>
       </c>
+      <c r="DB26" t="s">
+        <v>212</v>
+      </c>
       <c r="DC26">
         <v>0</v>
       </c>
+      <c r="DD26" t="s">
+        <v>212</v>
+      </c>
       <c r="DE26">
         <v>0</v>
       </c>
+      <c r="DF26" t="s">
+        <v>212</v>
+      </c>
       <c r="DG26">
         <v>0</v>
       </c>
@@ -11840,29 +11855,20 @@
       <c r="DS26" t="s">
         <v>200</v>
       </c>
-      <c r="DT26" t="s">
-        <v>200</v>
-      </c>
       <c r="DU26">
         <v>0</v>
       </c>
-      <c r="DV26" t="s">
-        <v>160</v>
-      </c>
       <c r="DW26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX26">
         <v>0</v>
       </c>
-      <c r="DY26" t="s">
-        <v>200</v>
-      </c>
       <c r="DZ26" t="s">
         <v>200</v>
       </c>
       <c r="EA26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EB26">
         <v>0</v>
@@ -11886,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="EI26" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="EJ26">
         <v>0</v>
@@ -11910,10 +11916,10 @@
         <v>0</v>
       </c>
       <c r="EQ26" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:148">
@@ -11978,16 +11984,16 @@
         <v>197</v>
       </c>
       <c r="X27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA27" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="AB27" t="s">
         <v>212</v>
@@ -12017,7 +12023,7 @@
         <v>213</v>
       </c>
       <c r="AK27" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="AL27" t="s">
         <v>212</v>
@@ -12107,10 +12113,10 @@
         <v>0</v>
       </c>
       <c r="BO27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BP27" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="BQ27" t="s">
         <v>212</v>
@@ -12137,10 +12143,10 @@
         <v>0</v>
       </c>
       <c r="BY27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BZ27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CA27" t="s">
         <v>200</v>
@@ -12152,10 +12158,10 @@
         <v>0</v>
       </c>
       <c r="CD27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CE27" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="CF27" t="s">
         <v>212</v>
@@ -12257,13 +12263,13 @@
         <v>200</v>
       </c>
       <c r="DW27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="DX27">
         <v>0</v>
       </c>
       <c r="DZ27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="EB27">
         <v>0</v>
@@ -12287,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="EI27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="EJ27" t="s">
         <v>200</v>
@@ -12311,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="EQ27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER27">
         <v>0</v>
@@ -12346,7 +12352,7 @@
         <v>155</v>
       </c>
       <c r="K28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -12385,19 +12391,19 @@
         <v>198</v>
       </c>
       <c r="X28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA28" t="s">
         <v>213</v>
       </c>
       <c r="AB28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC28" t="s">
         <v>213</v>
@@ -12415,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="AH28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AI28" t="s">
         <v>200</v>
@@ -12514,13 +12520,13 @@
         <v>0</v>
       </c>
       <c r="BO28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BP28" t="s">
         <v>213</v>
       </c>
       <c r="BQ28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BR28" t="s">
         <v>213</v>
@@ -12544,16 +12550,16 @@
         <v>0</v>
       </c>
       <c r="BY28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BZ28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CA28" t="s">
         <v>200</v>
       </c>
       <c r="CB28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="CC28">
         <v>0</v>
@@ -12613,7 +12619,7 @@
         <v>213</v>
       </c>
       <c r="CV28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CW28" t="s">
         <v>213</v>
@@ -12664,13 +12670,13 @@
         <v>0</v>
       </c>
       <c r="DW28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DX28">
         <v>0</v>
       </c>
       <c r="DY28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="DZ28" t="s">
         <v>200</v>
@@ -12724,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="EQ28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER28">
         <v>0</v>
@@ -12789,10 +12795,10 @@
         <v>199</v>
       </c>
       <c r="X29" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y29" t="s">
         <v>206</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>207</v>
       </c>
       <c r="Z29" t="s">
         <v>214</v>
@@ -12819,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="AH29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -12948,10 +12954,10 @@
         <v>0</v>
       </c>
       <c r="BY29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BZ29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CA29" t="s">
         <v>200</v>
@@ -13065,16 +13071,16 @@
         <v>200</v>
       </c>
       <c r="DV29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="DW29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="DX29">
         <v>0</v>
       </c>
       <c r="DZ29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="EB29">
         <v>0</v>
@@ -13119,10 +13125,10 @@
         <v>0</v>
       </c>
       <c r="EQ29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/corrections.xlsx
+++ b/corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="273">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -487,180 +487,183 @@
     <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 40-44_yrs</t>
+  </si>
+  <si>
+    <t>50+_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 45-49_yrs</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>referral_sti referral_srh</t>
+  </si>
+  <si>
+    <t>Beagest Clinic</t>
+  </si>
+  <si>
+    <t>Border Church Clinic</t>
+  </si>
+  <si>
+    <t>Chakadini Clinic</t>
+  </si>
+  <si>
+    <t>Chimbwanda Clinic</t>
+  </si>
+  <si>
+    <t>Chinamhora</t>
+  </si>
+  <si>
+    <t>Chinhere Clinic</t>
+  </si>
+  <si>
+    <t>Chiparawe Clinic</t>
+  </si>
+  <si>
+    <t>Dombotombo Clinic</t>
+  </si>
+  <si>
+    <t>Helywin Clinic</t>
+  </si>
+  <si>
+    <t>Kushinga Clinic</t>
+  </si>
+  <si>
+    <t>Mahusekwa District Hospital</t>
+  </si>
+  <si>
+    <t>Marondera Provincial Hospital</t>
+  </si>
+  <si>
+    <t>Marondera Rural District Council Clinic</t>
+  </si>
+  <si>
+    <t>Moy Clinic</t>
+  </si>
+  <si>
+    <t>Nyameni Clinic</t>
+  </si>
+  <si>
+    <t>Rakodzi Clinic</t>
+  </si>
+  <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
+    <t>Waddilove Clinic</t>
+  </si>
+  <si>
+    <t>Wenimbi Clinic</t>
+  </si>
+  <si>
+    <t>Zebra downs Clinic</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
-  </si>
-  <si>
-    <t>20-24_yrs 25-29_yrs 45-49_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 40-44_yrs</t>
-  </si>
-  <si>
-    <t>50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 45-49_yrs</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>referral_sti referral_srh</t>
-  </si>
-  <si>
-    <t>Beagest Clinic</t>
-  </si>
-  <si>
-    <t>Border Church Clinic</t>
-  </si>
-  <si>
-    <t>Chakadini Clinic</t>
-  </si>
-  <si>
-    <t>Chimbwanda Clinic</t>
-  </si>
-  <si>
-    <t>Chinamhora</t>
-  </si>
-  <si>
-    <t>Chinhere Clinic</t>
-  </si>
-  <si>
-    <t>Chiparawe Clinic</t>
-  </si>
-  <si>
-    <t>Dombotombo Clinic</t>
-  </si>
-  <si>
-    <t>Helywin Clinic</t>
-  </si>
-  <si>
-    <t>Kushinga Clinic</t>
-  </si>
-  <si>
-    <t>Mahusekwa District Hospital</t>
-  </si>
-  <si>
-    <t>Marondera Provincial Hospital</t>
-  </si>
-  <si>
-    <t>Marondera Rural District Council Clinic</t>
-  </si>
-  <si>
-    <t>Moy Clinic</t>
-  </si>
-  <si>
-    <t>Nyameni Clinic</t>
-  </si>
-  <si>
-    <t>Rakodzi Clinic</t>
-  </si>
-  <si>
-    <t>Tengwe Clinic</t>
-  </si>
-  <si>
-    <t>Waddilove Clinic</t>
-  </si>
-  <si>
-    <t>Wenimbi Clinic</t>
-  </si>
-  <si>
-    <t>Zebra downs Clinic</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>correction</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -700,7 +703,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>2025-08-07T11:27:16.549430Z</t>
+    <t>2025-08-07T09:47:19.395370Z</t>
   </si>
   <si>
     <t>2025-07-19T10:04:43.558609Z</t>
@@ -721,7 +724,7 @@
     <t>2025-08-05T07:55:09.464010Z</t>
   </si>
   <si>
-    <t>2025-08-07T11:36:22.971156Z</t>
+    <t>2025-08-07T08:55:32.329926Z</t>
   </si>
   <si>
     <t>2025-07-03T04:35:05.818275Z</t>
@@ -772,7 +775,7 @@
     <t>2025-08-06T10:53:58.440194Z</t>
   </si>
   <si>
-    <t>2025-08-07T11:41:07.408643Z</t>
+    <t>2025-08-07T10:47:53.451885Z</t>
   </si>
   <si>
     <t>2025-07-03T06:45:00.666926Z</t>
@@ -793,9 +796,6 @@
     <t>April</t>
   </si>
   <si>
-    <t>15-19_yrs 25-29_yrs</t>
-  </si>
-  <si>
     <t>20-24_yrs</t>
   </si>
   <si>
@@ -805,16 +805,10 @@
     <t>20-24_yrs 25-29_yrs 35-39_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 50_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 30-34_yrs 35-39_yrs 50_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 35-39_yrs</t>
   </si>
   <si>
     <t>25-29_yrs 45-49_yrs</t>
@@ -1673,9 +1667,6 @@
       <c r="J2" t="s">
         <v>151</v>
       </c>
-      <c r="K2" t="s">
-        <v>157</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
@@ -1684,6 +1675,9 @@
       </c>
       <c r="N2">
         <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>168</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1710,7 +1704,7 @@
         <v>200</v>
       </c>
       <c r="Y2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1739,116 +1733,116 @@
       <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
         <v>211</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="BP2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BR2" t="s">
         <v>210</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
+      <c r="BS2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>200</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1863,31 +1857,28 @@
         <v>0</v>
       </c>
       <c r="BY2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BZ2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA2" t="s">
         <v>200</v>
       </c>
-      <c r="CB2" t="s">
-        <v>259</v>
-      </c>
       <c r="CC2">
         <v>0</v>
       </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
+      <c r="CD2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>200</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1901,17 +1892,17 @@
       <c r="CK2">
         <v>0</v>
       </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
+      <c r="CL2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>210</v>
       </c>
       <c r="CP2">
         <v>0</v>
@@ -1955,9 +1946,6 @@
       <c r="DE2">
         <v>0</v>
       </c>
-      <c r="DF2" t="s">
-        <v>210</v>
-      </c>
       <c r="DG2">
         <v>0</v>
       </c>
@@ -1979,23 +1967,26 @@
       <c r="DS2" t="s">
         <v>200</v>
       </c>
+      <c r="DT2" t="s">
+        <v>200</v>
+      </c>
       <c r="DU2">
         <v>0</v>
       </c>
+      <c r="DV2" t="s">
+        <v>215</v>
+      </c>
       <c r="DW2" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
-      <c r="DY2" t="s">
-        <v>210</v>
-      </c>
       <c r="DZ2" t="s">
         <v>200</v>
       </c>
       <c r="EA2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -2019,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -2043,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="EQ2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER2">
         <v>0</v>
@@ -2078,7 +2069,7 @@
         <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2114,13 +2105,13 @@
         <v>180</v>
       </c>
       <c r="X3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AA3" t="s">
         <v>211</v>
@@ -2144,7 +2135,7 @@
         <v>200</v>
       </c>
       <c r="AH3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2243,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BP3" t="s">
         <v>211</v>
@@ -2273,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="BY3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BZ3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CA3" t="s">
         <v>200</v>
@@ -2285,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="CD3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="CE3" t="s">
         <v>211</v>
@@ -2390,10 +2381,10 @@
         <v>200</v>
       </c>
       <c r="DV3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DW3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DX3">
         <v>0</v>
@@ -2402,7 +2393,7 @@
         <v>200</v>
       </c>
       <c r="DZ3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="EA3" t="s">
         <v>200</v>
@@ -2450,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER3">
         <v>0</v>
@@ -2521,7 +2512,7 @@
         <v>200</v>
       </c>
       <c r="Y4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2644,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BP4" t="s">
         <v>208</v>
       </c>
       <c r="BQ4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BR4" t="s">
         <v>212</v>
@@ -2674,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="BY4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BZ4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CA4" t="s">
         <v>200</v>
@@ -2710,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="CL4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CM4" t="s">
         <v>208</v>
       </c>
       <c r="CN4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CO4" t="s">
         <v>212</v>
@@ -2791,10 +2782,10 @@
         <v>200</v>
       </c>
       <c r="DV4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DW4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DX4">
         <v>0</v>
@@ -2803,7 +2794,7 @@
         <v>200</v>
       </c>
       <c r="EA4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -2851,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="EQ4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -2916,16 +2907,16 @@
         <v>182</v>
       </c>
       <c r="X5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z5" t="s">
         <v>208</v>
       </c>
       <c r="AA5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB5" t="s">
         <v>214</v>
@@ -2952,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL5" t="s">
         <v>203</v>
@@ -3075,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BZ5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CA5" t="s">
         <v>200</v>
@@ -3162,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="DB5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -3195,7 +3186,7 @@
         <v>200</v>
       </c>
       <c r="DW5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DX5">
         <v>0</v>
@@ -3204,7 +3195,7 @@
         <v>200</v>
       </c>
       <c r="EA5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="EB5">
         <v>0</v>
@@ -3228,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="EJ5" t="s">
         <v>200</v>
@@ -3252,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER5">
         <v>0</v>
@@ -3329,13 +3320,13 @@
         <v>201</v>
       </c>
       <c r="Y6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z6" t="s">
         <v>209</v>
       </c>
       <c r="AA6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB6" t="s">
         <v>213</v>
@@ -3356,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI6" t="s">
         <v>200</v>
@@ -3365,7 +3356,7 @@
         <v>208</v>
       </c>
       <c r="AK6" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AL6" t="s">
         <v>213</v>
@@ -3458,7 +3449,7 @@
         <v>209</v>
       </c>
       <c r="BP6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BQ6" t="s">
         <v>213</v>
@@ -3485,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BZ6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA6" t="s">
         <v>200</v>
@@ -3527,7 +3518,7 @@
         <v>209</v>
       </c>
       <c r="CM6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CN6" t="s">
         <v>213</v>
@@ -3578,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="DD6" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="DE6">
         <v>0</v>
@@ -3641,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="EJ6">
         <v>0</v>
@@ -3665,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="EQ6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER6">
         <v>0</v>
@@ -3733,7 +3724,7 @@
         <v>200</v>
       </c>
       <c r="Y7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -3886,10 +3877,10 @@
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BZ7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CA7" t="s">
         <v>200</v>
@@ -4009,10 +4000,10 @@
         <v>200</v>
       </c>
       <c r="DV7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DW7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="DX7">
         <v>0</v>
@@ -4021,7 +4012,7 @@
         <v>200</v>
       </c>
       <c r="EA7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="EB7">
         <v>0</v>
@@ -4069,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="EQ7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER7">
         <v>0</v>
@@ -4104,7 +4095,7 @@
         <v>153</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4143,7 +4134,7 @@
         <v>200</v>
       </c>
       <c r="Y8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -4266,22 +4257,22 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BP8" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>228</v>
+      </c>
+      <c r="BT8" t="s">
         <v>224</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>225</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>226</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>227</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>223</v>
       </c>
       <c r="BU8" t="s">
         <v>214</v>
@@ -4296,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="BY8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BZ8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA8" t="s">
         <v>200</v>
@@ -4332,22 +4323,22 @@
         <v>0</v>
       </c>
       <c r="CL8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CM8" t="s">
+        <v>225</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>226</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>227</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>228</v>
+      </c>
+      <c r="CQ8" t="s">
         <v>224</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>225</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>226</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>227</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>223</v>
       </c>
       <c r="CR8" t="s">
         <v>214</v>
@@ -4413,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="DV8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DW8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -4428,7 +4419,7 @@
         <v>200</v>
       </c>
       <c r="EA8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EB8">
         <v>0</v>
@@ -4476,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="EQ8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -4547,16 +4538,16 @@
         <v>160</v>
       </c>
       <c r="Y9" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4567,8 +4558,8 @@
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AF9" t="s">
-        <v>210</v>
+      <c r="AF9">
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -4672,14 +4663,14 @@
       <c r="BN9">
         <v>0</v>
       </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>211</v>
+      <c r="BO9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
       </c>
       <c r="BR9">
         <v>0</v>
@@ -4690,8 +4681,8 @@
       <c r="BT9">
         <v>0</v>
       </c>
-      <c r="BU9" t="s">
-        <v>210</v>
+      <c r="BU9">
+        <v>0</v>
       </c>
       <c r="BV9">
         <v>0</v>
@@ -4703,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="BY9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BZ9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA9" t="s">
         <v>200</v>
@@ -4714,14 +4705,14 @@
       <c r="CC9">
         <v>0</v>
       </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>200</v>
+      <c r="CD9" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4732,20 +4723,20 @@
       <c r="CI9">
         <v>0</v>
       </c>
-      <c r="CJ9" t="s">
-        <v>200</v>
+      <c r="CJ9">
+        <v>0</v>
       </c>
       <c r="CK9">
         <v>0</v>
       </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>205</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>211</v>
+      <c r="CL9" t="s">
+        <v>209</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
       </c>
       <c r="CO9">
         <v>0</v>
@@ -4756,8 +4747,8 @@
       <c r="CQ9">
         <v>0</v>
       </c>
-      <c r="CR9" t="s">
-        <v>210</v>
+      <c r="CR9">
+        <v>0</v>
       </c>
       <c r="CS9">
         <v>0</v>
@@ -4820,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="DV9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="DW9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="DX9">
         <v>0</v>
@@ -4832,7 +4823,7 @@
         <v>200</v>
       </c>
       <c r="EA9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="EB9">
         <v>0</v>
@@ -4880,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="EQ9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER9">
         <v>0</v>
@@ -4960,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -5113,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="BY10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BZ10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -5323,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER10">
         <v>0</v>
@@ -5358,7 +5349,7 @@
         <v>154</v>
       </c>
       <c r="K11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5391,10 +5382,10 @@
         <v>186</v>
       </c>
       <c r="X11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z11" t="s">
         <v>210</v>
@@ -5421,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -5550,10 +5541,10 @@
         <v>0</v>
       </c>
       <c r="BY11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BZ11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CA11" t="s">
         <v>200</v>
@@ -5667,16 +5658,16 @@
         <v>200</v>
       </c>
       <c r="DV11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DW11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DX11">
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DZ11" t="s">
         <v>200</v>
@@ -5730,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER11">
         <v>0</v>
@@ -5765,7 +5756,7 @@
         <v>155</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5807,7 +5798,7 @@
         <v>202</v>
       </c>
       <c r="Y12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z12" t="s">
         <v>203</v>
@@ -5816,7 +5807,7 @@
         <v>213</v>
       </c>
       <c r="AB12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC12" t="s">
         <v>212</v>
@@ -5834,7 +5825,7 @@
         <v>210</v>
       </c>
       <c r="AH12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -5939,7 +5930,7 @@
         <v>213</v>
       </c>
       <c r="BQ12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BR12" t="s">
         <v>212</v>
@@ -5963,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="BY12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BZ12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA12" t="s">
         <v>200</v>
@@ -6032,7 +6023,7 @@
         <v>213</v>
       </c>
       <c r="CV12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CW12" t="s">
         <v>212</v>
@@ -6089,13 +6080,13 @@
         <v>0</v>
       </c>
       <c r="DW12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DX12">
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DZ12" t="s">
         <v>200</v>
@@ -6149,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="EQ12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER12">
         <v>0</v>
@@ -6187,7 +6178,7 @@
         <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6223,10 +6214,10 @@
         <v>187</v>
       </c>
       <c r="X13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z13" t="s">
         <v>211</v>
@@ -6253,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -6382,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="BY13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BZ13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA13" t="s">
         <v>200</v>
@@ -6511,16 +6502,16 @@
         <v>0</v>
       </c>
       <c r="DV13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="DW13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DX13">
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DZ13" t="s">
         <v>200</v>
@@ -6574,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="EQ13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -6642,7 +6633,7 @@
         <v>200</v>
       </c>
       <c r="Y14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -6795,16 +6786,16 @@
         <v>0</v>
       </c>
       <c r="BY14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BZ14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA14" t="s">
         <v>200</v>
       </c>
       <c r="CB14" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="CC14">
         <v>0</v>
@@ -6918,10 +6909,10 @@
         <v>0</v>
       </c>
       <c r="DV14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DW14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DX14">
         <v>0</v>
@@ -6930,7 +6921,7 @@
         <v>200</v>
       </c>
       <c r="EA14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -6978,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:148">
@@ -7013,7 +7004,7 @@
         <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -7052,7 +7043,7 @@
         <v>200</v>
       </c>
       <c r="Y15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -7181,7 +7172,7 @@
         <v>213</v>
       </c>
       <c r="BQ15" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="BR15">
         <v>0</v>
@@ -7205,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="BY15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BZ15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CA15" t="s">
         <v>200</v>
@@ -7271,7 +7262,7 @@
         <v>213</v>
       </c>
       <c r="CV15" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="CW15">
         <v>0</v>
@@ -7322,16 +7313,16 @@
         <v>200</v>
       </c>
       <c r="DV15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DW15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DX15">
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DZ15" t="s">
         <v>200</v>
@@ -7382,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER15">
         <v>0</v>
@@ -7420,7 +7411,7 @@
         <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -7459,10 +7450,10 @@
         <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z16" t="s">
         <v>212</v>
@@ -7489,7 +7480,7 @@
         <v>210</v>
       </c>
       <c r="AH16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI16" t="s">
         <v>200</v>
@@ -7618,10 +7609,10 @@
         <v>0</v>
       </c>
       <c r="BY16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BZ16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA16" t="s">
         <v>200</v>
@@ -7744,16 +7735,16 @@
         <v>0</v>
       </c>
       <c r="DV16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="DW16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DX16">
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DZ16" t="s">
         <v>200</v>
@@ -7807,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="EQ16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER16">
         <v>0</v>
@@ -7878,7 +7869,7 @@
         <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -8028,16 +8019,16 @@
         <v>0</v>
       </c>
       <c r="BY17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BZ17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CA17" t="s">
         <v>200</v>
       </c>
       <c r="CB17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CC17">
         <v>0</v>
@@ -8202,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -8240,7 +8231,7 @@
         <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -8279,16 +8270,16 @@
         <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s">
         <v>213</v>
       </c>
       <c r="AA18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB18" t="s">
         <v>212</v>
@@ -8309,7 +8300,7 @@
         <v>210</v>
       </c>
       <c r="AH18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AI18" t="s">
         <v>200</v>
@@ -8411,7 +8402,7 @@
         <v>213</v>
       </c>
       <c r="BP18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BQ18" t="s">
         <v>212</v>
@@ -8438,16 +8429,16 @@
         <v>0</v>
       </c>
       <c r="BY18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BZ18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA18" t="s">
         <v>200</v>
       </c>
       <c r="CB18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CC18">
         <v>0</v>
@@ -8504,7 +8495,7 @@
         <v>213</v>
       </c>
       <c r="CU18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CV18" t="s">
         <v>212</v>
@@ -8570,13 +8561,13 @@
         <v>0</v>
       </c>
       <c r="DW18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DX18">
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DZ18" t="s">
         <v>200</v>
@@ -8630,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="EQ18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER18">
         <v>0</v>
@@ -8665,7 +8656,7 @@
         <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -8701,10 +8692,10 @@
         <v>191</v>
       </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s">
         <v>203</v>
@@ -8731,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="AH19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -8860,10 +8851,10 @@
         <v>0</v>
       </c>
       <c r="BY19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BZ19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CA19" t="s">
         <v>200</v>
@@ -8977,16 +8968,16 @@
         <v>200</v>
       </c>
       <c r="DV19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DW19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DX19">
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DZ19" t="s">
         <v>200</v>
@@ -9040,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="EQ19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER19">
         <v>0</v>
@@ -9075,7 +9066,7 @@
         <v>155</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -9114,10 +9105,10 @@
         <v>192</v>
       </c>
       <c r="X20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s">
         <v>210</v>
@@ -9144,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI20" t="s">
         <v>200</v>
@@ -9273,10 +9264,10 @@
         <v>0</v>
       </c>
       <c r="BY20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BZ20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA20" t="s">
         <v>200</v>
@@ -9390,16 +9381,16 @@
         <v>0</v>
       </c>
       <c r="DV20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DW20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DX20">
         <v>0</v>
       </c>
       <c r="DY20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DZ20" t="s">
         <v>200</v>
@@ -9453,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="EQ20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER20">
         <v>0</v>
@@ -9488,7 +9479,7 @@
         <v>155</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -9524,19 +9515,19 @@
         <v>192</v>
       </c>
       <c r="X21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z21" t="s">
         <v>212</v>
       </c>
       <c r="AA21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC21" t="s">
         <v>211</v>
@@ -9554,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AH21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -9656,10 +9647,10 @@
         <v>212</v>
       </c>
       <c r="BP21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BQ21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BR21" t="s">
         <v>211</v>
@@ -9683,10 +9674,10 @@
         <v>0</v>
       </c>
       <c r="BY21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BZ21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CA21" t="s">
         <v>200</v>
@@ -9749,10 +9740,10 @@
         <v>212</v>
       </c>
       <c r="CU21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CV21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CW21" t="s">
         <v>211</v>
@@ -9806,16 +9797,16 @@
         <v>200</v>
       </c>
       <c r="DV21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DW21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DX21">
         <v>0</v>
       </c>
       <c r="DY21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DZ21" t="s">
         <v>200</v>
@@ -9869,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="EQ21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER21">
         <v>0</v>
@@ -9937,7 +9928,7 @@
         <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s">
         <v>213</v>
@@ -10093,10 +10084,10 @@
         <v>0</v>
       </c>
       <c r="BY22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BZ22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CA22" t="s">
         <v>200</v>
@@ -10219,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="DZ22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="EB22">
         <v>0</v>
@@ -10264,10 +10255,10 @@
         <v>0</v>
       </c>
       <c r="EQ22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:148">
@@ -10332,7 +10323,7 @@
         <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -10485,16 +10476,16 @@
         <v>0</v>
       </c>
       <c r="BY23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BZ23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA23" t="s">
         <v>200</v>
       </c>
       <c r="CB23" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="CC23">
         <v>0</v>
@@ -10608,10 +10599,10 @@
         <v>0</v>
       </c>
       <c r="DV23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DW23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DX23">
         <v>0</v>
@@ -10620,7 +10611,7 @@
         <v>200</v>
       </c>
       <c r="EA23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="EB23">
         <v>0</v>
@@ -10668,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="EQ23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:148">
@@ -10703,7 +10694,7 @@
         <v>155</v>
       </c>
       <c r="K24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -10742,22 +10733,22 @@
         <v>194</v>
       </c>
       <c r="X24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z24" t="s">
         <v>210</v>
       </c>
       <c r="AA24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB24" t="s">
         <v>213</v>
       </c>
       <c r="AC24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD24" t="s">
         <v>211</v>
@@ -10772,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AH24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI24" t="s">
         <v>200</v>
@@ -10874,13 +10865,13 @@
         <v>210</v>
       </c>
       <c r="BP24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BQ24" t="s">
         <v>213</v>
       </c>
       <c r="BR24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BS24" t="s">
         <v>211</v>
@@ -10901,10 +10892,10 @@
         <v>0</v>
       </c>
       <c r="BY24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BZ24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA24" t="s">
         <v>200</v>
@@ -10964,13 +10955,13 @@
         <v>210</v>
       </c>
       <c r="CU24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CV24" t="s">
         <v>213</v>
       </c>
       <c r="CW24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CX24" t="s">
         <v>211</v>
@@ -11018,16 +11009,16 @@
         <v>0</v>
       </c>
       <c r="DV24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DW24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DX24">
         <v>0</v>
       </c>
       <c r="DY24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DZ24" t="s">
         <v>200</v>
@@ -11081,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="EQ24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER24">
         <v>0</v>
@@ -11116,7 +11107,7 @@
         <v>155</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -11155,10 +11146,10 @@
         <v>195</v>
       </c>
       <c r="X25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z25" t="s">
         <v>213</v>
@@ -11185,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="AH25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI25" t="s">
         <v>200</v>
@@ -11314,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="BY25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BZ25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA25" t="s">
         <v>200</v>
@@ -11449,16 +11440,16 @@
         <v>0</v>
       </c>
       <c r="DV25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DW25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DX25">
         <v>0</v>
       </c>
       <c r="DY25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DZ25" t="s">
         <v>200</v>
@@ -11512,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="EQ25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER25">
         <v>0</v>
@@ -11546,6 +11537,9 @@
       <c r="J26" t="s">
         <v>151</v>
       </c>
+      <c r="K26" t="s">
+        <v>160</v>
+      </c>
       <c r="L26">
         <v>0</v>
       </c>
@@ -11554,6 +11548,9 @@
       </c>
       <c r="N26">
         <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>169</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -11577,19 +11574,19 @@
         <v>196</v>
       </c>
       <c r="X26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z26" t="s">
         <v>206</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
+      <c r="AA26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>212</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -11606,125 +11603,125 @@
       <c r="AG26">
         <v>0</v>
       </c>
+      <c r="AH26" t="s">
+        <v>176</v>
+      </c>
       <c r="AI26">
         <v>0</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>212</v>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR26" t="s">
         <v>210</v>
       </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>200</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>200</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
-      </c>
-      <c r="BI26">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>0</v>
-      </c>
-      <c r="BO26">
-        <v>0</v>
-      </c>
-      <c r="BP26">
-        <v>0</v>
-      </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
-      <c r="BR26">
-        <v>0</v>
-      </c>
-      <c r="BS26">
-        <v>0</v>
-      </c>
-      <c r="BT26">
-        <v>0</v>
-      </c>
-      <c r="BU26">
-        <v>0</v>
-      </c>
-      <c r="BV26">
-        <v>0</v>
+      <c r="BS26" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>200</v>
       </c>
       <c r="BW26">
         <v>0</v>
@@ -11733,34 +11730,31 @@
         <v>0</v>
       </c>
       <c r="BY26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BZ26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA26" t="s">
         <v>200</v>
       </c>
-      <c r="CB26" t="s">
-        <v>266</v>
-      </c>
       <c r="CC26">
         <v>0</v>
       </c>
-      <c r="CD26">
-        <v>0</v>
-      </c>
-      <c r="CE26">
-        <v>0</v>
-      </c>
-      <c r="CF26">
-        <v>0</v>
-      </c>
-      <c r="CG26">
-        <v>0</v>
-      </c>
-      <c r="CH26">
-        <v>0</v>
+      <c r="CD26" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>200</v>
       </c>
       <c r="CI26">
         <v>0</v>
@@ -11771,20 +11765,20 @@
       <c r="CK26">
         <v>0</v>
       </c>
-      <c r="CL26">
-        <v>0</v>
-      </c>
-      <c r="CM26">
-        <v>0</v>
-      </c>
-      <c r="CN26">
-        <v>0</v>
-      </c>
-      <c r="CO26">
-        <v>0</v>
-      </c>
-      <c r="CP26">
-        <v>0</v>
+      <c r="CL26" t="s">
+        <v>204</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>206</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>203</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>210</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>210</v>
       </c>
       <c r="CQ26">
         <v>0</v>
@@ -11819,21 +11813,12 @@
       <c r="DA26">
         <v>0</v>
       </c>
-      <c r="DB26" t="s">
-        <v>212</v>
-      </c>
       <c r="DC26">
         <v>0</v>
       </c>
-      <c r="DD26" t="s">
-        <v>212</v>
-      </c>
       <c r="DE26">
         <v>0</v>
       </c>
-      <c r="DF26" t="s">
-        <v>212</v>
-      </c>
       <c r="DG26">
         <v>0</v>
       </c>
@@ -11855,20 +11840,29 @@
       <c r="DS26" t="s">
         <v>200</v>
       </c>
+      <c r="DT26" t="s">
+        <v>200</v>
+      </c>
       <c r="DU26">
         <v>0</v>
       </c>
+      <c r="DV26" t="s">
+        <v>160</v>
+      </c>
       <c r="DW26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DX26">
         <v>0</v>
       </c>
+      <c r="DY26" t="s">
+        <v>200</v>
+      </c>
       <c r="DZ26" t="s">
         <v>200</v>
       </c>
       <c r="EA26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EB26">
         <v>0</v>
@@ -11892,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="EI26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="EJ26">
         <v>0</v>
@@ -11916,10 +11910,10 @@
         <v>0</v>
       </c>
       <c r="EQ26" t="s">
+        <v>270</v>
+      </c>
+      <c r="ER26" t="s">
         <v>272</v>
-      </c>
-      <c r="ER26" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:148">
@@ -11984,16 +11978,16 @@
         <v>197</v>
       </c>
       <c r="X27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA27" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AB27" t="s">
         <v>212</v>
@@ -12023,7 +12017,7 @@
         <v>213</v>
       </c>
       <c r="AK27" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AL27" t="s">
         <v>212</v>
@@ -12113,10 +12107,10 @@
         <v>0</v>
       </c>
       <c r="BO27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BP27" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="BQ27" t="s">
         <v>212</v>
@@ -12143,10 +12137,10 @@
         <v>0</v>
       </c>
       <c r="BY27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CA27" t="s">
         <v>200</v>
@@ -12158,10 +12152,10 @@
         <v>0</v>
       </c>
       <c r="CD27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CE27" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="CF27" t="s">
         <v>212</v>
@@ -12263,13 +12257,13 @@
         <v>200</v>
       </c>
       <c r="DW27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="DX27">
         <v>0</v>
       </c>
       <c r="DZ27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="EB27">
         <v>0</v>
@@ -12293,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="EI27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EJ27" t="s">
         <v>200</v>
@@ -12317,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="EQ27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER27">
         <v>0</v>
@@ -12352,7 +12346,7 @@
         <v>155</v>
       </c>
       <c r="K28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -12391,19 +12385,19 @@
         <v>198</v>
       </c>
       <c r="X28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z28" t="s">
         <v>206</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>205</v>
       </c>
       <c r="AA28" t="s">
         <v>213</v>
       </c>
       <c r="AB28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC28" t="s">
         <v>213</v>
@@ -12421,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="AH28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI28" t="s">
         <v>200</v>
@@ -12520,13 +12514,13 @@
         <v>0</v>
       </c>
       <c r="BO28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BP28" t="s">
         <v>213</v>
       </c>
       <c r="BQ28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BR28" t="s">
         <v>213</v>
@@ -12550,16 +12544,16 @@
         <v>0</v>
       </c>
       <c r="BY28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BZ28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CA28" t="s">
         <v>200</v>
       </c>
       <c r="CB28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="CC28">
         <v>0</v>
@@ -12619,7 +12613,7 @@
         <v>213</v>
       </c>
       <c r="CV28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CW28" t="s">
         <v>213</v>
@@ -12670,13 +12664,13 @@
         <v>0</v>
       </c>
       <c r="DW28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="DX28">
         <v>0</v>
       </c>
       <c r="DY28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DZ28" t="s">
         <v>200</v>
@@ -12730,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="EQ28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER28">
         <v>0</v>
@@ -12795,10 +12789,10 @@
         <v>199</v>
       </c>
       <c r="X29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z29" t="s">
         <v>214</v>
@@ -12825,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="AH29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -12954,10 +12948,10 @@
         <v>0</v>
       </c>
       <c r="BY29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BZ29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CA29" t="s">
         <v>200</v>
@@ -13071,16 +13065,16 @@
         <v>200</v>
       </c>
       <c r="DV29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DW29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DX29">
         <v>0</v>
       </c>
       <c r="DZ29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="EB29">
         <v>0</v>
@@ -13125,10 +13119,10 @@
         <v>0</v>
       </c>
       <c r="EQ29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="ER29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
